--- a/out_test/tables/Fexp0.25/Fexp0.25_30.xlsx
+++ b/out_test/tables/Fexp0.25/Fexp0.25_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="99">
   <si>
     <t>RWS</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>Num_loose</t>
+  </si>
+  <si>
+    <t>Avg_NI_loose</t>
+  </si>
+  <si>
+    <t>Sigma_NI_loose</t>
+  </si>
+  <si>
+    <t>Avg_Num_loose</t>
+  </si>
+  <si>
+    <t>Sigma_Num_loose</t>
   </si>
   <si>
     <t>Run 0</t>
@@ -662,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:MM3"/>
+  <dimension ref="A1:OA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -673,15 +685,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:351">
+    <row r="1" spans="1:391">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -711,13 +723,13 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
-      <c r="AF1" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
+      <c r="AJ1" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -742,9 +754,7 @@
       <c r="BF1" s="1"/>
       <c r="BG1" s="1"/>
       <c r="BH1" s="1"/>
-      <c r="BI1" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -752,7 +762,9 @@
       <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
+      <c r="BQ1" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="BR1" s="1"/>
       <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
@@ -773,9 +785,7 @@
       <c r="CI1" s="1"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
-      <c r="CL1" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="CL1" s="1"/>
       <c r="CM1" s="1"/>
       <c r="CN1" s="1"/>
       <c r="CO1" s="1"/>
@@ -787,7 +797,9 @@
       <c r="CU1" s="1"/>
       <c r="CV1" s="1"/>
       <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
+      <c r="CX1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="CY1" s="1"/>
       <c r="CZ1" s="1"/>
       <c r="DA1" s="1"/>
@@ -804,9 +816,7 @@
       <c r="DL1" s="1"/>
       <c r="DM1" s="1"/>
       <c r="DN1" s="1"/>
-      <c r="DO1" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="DO1" s="1"/>
       <c r="DP1" s="1"/>
       <c r="DQ1" s="1"/>
       <c r="DR1" s="1"/>
@@ -822,7 +832,9 @@
       <c r="EB1" s="1"/>
       <c r="EC1" s="1"/>
       <c r="ED1" s="1"/>
-      <c r="EE1" s="1"/>
+      <c r="EE1" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="EF1" s="1"/>
       <c r="EG1" s="1"/>
       <c r="EH1" s="1"/>
@@ -835,9 +847,7 @@
       <c r="EO1" s="1"/>
       <c r="EP1" s="1"/>
       <c r="EQ1" s="1"/>
-      <c r="ER1" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="ER1" s="1"/>
       <c r="ES1" s="1"/>
       <c r="ET1" s="1"/>
       <c r="EU1" s="1"/>
@@ -857,7 +867,9 @@
       <c r="FI1" s="1"/>
       <c r="FJ1" s="1"/>
       <c r="FK1" s="1"/>
-      <c r="FL1" s="1"/>
+      <c r="FL1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="FM1" s="1"/>
       <c r="FN1" s="1"/>
       <c r="FO1" s="1"/>
@@ -866,9 +878,7 @@
       <c r="FR1" s="1"/>
       <c r="FS1" s="1"/>
       <c r="FT1" s="1"/>
-      <c r="FU1" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="FU1" s="1"/>
       <c r="FV1" s="1"/>
       <c r="FW1" s="1"/>
       <c r="FX1" s="1"/>
@@ -892,14 +902,14 @@
       <c r="GP1" s="1"/>
       <c r="GQ1" s="1"/>
       <c r="GR1" s="1"/>
-      <c r="GS1" s="1"/>
+      <c r="GS1" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="GT1" s="1"/>
       <c r="GU1" s="1"/>
       <c r="GV1" s="1"/>
       <c r="GW1" s="1"/>
-      <c r="GX1" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="GX1" s="1"/>
       <c r="GY1" s="1"/>
       <c r="GZ1" s="1"/>
       <c r="HA1" s="1"/>
@@ -927,10 +937,10 @@
       <c r="HW1" s="1"/>
       <c r="HX1" s="1"/>
       <c r="HY1" s="1"/>
-      <c r="HZ1" s="1"/>
-      <c r="IA1" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="IA1" s="1"/>
       <c r="IB1" s="1"/>
       <c r="IC1" s="1"/>
       <c r="ID1" s="1"/>
@@ -959,12 +969,12 @@
       <c r="JA1" s="1"/>
       <c r="JB1" s="1"/>
       <c r="JC1" s="1"/>
-      <c r="JD1" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="JD1" s="1"/>
       <c r="JE1" s="1"/>
       <c r="JF1" s="1"/>
-      <c r="JG1" s="1"/>
+      <c r="JG1" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="JH1" s="1"/>
       <c r="JI1" s="1"/>
       <c r="JJ1" s="1"/>
@@ -990,16 +1000,16 @@
       <c r="KD1" s="1"/>
       <c r="KE1" s="1"/>
       <c r="KF1" s="1"/>
-      <c r="KG1" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="KG1" s="1"/>
       <c r="KH1" s="1"/>
       <c r="KI1" s="1"/>
       <c r="KJ1" s="1"/>
       <c r="KK1" s="1"/>
       <c r="KL1" s="1"/>
       <c r="KM1" s="1"/>
-      <c r="KN1" s="1"/>
+      <c r="KN1" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="KO1" s="1"/>
       <c r="KP1" s="1"/>
       <c r="KQ1" s="1"/>
@@ -1032,7 +1042,9 @@
       <c r="LR1" s="1"/>
       <c r="LS1" s="1"/>
       <c r="LT1" s="1"/>
-      <c r="LU1" s="1"/>
+      <c r="LU1" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="LV1" s="1"/>
       <c r="LW1" s="1"/>
       <c r="LX1" s="1"/>
@@ -1051,8 +1063,48 @@
       <c r="MK1" s="1"/>
       <c r="ML1" s="1"/>
       <c r="MM1" s="1"/>
+      <c r="MN1" s="1"/>
+      <c r="MO1" s="1"/>
+      <c r="MP1" s="1"/>
+      <c r="MQ1" s="1"/>
+      <c r="MR1" s="1"/>
+      <c r="MS1" s="1"/>
+      <c r="MT1" s="1"/>
+      <c r="MU1" s="1"/>
+      <c r="MV1" s="1"/>
+      <c r="MW1" s="1"/>
+      <c r="MX1" s="1"/>
+      <c r="MY1" s="1"/>
+      <c r="MZ1" s="1"/>
+      <c r="NA1" s="1"/>
+      <c r="NB1" s="1"/>
+      <c r="NC1" s="1"/>
+      <c r="ND1" s="1"/>
+      <c r="NE1" s="1"/>
+      <c r="NF1" s="1"/>
+      <c r="NG1" s="1"/>
+      <c r="NH1" s="1"/>
+      <c r="NI1" s="1"/>
+      <c r="NJ1" s="1"/>
+      <c r="NK1" s="1"/>
+      <c r="NL1" s="1"/>
+      <c r="NM1" s="1"/>
+      <c r="NN1" s="1"/>
+      <c r="NO1" s="1"/>
+      <c r="NP1" s="1"/>
+      <c r="NQ1" s="1"/>
+      <c r="NR1" s="1"/>
+      <c r="NS1" s="1"/>
+      <c r="NT1" s="1"/>
+      <c r="NU1" s="1"/>
+      <c r="NV1" s="1"/>
+      <c r="NW1" s="1"/>
+      <c r="NX1" s="1"/>
+      <c r="NY1" s="1"/>
+      <c r="NZ1" s="1"/>
+      <c r="OA1" s="1"/>
     </row>
-    <row r="2" spans="1:351">
+    <row r="2" spans="1:391">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -1143,967 +1195,1087 @@
         <v>30</v>
       </c>
       <c r="AF2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>4</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AM2" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AN2" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AO2" t="s">
         <v>7</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AP2" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AQ2" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AR2" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AS2" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AT2" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AU2" t="s">
         <v>13</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AV2" t="s">
         <v>14</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AW2" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AX2" t="s">
         <v>16</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AY2" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AZ2" t="s">
         <v>18</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BA2" t="s">
         <v>19</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BB2" t="s">
         <v>20</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BC2" t="s">
         <v>21</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BD2" t="s">
         <v>22</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BE2" t="s">
         <v>23</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BF2" t="s">
         <v>24</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BG2" t="s">
         <v>25</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BH2" t="s">
         <v>26</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BI2" t="s">
         <v>27</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BJ2" t="s">
         <v>28</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BK2" t="s">
         <v>29</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BL2" t="s">
         <v>30</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BM2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>2</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BR2" t="s">
         <v>3</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BS2" t="s">
         <v>4</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BT2" t="s">
         <v>5</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BU2" t="s">
         <v>6</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BV2" t="s">
         <v>7</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BW2" t="s">
         <v>8</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BX2" t="s">
         <v>9</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BY2" t="s">
         <v>10</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BZ2" t="s">
         <v>11</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CA2" t="s">
         <v>12</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CB2" t="s">
         <v>13</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CC2" t="s">
         <v>14</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CD2" t="s">
         <v>15</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CE2" t="s">
         <v>16</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CF2" t="s">
         <v>17</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CG2" t="s">
         <v>18</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CH2" t="s">
         <v>19</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CI2" t="s">
         <v>20</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CJ2" t="s">
         <v>21</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CK2" t="s">
         <v>22</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CL2" t="s">
         <v>23</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CM2" t="s">
         <v>24</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CN2" t="s">
         <v>25</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CO2" t="s">
         <v>26</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CP2" t="s">
         <v>27</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CQ2" t="s">
         <v>28</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CR2" t="s">
         <v>29</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CS2" t="s">
         <v>30</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CT2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CX2" t="s">
         <v>2</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CY2" t="s">
         <v>3</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CZ2" t="s">
         <v>4</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="DA2" t="s">
         <v>5</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="DB2" t="s">
         <v>6</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="DC2" t="s">
         <v>7</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="DD2" t="s">
         <v>8</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="DE2" t="s">
         <v>9</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="DF2" t="s">
         <v>10</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="DG2" t="s">
         <v>11</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="DH2" t="s">
         <v>12</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="DI2" t="s">
         <v>13</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DJ2" t="s">
         <v>14</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DK2" t="s">
         <v>15</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DL2" t="s">
         <v>16</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DM2" t="s">
         <v>17</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DN2" t="s">
         <v>18</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DO2" t="s">
         <v>19</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DP2" t="s">
         <v>20</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DQ2" t="s">
         <v>21</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DR2" t="s">
         <v>22</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DS2" t="s">
         <v>23</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DT2" t="s">
         <v>24</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DU2" t="s">
         <v>25</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="DV2" t="s">
         <v>26</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DW2" t="s">
         <v>27</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DX2" t="s">
         <v>28</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="DY2" t="s">
         <v>29</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="DZ2" t="s">
         <v>30</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="EA2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>32</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>33</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>34</v>
+      </c>
+      <c r="EE2" t="s">
         <v>2</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="EF2" t="s">
         <v>3</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="EG2" t="s">
         <v>4</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="EH2" t="s">
         <v>5</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="EI2" t="s">
         <v>6</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="EJ2" t="s">
         <v>7</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="EK2" t="s">
         <v>8</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="EL2" t="s">
         <v>9</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="EM2" t="s">
         <v>10</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EN2" t="s">
         <v>11</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EO2" t="s">
         <v>12</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="EP2" t="s">
         <v>13</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EQ2" t="s">
         <v>14</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="ER2" t="s">
         <v>15</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="ES2" t="s">
         <v>16</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="ET2" t="s">
         <v>17</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="EU2" t="s">
         <v>18</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EV2" t="s">
         <v>19</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="EW2" t="s">
         <v>20</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="EX2" t="s">
         <v>21</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="EY2" t="s">
         <v>22</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="EZ2" t="s">
         <v>23</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="FA2" t="s">
         <v>24</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="FB2" t="s">
         <v>25</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="FC2" t="s">
         <v>26</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="FD2" t="s">
         <v>27</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="FE2" t="s">
         <v>28</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="FF2" t="s">
         <v>29</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="FG2" t="s">
         <v>30</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="FH2" t="s">
+        <v>31</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>32</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>34</v>
+      </c>
+      <c r="FL2" t="s">
         <v>2</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="FM2" t="s">
         <v>3</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="FN2" t="s">
         <v>4</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="FO2" t="s">
         <v>5</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="FP2" t="s">
         <v>6</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="FQ2" t="s">
         <v>7</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="FR2" t="s">
         <v>8</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="FS2" t="s">
         <v>9</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="FT2" t="s">
         <v>10</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="FU2" t="s">
         <v>11</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="FV2" t="s">
         <v>12</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="FW2" t="s">
         <v>13</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="FX2" t="s">
         <v>14</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="FY2" t="s">
         <v>15</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="FZ2" t="s">
         <v>16</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="GA2" t="s">
         <v>17</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="GB2" t="s">
         <v>18</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="GC2" t="s">
         <v>19</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="GD2" t="s">
         <v>20</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="GE2" t="s">
         <v>21</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="GF2" t="s">
         <v>22</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="GG2" t="s">
         <v>23</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="GH2" t="s">
         <v>24</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="GI2" t="s">
         <v>25</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="GJ2" t="s">
         <v>26</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="GK2" t="s">
         <v>27</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="GL2" t="s">
         <v>28</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="GM2" t="s">
         <v>29</v>
       </c>
-      <c r="FT2" t="s">
+      <c r="GN2" t="s">
         <v>30</v>
       </c>
-      <c r="FU2" t="s">
+      <c r="GO2" t="s">
+        <v>31</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>32</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>34</v>
+      </c>
+      <c r="GS2" t="s">
         <v>2</v>
       </c>
-      <c r="FV2" t="s">
+      <c r="GT2" t="s">
         <v>3</v>
       </c>
-      <c r="FW2" t="s">
+      <c r="GU2" t="s">
         <v>4</v>
       </c>
-      <c r="FX2" t="s">
+      <c r="GV2" t="s">
         <v>5</v>
       </c>
-      <c r="FY2" t="s">
+      <c r="GW2" t="s">
         <v>6</v>
       </c>
-      <c r="FZ2" t="s">
+      <c r="GX2" t="s">
         <v>7</v>
       </c>
-      <c r="GA2" t="s">
+      <c r="GY2" t="s">
         <v>8</v>
       </c>
-      <c r="GB2" t="s">
+      <c r="GZ2" t="s">
         <v>9</v>
       </c>
-      <c r="GC2" t="s">
+      <c r="HA2" t="s">
         <v>10</v>
       </c>
-      <c r="GD2" t="s">
+      <c r="HB2" t="s">
         <v>11</v>
       </c>
-      <c r="GE2" t="s">
+      <c r="HC2" t="s">
         <v>12</v>
       </c>
-      <c r="GF2" t="s">
+      <c r="HD2" t="s">
         <v>13</v>
       </c>
-      <c r="GG2" t="s">
+      <c r="HE2" t="s">
         <v>14</v>
       </c>
-      <c r="GH2" t="s">
+      <c r="HF2" t="s">
         <v>15</v>
       </c>
-      <c r="GI2" t="s">
+      <c r="HG2" t="s">
         <v>16</v>
       </c>
-      <c r="GJ2" t="s">
+      <c r="HH2" t="s">
         <v>17</v>
       </c>
-      <c r="GK2" t="s">
+      <c r="HI2" t="s">
         <v>18</v>
       </c>
-      <c r="GL2" t="s">
+      <c r="HJ2" t="s">
         <v>19</v>
       </c>
-      <c r="GM2" t="s">
+      <c r="HK2" t="s">
         <v>20</v>
       </c>
-      <c r="GN2" t="s">
+      <c r="HL2" t="s">
         <v>21</v>
       </c>
-      <c r="GO2" t="s">
+      <c r="HM2" t="s">
         <v>22</v>
       </c>
-      <c r="GP2" t="s">
+      <c r="HN2" t="s">
         <v>23</v>
       </c>
-      <c r="GQ2" t="s">
+      <c r="HO2" t="s">
         <v>24</v>
       </c>
-      <c r="GR2" t="s">
+      <c r="HP2" t="s">
         <v>25</v>
       </c>
-      <c r="GS2" t="s">
+      <c r="HQ2" t="s">
         <v>26</v>
       </c>
-      <c r="GT2" t="s">
+      <c r="HR2" t="s">
         <v>27</v>
       </c>
-      <c r="GU2" t="s">
+      <c r="HS2" t="s">
         <v>28</v>
       </c>
-      <c r="GV2" t="s">
+      <c r="HT2" t="s">
         <v>29</v>
       </c>
-      <c r="GW2" t="s">
+      <c r="HU2" t="s">
         <v>30</v>
       </c>
-      <c r="GX2" t="s">
+      <c r="HV2" t="s">
+        <v>31</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>32</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>33</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>34</v>
+      </c>
+      <c r="HZ2" t="s">
         <v>2</v>
       </c>
-      <c r="GY2" t="s">
+      <c r="IA2" t="s">
         <v>3</v>
       </c>
-      <c r="GZ2" t="s">
+      <c r="IB2" t="s">
         <v>4</v>
       </c>
-      <c r="HA2" t="s">
+      <c r="IC2" t="s">
         <v>5</v>
       </c>
-      <c r="HB2" t="s">
+      <c r="ID2" t="s">
         <v>6</v>
       </c>
-      <c r="HC2" t="s">
+      <c r="IE2" t="s">
         <v>7</v>
       </c>
-      <c r="HD2" t="s">
+      <c r="IF2" t="s">
         <v>8</v>
       </c>
-      <c r="HE2" t="s">
+      <c r="IG2" t="s">
         <v>9</v>
       </c>
-      <c r="HF2" t="s">
+      <c r="IH2" t="s">
         <v>10</v>
       </c>
-      <c r="HG2" t="s">
+      <c r="II2" t="s">
         <v>11</v>
       </c>
-      <c r="HH2" t="s">
+      <c r="IJ2" t="s">
         <v>12</v>
       </c>
-      <c r="HI2" t="s">
+      <c r="IK2" t="s">
         <v>13</v>
       </c>
-      <c r="HJ2" t="s">
+      <c r="IL2" t="s">
         <v>14</v>
       </c>
-      <c r="HK2" t="s">
+      <c r="IM2" t="s">
         <v>15</v>
       </c>
-      <c r="HL2" t="s">
+      <c r="IN2" t="s">
         <v>16</v>
       </c>
-      <c r="HM2" t="s">
+      <c r="IO2" t="s">
         <v>17</v>
       </c>
-      <c r="HN2" t="s">
+      <c r="IP2" t="s">
         <v>18</v>
       </c>
-      <c r="HO2" t="s">
+      <c r="IQ2" t="s">
         <v>19</v>
       </c>
-      <c r="HP2" t="s">
+      <c r="IR2" t="s">
         <v>20</v>
       </c>
-      <c r="HQ2" t="s">
+      <c r="IS2" t="s">
         <v>21</v>
       </c>
-      <c r="HR2" t="s">
+      <c r="IT2" t="s">
         <v>22</v>
       </c>
-      <c r="HS2" t="s">
+      <c r="IU2" t="s">
         <v>23</v>
       </c>
-      <c r="HT2" t="s">
+      <c r="IV2" t="s">
         <v>24</v>
       </c>
-      <c r="HU2" t="s">
+      <c r="IW2" t="s">
         <v>25</v>
       </c>
-      <c r="HV2" t="s">
+      <c r="IX2" t="s">
         <v>26</v>
       </c>
-      <c r="HW2" t="s">
+      <c r="IY2" t="s">
         <v>27</v>
       </c>
-      <c r="HX2" t="s">
+      <c r="IZ2" t="s">
         <v>28</v>
       </c>
-      <c r="HY2" t="s">
+      <c r="JA2" t="s">
         <v>29</v>
       </c>
-      <c r="HZ2" t="s">
+      <c r="JB2" t="s">
         <v>30</v>
       </c>
-      <c r="IA2" t="s">
+      <c r="JC2" t="s">
+        <v>31</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>32</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>33</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>34</v>
+      </c>
+      <c r="JG2" t="s">
         <v>2</v>
       </c>
-      <c r="IB2" t="s">
+      <c r="JH2" t="s">
         <v>3</v>
       </c>
-      <c r="IC2" t="s">
+      <c r="JI2" t="s">
         <v>4</v>
       </c>
-      <c r="ID2" t="s">
+      <c r="JJ2" t="s">
         <v>5</v>
       </c>
-      <c r="IE2" t="s">
+      <c r="JK2" t="s">
         <v>6</v>
       </c>
-      <c r="IF2" t="s">
+      <c r="JL2" t="s">
         <v>7</v>
       </c>
-      <c r="IG2" t="s">
+      <c r="JM2" t="s">
         <v>8</v>
       </c>
-      <c r="IH2" t="s">
+      <c r="JN2" t="s">
         <v>9</v>
       </c>
-      <c r="II2" t="s">
+      <c r="JO2" t="s">
         <v>10</v>
       </c>
-      <c r="IJ2" t="s">
+      <c r="JP2" t="s">
         <v>11</v>
       </c>
-      <c r="IK2" t="s">
+      <c r="JQ2" t="s">
         <v>12</v>
       </c>
-      <c r="IL2" t="s">
+      <c r="JR2" t="s">
         <v>13</v>
       </c>
-      <c r="IM2" t="s">
+      <c r="JS2" t="s">
         <v>14</v>
       </c>
-      <c r="IN2" t="s">
+      <c r="JT2" t="s">
         <v>15</v>
       </c>
-      <c r="IO2" t="s">
+      <c r="JU2" t="s">
         <v>16</v>
       </c>
-      <c r="IP2" t="s">
+      <c r="JV2" t="s">
         <v>17</v>
       </c>
-      <c r="IQ2" t="s">
+      <c r="JW2" t="s">
         <v>18</v>
       </c>
-      <c r="IR2" t="s">
+      <c r="JX2" t="s">
         <v>19</v>
       </c>
-      <c r="IS2" t="s">
+      <c r="JY2" t="s">
         <v>20</v>
       </c>
-      <c r="IT2" t="s">
+      <c r="JZ2" t="s">
         <v>21</v>
       </c>
-      <c r="IU2" t="s">
+      <c r="KA2" t="s">
         <v>22</v>
       </c>
-      <c r="IV2" t="s">
+      <c r="KB2" t="s">
         <v>23</v>
       </c>
-      <c r="IW2" t="s">
+      <c r="KC2" t="s">
         <v>24</v>
       </c>
-      <c r="IX2" t="s">
+      <c r="KD2" t="s">
         <v>25</v>
       </c>
-      <c r="IY2" t="s">
+      <c r="KE2" t="s">
         <v>26</v>
       </c>
-      <c r="IZ2" t="s">
+      <c r="KF2" t="s">
         <v>27</v>
       </c>
-      <c r="JA2" t="s">
+      <c r="KG2" t="s">
         <v>28</v>
       </c>
-      <c r="JB2" t="s">
+      <c r="KH2" t="s">
         <v>29</v>
       </c>
-      <c r="JC2" t="s">
+      <c r="KI2" t="s">
         <v>30</v>
       </c>
-      <c r="JD2" t="s">
+      <c r="KJ2" t="s">
+        <v>31</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>32</v>
+      </c>
+      <c r="KL2" t="s">
+        <v>33</v>
+      </c>
+      <c r="KM2" t="s">
+        <v>34</v>
+      </c>
+      <c r="KN2" t="s">
         <v>2</v>
       </c>
-      <c r="JE2" t="s">
+      <c r="KO2" t="s">
         <v>3</v>
       </c>
-      <c r="JF2" t="s">
+      <c r="KP2" t="s">
         <v>4</v>
       </c>
-      <c r="JG2" t="s">
+      <c r="KQ2" t="s">
         <v>5</v>
       </c>
-      <c r="JH2" t="s">
+      <c r="KR2" t="s">
         <v>6</v>
       </c>
-      <c r="JI2" t="s">
+      <c r="KS2" t="s">
         <v>7</v>
       </c>
-      <c r="JJ2" t="s">
+      <c r="KT2" t="s">
         <v>8</v>
       </c>
-      <c r="JK2" t="s">
+      <c r="KU2" t="s">
         <v>9</v>
       </c>
-      <c r="JL2" t="s">
+      <c r="KV2" t="s">
         <v>10</v>
       </c>
-      <c r="JM2" t="s">
+      <c r="KW2" t="s">
         <v>11</v>
       </c>
-      <c r="JN2" t="s">
+      <c r="KX2" t="s">
         <v>12</v>
       </c>
-      <c r="JO2" t="s">
+      <c r="KY2" t="s">
         <v>13</v>
       </c>
-      <c r="JP2" t="s">
+      <c r="KZ2" t="s">
         <v>14</v>
       </c>
-      <c r="JQ2" t="s">
+      <c r="LA2" t="s">
         <v>15</v>
       </c>
-      <c r="JR2" t="s">
+      <c r="LB2" t="s">
         <v>16</v>
       </c>
-      <c r="JS2" t="s">
+      <c r="LC2" t="s">
         <v>17</v>
       </c>
-      <c r="JT2" t="s">
+      <c r="LD2" t="s">
         <v>18</v>
       </c>
-      <c r="JU2" t="s">
+      <c r="LE2" t="s">
         <v>19</v>
       </c>
-      <c r="JV2" t="s">
+      <c r="LF2" t="s">
         <v>20</v>
       </c>
-      <c r="JW2" t="s">
+      <c r="LG2" t="s">
         <v>21</v>
       </c>
-      <c r="JX2" t="s">
+      <c r="LH2" t="s">
         <v>22</v>
       </c>
-      <c r="JY2" t="s">
+      <c r="LI2" t="s">
         <v>23</v>
       </c>
-      <c r="JZ2" t="s">
+      <c r="LJ2" t="s">
         <v>24</v>
       </c>
-      <c r="KA2" t="s">
+      <c r="LK2" t="s">
         <v>25</v>
       </c>
-      <c r="KB2" t="s">
+      <c r="LL2" t="s">
         <v>26</v>
       </c>
-      <c r="KC2" t="s">
+      <c r="LM2" t="s">
         <v>27</v>
       </c>
-      <c r="KD2" t="s">
+      <c r="LN2" t="s">
         <v>28</v>
       </c>
-      <c r="KE2" t="s">
+      <c r="LO2" t="s">
         <v>29</v>
       </c>
-      <c r="KF2" t="s">
+      <c r="LP2" t="s">
         <v>30</v>
       </c>
-      <c r="KG2" t="s">
-        <v>41</v>
-      </c>
-      <c r="KH2" t="s">
-        <v>42</v>
-      </c>
-      <c r="KI2" t="s">
-        <v>43</v>
-      </c>
-      <c r="KJ2" t="s">
-        <v>44</v>
-      </c>
-      <c r="KK2" t="s">
+      <c r="LQ2" t="s">
+        <v>31</v>
+      </c>
+      <c r="LR2" t="s">
+        <v>32</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>33</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>34</v>
+      </c>
+      <c r="LU2" t="s">
         <v>45</v>
       </c>
-      <c r="KL2" t="s">
+      <c r="LV2" t="s">
         <v>46</v>
       </c>
-      <c r="KM2" t="s">
+      <c r="LW2" t="s">
         <v>47</v>
       </c>
-      <c r="KN2" t="s">
+      <c r="LX2" t="s">
+        <v>48</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>49</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>50</v>
+      </c>
+      <c r="MA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="MB2" t="s">
         <v>6</v>
       </c>
-      <c r="KO2" t="s">
-        <v>48</v>
-      </c>
-      <c r="KP2" t="s">
+      <c r="MC2" t="s">
+        <v>52</v>
+      </c>
+      <c r="MD2" t="s">
         <v>8</v>
       </c>
-      <c r="KQ2" t="s">
-        <v>49</v>
-      </c>
-      <c r="KR2" t="s">
-        <v>50</v>
-      </c>
-      <c r="KS2" t="s">
-        <v>51</v>
-      </c>
-      <c r="KT2" t="s">
-        <v>52</v>
-      </c>
-      <c r="KU2" t="s">
+      <c r="ME2" t="s">
         <v>53</v>
       </c>
-      <c r="KV2" t="s">
+      <c r="MF2" t="s">
         <v>54</v>
       </c>
-      <c r="KW2" t="s">
+      <c r="MG2" t="s">
         <v>55</v>
       </c>
-      <c r="KX2" t="s">
+      <c r="MH2" t="s">
+        <v>56</v>
+      </c>
+      <c r="MI2" t="s">
+        <v>57</v>
+      </c>
+      <c r="MJ2" t="s">
+        <v>58</v>
+      </c>
+      <c r="MK2" t="s">
+        <v>59</v>
+      </c>
+      <c r="ML2" t="s">
         <v>11</v>
       </c>
-      <c r="KY2" t="s">
-        <v>56</v>
-      </c>
-      <c r="KZ2" t="s">
+      <c r="MM2" t="s">
+        <v>60</v>
+      </c>
+      <c r="MN2" t="s">
         <v>13</v>
       </c>
-      <c r="LA2" t="s">
-        <v>57</v>
-      </c>
-      <c r="LB2" t="s">
-        <v>58</v>
-      </c>
-      <c r="LC2" t="s">
-        <v>59</v>
-      </c>
-      <c r="LD2" t="s">
-        <v>60</v>
-      </c>
-      <c r="LE2" t="s">
+      <c r="MO2" t="s">
         <v>61</v>
       </c>
-      <c r="LF2" t="s">
+      <c r="MP2" t="s">
         <v>62</v>
       </c>
-      <c r="LG2" t="s">
+      <c r="MQ2" t="s">
         <v>63</v>
       </c>
-      <c r="LH2" t="s">
+      <c r="MR2" t="s">
+        <v>64</v>
+      </c>
+      <c r="MS2" t="s">
+        <v>65</v>
+      </c>
+      <c r="MT2" t="s">
+        <v>66</v>
+      </c>
+      <c r="MU2" t="s">
+        <v>67</v>
+      </c>
+      <c r="MV2" t="s">
         <v>16</v>
       </c>
-      <c r="LI2" t="s">
-        <v>64</v>
-      </c>
-      <c r="LJ2" t="s">
+      <c r="MW2" t="s">
+        <v>68</v>
+      </c>
+      <c r="MX2" t="s">
         <v>18</v>
       </c>
-      <c r="LK2" t="s">
-        <v>65</v>
-      </c>
-      <c r="LL2" t="s">
-        <v>66</v>
-      </c>
-      <c r="LM2" t="s">
-        <v>67</v>
-      </c>
-      <c r="LN2" t="s">
-        <v>68</v>
-      </c>
-      <c r="LO2" t="s">
+      <c r="MY2" t="s">
         <v>69</v>
       </c>
-      <c r="LP2" t="s">
+      <c r="MZ2" t="s">
         <v>70</v>
       </c>
-      <c r="LQ2" t="s">
+      <c r="NA2" t="s">
         <v>71</v>
       </c>
-      <c r="LR2" t="s">
+      <c r="NB2" t="s">
+        <v>72</v>
+      </c>
+      <c r="NC2" t="s">
+        <v>73</v>
+      </c>
+      <c r="ND2" t="s">
+        <v>74</v>
+      </c>
+      <c r="NE2" t="s">
+        <v>75</v>
+      </c>
+      <c r="NF2" t="s">
         <v>21</v>
       </c>
-      <c r="LS2" t="s">
-        <v>72</v>
-      </c>
-      <c r="LT2" t="s">
+      <c r="NG2" t="s">
+        <v>76</v>
+      </c>
+      <c r="NH2" t="s">
         <v>23</v>
       </c>
-      <c r="LU2" t="s">
-        <v>73</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>74</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>75</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>76</v>
-      </c>
-      <c r="LY2" t="s">
+      <c r="NI2" t="s">
         <v>77</v>
       </c>
-      <c r="LZ2" t="s">
+      <c r="NJ2" t="s">
         <v>78</v>
       </c>
-      <c r="MA2" t="s">
+      <c r="NK2" t="s">
         <v>79</v>
       </c>
-      <c r="MB2" t="s">
+      <c r="NL2" t="s">
         <v>80</v>
       </c>
-      <c r="MC2" t="s">
+      <c r="NM2" t="s">
         <v>81</v>
       </c>
-      <c r="MD2" t="s">
+      <c r="NN2" t="s">
         <v>82</v>
       </c>
-      <c r="ME2" t="s">
+      <c r="NO2" t="s">
         <v>83</v>
       </c>
-      <c r="MF2" t="s">
+      <c r="NP2" t="s">
         <v>84</v>
       </c>
-      <c r="MG2" t="s">
+      <c r="NQ2" t="s">
         <v>85</v>
       </c>
-      <c r="MH2" t="s">
+      <c r="NR2" t="s">
         <v>86</v>
       </c>
-      <c r="MI2" t="s">
+      <c r="NS2" t="s">
         <v>87</v>
       </c>
-      <c r="MJ2" t="s">
+      <c r="NT2" t="s">
         <v>88</v>
       </c>
-      <c r="MK2" t="s">
+      <c r="NU2" t="s">
         <v>89</v>
       </c>
-      <c r="ML2" t="s">
+      <c r="NV2" t="s">
         <v>90</v>
       </c>
-      <c r="MM2" t="s">
+      <c r="NW2" t="s">
         <v>91</v>
       </c>
+      <c r="NX2" t="s">
+        <v>92</v>
+      </c>
+      <c r="NY2" t="s">
+        <v>93</v>
+      </c>
+      <c r="NZ2" t="s">
+        <v>94</v>
+      </c>
+      <c r="OA2" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="3" spans="1:351">
+    <row r="3" spans="1:391">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2111,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>12.90351816301735</v>
@@ -2120,1057 +2292,1093 @@
         <v>12.90351816301735</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="I3">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>0.6434782608695648</v>
+      </c>
+      <c r="K3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="L3">
+        <v>14</v>
+      </c>
+      <c r="M3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.3565217391304348</v>
+      </c>
+      <c r="P3">
+        <v>-0.4472135954999571</v>
+      </c>
+      <c r="Q3">
+        <v>18</v>
+      </c>
+      <c r="R3">
+        <v>0.9119538197830639</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0.09344791286761919</v>
+      </c>
+      <c r="U3">
+        <v>-0.6274973281045035</v>
+      </c>
+      <c r="V3">
+        <v>18</v>
+      </c>
+      <c r="W3">
+        <v>2.999996325183426</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0.2529333997745867</v>
+      </c>
+      <c r="Z3">
+        <v>1.5</v>
+      </c>
+      <c r="AA3">
+        <v>1.7</v>
+      </c>
+      <c r="AB3">
+        <v>7</v>
+      </c>
+      <c r="AC3">
+        <v>1.227666942380817</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>21</v>
+      </c>
+      <c r="AK3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="AL3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="AM3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="AP3">
+        <v>8</v>
+      </c>
+      <c r="AQ3">
+        <v>0.6433333333333331</v>
+      </c>
+      <c r="AR3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="AS3">
+        <v>8</v>
+      </c>
+      <c r="AT3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0.3566666666666667</v>
+      </c>
+      <c r="AW3">
+        <v>-0.1772976132102876</v>
+      </c>
+      <c r="AX3">
+        <v>8</v>
+      </c>
+      <c r="AY3">
+        <v>0.9813165097074927</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0.1106835493597631</v>
+      </c>
+      <c r="BB3">
+        <v>-0.1689026906450444</v>
+      </c>
+      <c r="BC3">
+        <v>8</v>
+      </c>
+      <c r="BD3">
+        <v>3.292113900019616</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0.2183100942000099</v>
+      </c>
+      <c r="BG3">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="BH3">
+        <v>1.384615384615385</v>
+      </c>
+      <c r="BI3">
+        <v>4</v>
+      </c>
+      <c r="BJ3">
+        <v>1.331841447765983</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>54</v>
+      </c>
+      <c r="BR3">
+        <v>12.55350613666823</v>
+      </c>
+      <c r="BS3">
+        <v>12.55350613666822</v>
+      </c>
+      <c r="BT3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="BW3">
+        <v>17</v>
+      </c>
+      <c r="BX3">
+        <v>0.6389937106918239</v>
+      </c>
+      <c r="BY3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="BZ3">
+        <v>17</v>
+      </c>
+      <c r="CA3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0.3610062893081762</v>
+      </c>
+      <c r="CD3">
+        <v>-0.3152441624955731</v>
+      </c>
+      <c r="CE3">
+        <v>29</v>
+      </c>
+      <c r="CF3">
+        <v>0.6097256557722263</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0.04875314183268099</v>
+      </c>
+      <c r="CI3">
+        <v>-0.008348116408187778</v>
+      </c>
+      <c r="CJ3">
+        <v>29</v>
+      </c>
+      <c r="CK3">
+        <v>2.281990095189496</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0.07249207431344946</v>
+      </c>
+      <c r="CN3">
+        <v>2</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
         <v>10</v>
       </c>
-      <c r="J3">
-        <v>0.6301587301587303</v>
-      </c>
-      <c r="K3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="L3">
-        <v>10</v>
-      </c>
-      <c r="M3">
-        <v>0.5</v>
-      </c>
-      <c r="N3">
-        <v>15</v>
-      </c>
-      <c r="O3">
-        <v>0.36984126984127</v>
-      </c>
-      <c r="P3">
-        <v>-0.28284271247462</v>
-      </c>
-      <c r="Q3">
-        <v>21</v>
-      </c>
-      <c r="R3">
-        <v>0.6364095524439981</v>
-      </c>
-      <c r="S3">
+      <c r="CQ3">
+        <v>1.002866112861353</v>
+      </c>
+      <c r="CR3">
+        <v>53</v>
+      </c>
+      <c r="CS3">
+        <v>51</v>
+      </c>
+      <c r="CT3">
+        <v>28</v>
+      </c>
+      <c r="CU3">
+        <v>14.50574598794101</v>
+      </c>
+      <c r="CV3">
+        <v>26</v>
+      </c>
+      <c r="CW3">
+        <v>14.50574598794101</v>
+      </c>
+      <c r="CX3">
+        <v>12</v>
+      </c>
+      <c r="CY3">
+        <v>12.30493006051041</v>
+      </c>
+      <c r="CZ3">
+        <v>12.30493006051041</v>
+      </c>
+      <c r="DA3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0.7</v>
+      </c>
+      <c r="DD3">
         <v>2</v>
       </c>
-      <c r="T3">
-        <v>0.08519421230698507</v>
-      </c>
-      <c r="U3">
-        <v>-0.0715879178540213</v>
-      </c>
-      <c r="V3">
-        <v>21</v>
-      </c>
-      <c r="W3">
-        <v>2.062207399142827</v>
-      </c>
-      <c r="X3">
+      <c r="DE3">
+        <v>0.6363636363636365</v>
+      </c>
+      <c r="DF3">
+        <v>0.3</v>
+      </c>
+      <c r="DG3">
         <v>2</v>
       </c>
-      <c r="Y3">
-        <v>0.1676396447373269</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>1.454545454545455</v>
-      </c>
-      <c r="AB3">
+      <c r="DH3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="DK3">
+        <v>-0.01640264391758783</v>
+      </c>
+      <c r="DL3">
         <v>5</v>
       </c>
-      <c r="AC3">
-        <v>1.120700087745952</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>10</v>
-      </c>
-      <c r="AG3">
-        <v>10.69739228411105</v>
-      </c>
-      <c r="AH3">
-        <v>10.69739228411106</v>
-      </c>
-      <c r="AI3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="AJ3">
-        <v>9</v>
-      </c>
-      <c r="AK3">
-        <v>0.7</v>
-      </c>
-      <c r="AL3">
-        <v>7</v>
-      </c>
-      <c r="AM3">
-        <v>0.6185185185185184</v>
-      </c>
-      <c r="AN3">
-        <v>0.3</v>
-      </c>
-      <c r="AO3">
-        <v>7</v>
-      </c>
-      <c r="AP3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="AQ3">
-        <v>9</v>
-      </c>
-      <c r="AR3">
-        <v>0.3814814814814815</v>
-      </c>
-      <c r="AS3">
-        <v>-0.1856953381770561</v>
-      </c>
-      <c r="AT3">
-        <v>9</v>
-      </c>
-      <c r="AU3">
-        <v>0.4951651830431272</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0.1531608156499634</v>
-      </c>
-      <c r="AX3">
-        <v>-0.07353752929687829</v>
-      </c>
-      <c r="AY3">
-        <v>9</v>
-      </c>
-      <c r="AZ3">
-        <v>1.661176761805366</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0.4212236825897951</v>
-      </c>
-      <c r="BC3">
-        <v>1</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>10</v>
-      </c>
-      <c r="BF3">
-        <v>1</v>
-      </c>
-      <c r="BG3">
-        <v>9</v>
-      </c>
-      <c r="BH3">
-        <v>1</v>
-      </c>
-      <c r="BI3">
-        <v>31</v>
-      </c>
-      <c r="BJ3">
-        <v>12.6164308480369</v>
-      </c>
-      <c r="BK3">
-        <v>12.6164308480369</v>
-      </c>
-      <c r="BL3">
-        <v>0.5</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="BO3">
-        <v>15</v>
-      </c>
-      <c r="BP3">
-        <v>0.6566666666666665</v>
-      </c>
-      <c r="BQ3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="BR3">
-        <v>15</v>
-      </c>
-      <c r="BS3">
-        <v>0.5</v>
-      </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
-      <c r="BU3">
-        <v>0.3433333333333333</v>
-      </c>
-      <c r="BV3">
-        <v>-0.386775755049543</v>
-      </c>
-      <c r="BW3">
-        <v>19</v>
-      </c>
-      <c r="BX3">
-        <v>0.512009319197386</v>
-      </c>
-      <c r="BY3">
-        <v>0</v>
-      </c>
-      <c r="BZ3">
-        <v>0.09762241384899682</v>
-      </c>
-      <c r="CA3">
-        <v>-0.06482047636776933</v>
-      </c>
-      <c r="CB3">
-        <v>19</v>
-      </c>
-      <c r="CC3">
-        <v>1.916271988872366</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>0.1423574252099543</v>
-      </c>
-      <c r="CF3">
+      <c r="DM3">
+        <v>0.7732200231862918</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0.1715042803309234</v>
+      </c>
+      <c r="DP3">
+        <v>-0.03372079926833038</v>
+      </c>
+      <c r="DQ3">
+        <v>5</v>
+      </c>
+      <c r="DR3">
+        <v>2.775498633948838</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>0.3729282780490617</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
         <v>2</v>
       </c>
-      <c r="CG3">
-        <v>1.230769230769231</v>
-      </c>
-      <c r="CH3">
-        <v>8</v>
-      </c>
-      <c r="CI3">
-        <v>1.080337146291905</v>
-      </c>
-      <c r="CJ3">
-        <v>30</v>
-      </c>
-      <c r="CK3">
-        <v>31</v>
-      </c>
-      <c r="CL3">
-        <v>105</v>
-      </c>
-      <c r="CM3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="CN3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="CO3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="CP3">
+      <c r="DX3">
+        <v>1.151015797068428</v>
+      </c>
+      <c r="DY3">
         <v>11</v>
       </c>
-      <c r="CQ3">
-        <v>0.8</v>
-      </c>
-      <c r="CR3">
-        <v>28</v>
-      </c>
-      <c r="CS3">
-        <v>0.6426282051282054</v>
-      </c>
-      <c r="CT3">
-        <v>0.2</v>
-      </c>
-      <c r="CU3">
-        <v>28</v>
-      </c>
-      <c r="CV3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="CW3">
+      <c r="DZ3">
         <v>11</v>
       </c>
-      <c r="CX3">
-        <v>0.357371794871795</v>
-      </c>
-      <c r="CY3">
-        <v>-0.4082482904638582</v>
-      </c>
-      <c r="CZ3">
-        <v>29</v>
-      </c>
-      <c r="DA3">
-        <v>0.5779008712114944</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DC3">
-        <v>0.03258663922447659</v>
-      </c>
-      <c r="DD3">
-        <v>-0.1775678878983058</v>
-      </c>
-      <c r="DE3">
-        <v>7</v>
-      </c>
-      <c r="DF3">
-        <v>2.21685096464034</v>
-      </c>
-      <c r="DG3">
-        <v>1</v>
-      </c>
-      <c r="DH3">
-        <v>0.05194138137790601</v>
-      </c>
-      <c r="DI3">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="DJ3">
-        <v>1.307692307692308</v>
-      </c>
-      <c r="DK3">
-        <v>25</v>
-      </c>
-      <c r="DL3">
-        <v>1.072562482929696</v>
-      </c>
-      <c r="DM3">
-        <v>0</v>
-      </c>
-      <c r="DN3">
-        <v>0</v>
-      </c>
-      <c r="DO3">
-        <v>15</v>
-      </c>
-      <c r="DP3">
-        <v>12.7751260120747</v>
-      </c>
-      <c r="DQ3">
-        <v>12.77512601207469</v>
-      </c>
-      <c r="DR3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="DS3">
-        <v>8</v>
-      </c>
-      <c r="DT3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="DU3">
+      <c r="EA3">
         <v>6</v>
       </c>
-      <c r="DV3">
-        <v>0.6476190476190474</v>
-      </c>
-      <c r="DW3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="DX3">
-        <v>6</v>
-      </c>
-      <c r="DY3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="DZ3">
-        <v>8</v>
-      </c>
-      <c r="EA3">
-        <v>0.3523809523809524</v>
-      </c>
       <c r="EB3">
-        <v>-0.1570502909300062</v>
+        <v>2.958039891549808</v>
       </c>
       <c r="EC3">
         <v>6</v>
       </c>
       <c r="ED3">
-        <v>0.9349302851058139</v>
+        <v>2.958039891549808</v>
       </c>
       <c r="EE3">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="EF3">
-        <v>0.1383351873079009</v>
+        <v>12.90351816301735</v>
       </c>
       <c r="EG3">
-        <v>-0.152911746704488</v>
+        <v>12.90351816301735</v>
       </c>
       <c r="EH3">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="EI3">
-        <v>3.689941956296073</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="EK3">
-        <v>0.3254396609488134</v>
+        <v>78</v>
       </c>
       <c r="EL3">
-        <v>3</v>
+        <v>0.643589743589744</v>
       </c>
       <c r="EM3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="EN3">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="EO3">
-        <v>1.11597150997151</v>
+        <v>0.5</v>
       </c>
       <c r="EP3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
+        <v>0.3564102564102563</v>
+      </c>
+      <c r="ER3">
+        <v>-0.4150286783196447</v>
+      </c>
+      <c r="ES3">
+        <v>21</v>
+      </c>
+      <c r="ET3">
+        <v>1.008300211025157</v>
+      </c>
+      <c r="EU3">
+        <v>0</v>
+      </c>
+      <c r="EV3">
+        <v>0.02810574873980337</v>
+      </c>
+      <c r="EW3">
+        <v>-0.04143980941220882</v>
+      </c>
+      <c r="EX3">
         <v>6</v>
       </c>
-      <c r="ER3">
-        <v>40</v>
-      </c>
-      <c r="ES3">
+      <c r="EY3">
+        <v>3.979515170783908</v>
+      </c>
+      <c r="EZ3">
+        <v>0</v>
+      </c>
+      <c r="FA3">
+        <v>0.04829641966745282</v>
+      </c>
+      <c r="FB3">
+        <v>1</v>
+      </c>
+      <c r="FC3">
+        <v>1.875</v>
+      </c>
+      <c r="FD3">
+        <v>6</v>
+      </c>
+      <c r="FE3">
+        <v>1.066574036001902</v>
+      </c>
+      <c r="FF3">
+        <v>0</v>
+      </c>
+      <c r="FG3">
+        <v>0</v>
+      </c>
+      <c r="FL3">
+        <v>13</v>
+      </c>
+      <c r="FM3">
         <v>12.90351816301735</v>
       </c>
-      <c r="ET3">
+      <c r="FN3">
         <v>12.90351816301735</v>
-      </c>
-      <c r="EU3">
-        <v>0.5</v>
-      </c>
-      <c r="EV3">
-        <v>0</v>
-      </c>
-      <c r="EW3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="EX3">
-        <v>29</v>
-      </c>
-      <c r="EY3">
-        <v>0.6401709401709402</v>
-      </c>
-      <c r="EZ3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="FA3">
-        <v>29</v>
-      </c>
-      <c r="FB3">
-        <v>0.5</v>
-      </c>
-      <c r="FC3">
-        <v>0</v>
-      </c>
-      <c r="FD3">
-        <v>0.3598290598290599</v>
-      </c>
-      <c r="FE3">
-        <v>-0.2472023583393975</v>
-      </c>
-      <c r="FF3">
-        <v>26</v>
-      </c>
-      <c r="FG3">
-        <v>0.8980632246638178</v>
-      </c>
-      <c r="FH3">
-        <v>0</v>
-      </c>
-      <c r="FI3">
-        <v>0.1016635659633602</v>
-      </c>
-      <c r="FJ3">
-        <v>-0.2583583020768963</v>
-      </c>
-      <c r="FK3">
-        <v>26</v>
-      </c>
-      <c r="FL3">
-        <v>2.900606120408654</v>
-      </c>
-      <c r="FM3">
-        <v>0</v>
-      </c>
-      <c r="FN3">
-        <v>0.1513727438490531</v>
       </c>
       <c r="FO3">
         <v>0.5</v>
       </c>
       <c r="FP3">
-        <v>1.363636363636364</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>32</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="FR3">
-        <v>1.180529691579364</v>
+        <v>6</v>
       </c>
       <c r="FS3">
-        <v>0</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="FT3">
-        <v>0</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="FU3">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="FV3">
-        <v>11.73411017686721</v>
+        <v>0.5</v>
       </c>
       <c r="FW3">
-        <v>11.73411017686721</v>
+        <v>1</v>
       </c>
       <c r="FX3">
+        <v>0.3777777777777778</v>
+      </c>
+      <c r="FY3">
+        <v>0.05543731048490746</v>
+      </c>
+      <c r="FZ3">
+        <v>8</v>
+      </c>
+      <c r="GA3">
+        <v>0.7203778241254766</v>
+      </c>
+      <c r="GB3">
+        <v>0</v>
+      </c>
+      <c r="GC3">
+        <v>0.2354155774777736</v>
+      </c>
+      <c r="GD3">
+        <v>0.07264496469899484</v>
+      </c>
+      <c r="GE3">
+        <v>12</v>
+      </c>
+      <c r="GF3">
+        <v>2.326709599368379</v>
+      </c>
+      <c r="GG3">
+        <v>0</v>
+      </c>
+      <c r="GH3">
+        <v>0.539786127596112</v>
+      </c>
+      <c r="GI3">
+        <v>1.5</v>
+      </c>
+      <c r="GJ3">
+        <v>1.307692307692308</v>
+      </c>
+      <c r="GK3">
+        <v>7</v>
+      </c>
+      <c r="GL3">
+        <v>1.332299703613481</v>
+      </c>
+      <c r="GM3">
+        <v>0</v>
+      </c>
+      <c r="GN3">
+        <v>0</v>
+      </c>
+      <c r="GS3">
+        <v>39</v>
+      </c>
+      <c r="GT3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="GU3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="GV3">
         <v>0.5</v>
       </c>
-      <c r="FY3">
-        <v>16</v>
-      </c>
-      <c r="FZ3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="GA3">
-        <v>15</v>
-      </c>
-      <c r="GB3">
-        <v>0.6208333333333331</v>
-      </c>
-      <c r="GC3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="GD3">
-        <v>15</v>
-      </c>
-      <c r="GE3">
+      <c r="GW3">
+        <v>0</v>
+      </c>
+      <c r="GX3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="GY3">
+        <v>34</v>
+      </c>
+      <c r="GZ3">
+        <v>0.6245614035087719</v>
+      </c>
+      <c r="HA3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="HB3">
+        <v>34</v>
+      </c>
+      <c r="HC3">
         <v>0.5</v>
       </c>
-      <c r="GF3">
-        <v>16</v>
-      </c>
-      <c r="GG3">
-        <v>0.3791666666666667</v>
-      </c>
-      <c r="GH3">
-        <v>-0.1264117323725531</v>
-      </c>
-      <c r="GI3">
-        <v>10</v>
-      </c>
-      <c r="GJ3">
-        <v>0.5842925294088627</v>
-      </c>
-      <c r="GK3">
+      <c r="HD3">
+        <v>0</v>
+      </c>
+      <c r="HE3">
+        <v>0.3754385964912283</v>
+      </c>
+      <c r="HF3">
+        <v>-0.3402069087199021</v>
+      </c>
+      <c r="HG3">
+        <v>21</v>
+      </c>
+      <c r="HH3">
+        <v>0.7914499339288266</v>
+      </c>
+      <c r="HI3">
+        <v>0</v>
+      </c>
+      <c r="HJ3">
+        <v>0.07456214437563777</v>
+      </c>
+      <c r="HK3">
+        <v>-0.3625421076453765</v>
+      </c>
+      <c r="HL3">
+        <v>6</v>
+      </c>
+      <c r="HM3">
+        <v>3.020472132603267</v>
+      </c>
+      <c r="HN3">
+        <v>0</v>
+      </c>
+      <c r="HO3">
+        <v>0.1226959725276173</v>
+      </c>
+      <c r="HP3">
         <v>1</v>
       </c>
-      <c r="GL3">
-        <v>0.148266054372507</v>
-      </c>
-      <c r="GM3">
-        <v>-0.07880776293097647</v>
-      </c>
-      <c r="GN3">
-        <v>10</v>
-      </c>
-      <c r="GO3">
-        <v>2.260824880901245</v>
-      </c>
-      <c r="GP3">
+      <c r="HQ3">
+        <v>1.307692307692308</v>
+      </c>
+      <c r="HR3">
+        <v>9</v>
+      </c>
+      <c r="HS3">
+        <v>1.12644424825202</v>
+      </c>
+      <c r="HT3">
+        <v>0</v>
+      </c>
+      <c r="HU3">
+        <v>0</v>
+      </c>
+      <c r="HZ3">
+        <v>11</v>
+      </c>
+      <c r="IA3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="IB3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="IC3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="ID3">
+        <v>2</v>
+      </c>
+      <c r="IE3">
+        <v>0.7</v>
+      </c>
+      <c r="IF3">
+        <v>5</v>
+      </c>
+      <c r="IG3">
+        <v>0.5899999999999999</v>
+      </c>
+      <c r="IH3">
+        <v>0.3</v>
+      </c>
+      <c r="II3">
+        <v>5</v>
+      </c>
+      <c r="IJ3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="IK3">
+        <v>2</v>
+      </c>
+      <c r="IL3">
+        <v>0.41</v>
+      </c>
+      <c r="IM3">
+        <v>-0.08346119586852981</v>
+      </c>
+      <c r="IN3">
+        <v>5</v>
+      </c>
+      <c r="IO3">
+        <v>0.6565778190591458</v>
+      </c>
+      <c r="IP3">
         <v>1</v>
       </c>
-      <c r="GQ3">
-        <v>0.295029030412525</v>
-      </c>
-      <c r="GR3">
-        <v>0</v>
-      </c>
-      <c r="GS3">
-        <v>1.230769230769231</v>
-      </c>
-      <c r="GT3">
+      <c r="IQ3">
+        <v>0.3062948704131493</v>
+      </c>
+      <c r="IR3">
+        <v>-0.2136958913202562</v>
+      </c>
+      <c r="IS3">
         <v>5</v>
       </c>
-      <c r="GU3">
-        <v>1.053637583300496</v>
-      </c>
-      <c r="GV3">
-        <v>16</v>
-      </c>
-      <c r="GW3">
-        <v>16</v>
-      </c>
-      <c r="GX3">
-        <v>19</v>
-      </c>
-      <c r="GY3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="GZ3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="HA3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="HB3">
+      <c r="IT3">
+        <v>2.067749340319258</v>
+      </c>
+      <c r="IU3">
+        <v>1</v>
+      </c>
+      <c r="IV3">
+        <v>0.7289290228351689</v>
+      </c>
+      <c r="IW3">
+        <v>1.5</v>
+      </c>
+      <c r="IX3">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="IY3">
+        <v>8</v>
+      </c>
+      <c r="IZ3">
+        <v>1.449134199134199</v>
+      </c>
+      <c r="JA3">
+        <v>0</v>
+      </c>
+      <c r="JB3">
+        <v>0</v>
+      </c>
+      <c r="JG3">
+        <v>26</v>
+      </c>
+      <c r="JH3">
+        <v>11.1897703575527</v>
+      </c>
+      <c r="JI3">
+        <v>11.18977035755271</v>
+      </c>
+      <c r="JJ3">
+        <v>0.5</v>
+      </c>
+      <c r="JK3">
+        <v>4</v>
+      </c>
+      <c r="JL3">
+        <v>0.7</v>
+      </c>
+      <c r="JM3">
+        <v>8</v>
+      </c>
+      <c r="JN3">
+        <v>0.6306666666666664</v>
+      </c>
+      <c r="JO3">
+        <v>0.3</v>
+      </c>
+      <c r="JP3">
+        <v>8</v>
+      </c>
+      <c r="JQ3">
+        <v>0.5</v>
+      </c>
+      <c r="JR3">
+        <v>4</v>
+      </c>
+      <c r="JS3">
+        <v>0.3693333333333335</v>
+      </c>
+      <c r="JT3">
+        <v>-0.1965035542759111</v>
+      </c>
+      <c r="JU3">
+        <v>13</v>
+      </c>
+      <c r="JV3">
+        <v>0.4851796380279316</v>
+      </c>
+      <c r="JW3">
+        <v>12</v>
+      </c>
+      <c r="JX3">
+        <v>0.1244371083032463</v>
+      </c>
+      <c r="JY3">
+        <v>-0.2063204975833681</v>
+      </c>
+      <c r="JZ3">
+        <v>5</v>
+      </c>
+      <c r="KA3">
+        <v>1.43563568044139</v>
+      </c>
+      <c r="KB3">
+        <v>0</v>
+      </c>
+      <c r="KC3">
+        <v>0.150652045212258</v>
+      </c>
+      <c r="KD3">
+        <v>1</v>
+      </c>
+      <c r="KE3">
+        <v>1.25</v>
+      </c>
+      <c r="KF3">
         <v>9</v>
       </c>
-      <c r="HC3">
-        <v>0.7</v>
-      </c>
-      <c r="HD3">
-        <v>3</v>
-      </c>
-      <c r="HE3">
-        <v>0.6166666666666665</v>
-      </c>
-      <c r="HF3">
-        <v>0.3</v>
-      </c>
-      <c r="HG3">
-        <v>3</v>
-      </c>
-      <c r="HH3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="HI3">
-        <v>9</v>
-      </c>
-      <c r="HJ3">
-        <v>0.3833333333333334</v>
-      </c>
-      <c r="HK3">
-        <v>-0.128050580559475</v>
-      </c>
-      <c r="HL3">
-        <v>11</v>
-      </c>
-      <c r="HM3">
-        <v>0.9589265404395483</v>
-      </c>
-      <c r="HN3">
-        <v>0</v>
-      </c>
-      <c r="HO3">
-        <v>0.1788202290201039</v>
-      </c>
-      <c r="HP3">
-        <v>-0.2138819004855286</v>
-      </c>
-      <c r="HQ3">
-        <v>11</v>
-      </c>
-      <c r="HR3">
-        <v>2.94208561552043</v>
-      </c>
-      <c r="HS3">
-        <v>0</v>
-      </c>
-      <c r="HT3">
-        <v>0.3164785650679058</v>
-      </c>
-      <c r="HU3">
-        <v>1.2</v>
-      </c>
-      <c r="HV3">
-        <v>1.214285714285714</v>
-      </c>
-      <c r="HW3">
-        <v>11</v>
-      </c>
-      <c r="HX3">
-        <v>1.352182956224272</v>
-      </c>
-      <c r="HY3">
-        <v>0</v>
-      </c>
-      <c r="HZ3">
-        <v>0</v>
-      </c>
-      <c r="IA3">
-        <v>21</v>
-      </c>
-      <c r="IB3">
-        <v>10.53812886169548</v>
-      </c>
-      <c r="IC3">
-        <v>10.53812886169548</v>
-      </c>
-      <c r="ID3">
-        <v>0.5</v>
-      </c>
-      <c r="IE3">
-        <v>0</v>
-      </c>
-      <c r="IF3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="IG3">
-        <v>2</v>
-      </c>
-      <c r="IH3">
-        <v>0.6466666666666664</v>
-      </c>
-      <c r="II3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="IJ3">
-        <v>2</v>
-      </c>
-      <c r="IK3">
-        <v>0.5</v>
-      </c>
-      <c r="IL3">
-        <v>0</v>
-      </c>
-      <c r="IM3">
-        <v>0.3533333333333333</v>
-      </c>
-      <c r="IN3">
-        <v>-0.1947941540055781</v>
-      </c>
-      <c r="IO3">
-        <v>16</v>
-      </c>
-      <c r="IP3">
-        <v>0.6013895733675716</v>
-      </c>
-      <c r="IQ3">
-        <v>0</v>
-      </c>
-      <c r="IR3">
-        <v>0.09589240535332562</v>
-      </c>
-      <c r="IS3">
-        <v>-0.1318561391643609</v>
-      </c>
-      <c r="IT3">
-        <v>7</v>
-      </c>
-      <c r="IU3">
-        <v>2.175038663045015</v>
-      </c>
-      <c r="IV3">
-        <v>0</v>
-      </c>
-      <c r="IW3">
-        <v>0.1187628325922798</v>
-      </c>
-      <c r="IX3">
-        <v>0</v>
-      </c>
-      <c r="IY3">
-        <v>0</v>
-      </c>
-      <c r="IZ3">
-        <v>17</v>
-      </c>
-      <c r="JA3">
-        <v>1.045034013605442</v>
-      </c>
-      <c r="JB3">
-        <v>20</v>
-      </c>
-      <c r="JC3">
-        <v>20</v>
-      </c>
-      <c r="JD3">
-        <v>37</v>
-      </c>
-      <c r="JE3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="JF3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="JG3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="JH3">
-        <v>34</v>
-      </c>
-      <c r="JI3">
-        <v>0.7</v>
-      </c>
-      <c r="JJ3">
-        <v>9</v>
-      </c>
-      <c r="JK3">
-        <v>0.6314814814814812</v>
-      </c>
-      <c r="JL3">
-        <v>0.3</v>
-      </c>
-      <c r="JM3">
-        <v>9</v>
-      </c>
-      <c r="JN3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="JO3">
-        <v>34</v>
-      </c>
-      <c r="JP3">
-        <v>0.3685185185185187</v>
-      </c>
-      <c r="JQ3">
-        <v>-0.3458572319330357</v>
-      </c>
-      <c r="JR3">
-        <v>23</v>
-      </c>
-      <c r="JS3">
-        <v>0.7587075587891414</v>
-      </c>
-      <c r="JT3">
-        <v>0</v>
-      </c>
-      <c r="JU3">
-        <v>0.09087155013587606</v>
-      </c>
-      <c r="JV3">
-        <v>-0.3854277850972601</v>
-      </c>
-      <c r="JW3">
-        <v>23</v>
-      </c>
-      <c r="JX3">
-        <v>2.292388824419247</v>
-      </c>
-      <c r="JY3">
-        <v>0</v>
-      </c>
-      <c r="JZ3">
-        <v>0.1721821336546592</v>
-      </c>
-      <c r="KA3">
-        <v>1.25</v>
-      </c>
-      <c r="KB3">
-        <v>1.25</v>
-      </c>
-      <c r="KC3">
-        <v>21</v>
-      </c>
-      <c r="KD3">
-        <v>1.154388808493993</v>
-      </c>
-      <c r="KE3">
-        <v>0</v>
-      </c>
-      <c r="KF3">
-        <v>0</v>
-      </c>
       <c r="KG3">
-        <v>0.5</v>
+        <v>1.068792784365375</v>
       </c>
       <c r="KH3">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="KI3">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="KJ3">
-        <v>105</v>
+        <v>12.5</v>
       </c>
       <c r="KK3">
-        <v>48.8</v>
+        <v>7.288689868556625</v>
       </c>
       <c r="KL3">
-        <v>29.3148426569204</v>
+        <v>13.5</v>
       </c>
       <c r="KM3">
-        <v>0.4666666666666667</v>
+        <v>7.288689868556625</v>
       </c>
       <c r="KN3">
         <v>9</v>
       </c>
       <c r="KO3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="KP3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="KQ3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="KR3">
+        <v>0</v>
+      </c>
+      <c r="KS3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="KT3">
+        <v>1</v>
+      </c>
+      <c r="KU3">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="KV3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="KW3">
+        <v>1</v>
+      </c>
+      <c r="KX3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="KY3">
+        <v>0</v>
+      </c>
+      <c r="KZ3">
+        <v>0.3833333333333334</v>
+      </c>
+      <c r="LA3">
+        <v>-0.1856953381770529</v>
+      </c>
+      <c r="LB3">
+        <v>7</v>
+      </c>
+      <c r="LC3">
+        <v>0.8218723795276894</v>
+      </c>
+      <c r="LD3">
+        <v>0</v>
+      </c>
+      <c r="LE3">
+        <v>0.2956155024518182</v>
+      </c>
+      <c r="LF3">
+        <v>-0.139630541538871</v>
+      </c>
+      <c r="LG3">
+        <v>7</v>
+      </c>
+      <c r="LH3">
+        <v>2.483237495267581</v>
+      </c>
+      <c r="LI3">
+        <v>0</v>
+      </c>
+      <c r="LJ3">
+        <v>0.7509635175899247</v>
+      </c>
+      <c r="LK3">
+        <v>2.5</v>
+      </c>
+      <c r="LL3">
+        <v>2</v>
+      </c>
+      <c r="LM3">
+        <v>4</v>
+      </c>
+      <c r="LN3">
+        <v>1.539823384363614</v>
+      </c>
+      <c r="LO3">
+        <v>0</v>
+      </c>
+      <c r="LP3">
+        <v>0</v>
+      </c>
+      <c r="LU3">
+        <v>0.7</v>
+      </c>
+      <c r="LV3">
+        <v>7</v>
+      </c>
+      <c r="LW3">
+        <v>9</v>
+      </c>
+      <c r="LX3">
+        <v>92</v>
+      </c>
+      <c r="LY3">
+        <v>29.85714285714286</v>
+      </c>
+      <c r="LZ3">
+        <v>27.07887195070077</v>
+      </c>
+      <c r="MA3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="MB3">
+        <v>0</v>
+      </c>
+      <c r="MC3">
         <v>0.8</v>
       </c>
-      <c r="KP3">
-        <v>28</v>
-      </c>
-      <c r="KQ3">
-        <v>0.4933333333333333</v>
-      </c>
-      <c r="KR3">
-        <v>0.74</v>
-      </c>
-      <c r="KS3">
-        <v>0.6322212047212048</v>
-      </c>
-      <c r="KT3">
-        <v>0.02494438257849294</v>
-      </c>
-      <c r="KU3">
-        <v>0.03887301263230204</v>
-      </c>
-      <c r="KV3">
-        <v>0.009146022054143686</v>
-      </c>
-      <c r="KW3">
+      <c r="MD3">
+        <v>78</v>
+      </c>
+      <c r="ME3">
+        <v>0.5</v>
+      </c>
+      <c r="MF3">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="MG3">
+        <v>0.6262645185986148</v>
+      </c>
+      <c r="MH3">
+        <v>0.03984095364447978</v>
+      </c>
+      <c r="MI3">
+        <v>0.03984095364447982</v>
+      </c>
+      <c r="MJ3">
+        <v>0.01818278468502089</v>
+      </c>
+      <c r="MK3">
         <v>0.2</v>
       </c>
-      <c r="KX3">
-        <v>28</v>
-      </c>
-      <c r="KY3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="KZ3">
-        <v>9</v>
-      </c>
-      <c r="LA3">
-        <v>0.26</v>
-      </c>
-      <c r="LB3">
-        <v>0.5066666666666666</v>
-      </c>
-      <c r="LC3">
-        <v>0.3677787952787954</v>
-      </c>
-      <c r="LD3">
-        <v>0.03887301263230199</v>
-      </c>
-      <c r="LE3">
-        <v>0.02494438257849294</v>
-      </c>
-      <c r="LF3">
-        <v>0.009146022054143525</v>
-      </c>
-      <c r="LG3">
-        <v>-0.4082482904638582</v>
-      </c>
-      <c r="LH3">
-        <v>29</v>
-      </c>
-      <c r="LI3">
-        <v>0.9589265404395483</v>
-      </c>
-      <c r="LJ3">
-        <v>0</v>
-      </c>
-      <c r="LK3">
-        <v>-0.2824402347540773</v>
-      </c>
-      <c r="LL3">
-        <v>0.7660015495096</v>
-      </c>
-      <c r="LM3">
-        <v>0.09782723933016038</v>
-      </c>
-      <c r="LN3">
-        <v>0.09479179042251709</v>
-      </c>
-      <c r="LO3">
-        <v>0.146211826710528</v>
-      </c>
-      <c r="LP3">
-        <v>0.04698700387774774</v>
-      </c>
-      <c r="LQ3">
-        <v>-0.3854277850972601</v>
-      </c>
-      <c r="LR3">
-        <v>23</v>
-      </c>
-      <c r="LS3">
-        <v>2.94208561552043</v>
-      </c>
-      <c r="LT3">
-        <v>0</v>
-      </c>
-      <c r="LU3">
-        <v>-0.2213647586824024</v>
-      </c>
-      <c r="LV3">
-        <v>2.482827784826299</v>
-      </c>
-      <c r="LW3">
-        <v>0.1719228937373702</v>
-      </c>
-      <c r="LX3">
+      <c r="ML3">
+        <v>78</v>
+      </c>
+      <c r="MM3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="MN3">
+        <v>0</v>
+      </c>
+      <c r="MO3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="MP3">
         <v>0.5</v>
       </c>
-      <c r="LY3">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="LZ3">
-        <v>1.123333333333334</v>
-      </c>
-      <c r="MA3">
-        <v>1.214285714285714</v>
-      </c>
-      <c r="MB3">
-        <v>1.454545454545455</v>
-      </c>
-      <c r="MC3">
-        <v>1.318031968031968</v>
-      </c>
-      <c r="MD3">
-        <v>1.072562482929696</v>
-      </c>
-      <c r="ME3">
-        <v>1.352182956224272</v>
-      </c>
-      <c r="MF3">
-        <v>1.176072805394655</v>
-      </c>
-      <c r="MG3">
-        <v>10</v>
-      </c>
-      <c r="MH3">
-        <v>31</v>
-      </c>
-      <c r="MI3">
-        <v>18.8</v>
-      </c>
-      <c r="MJ3">
-        <v>7.054076835419359</v>
-      </c>
-      <c r="MK3">
-        <v>11.67223763655707</v>
-      </c>
-      <c r="ML3">
-        <v>0.932546832615349</v>
-      </c>
-      <c r="MM3">
-        <v>12.7751260120747</v>
+      <c r="MQ3">
+        <v>0.3737354814013853</v>
+      </c>
+      <c r="MR3">
+        <v>0.03984095364447978</v>
+      </c>
+      <c r="MS3">
+        <v>0.03984095364447978</v>
+      </c>
+      <c r="MT3">
+        <v>0.01818278468502091</v>
+      </c>
+      <c r="MU3">
+        <v>-0.4472135954999571</v>
+      </c>
+      <c r="MV3">
+        <v>18</v>
+      </c>
+      <c r="MW3">
+        <v>1.008300211025157</v>
+      </c>
+      <c r="MX3">
+        <v>0</v>
+      </c>
+      <c r="MY3">
+        <v>-0.2276380027586381</v>
+      </c>
+      <c r="MZ3">
+        <v>0.8416926424509787</v>
+      </c>
+      <c r="NA3">
+        <v>0.1634464722407949</v>
+      </c>
+      <c r="NB3">
+        <v>0.169542405714942</v>
+      </c>
+      <c r="NC3">
+        <v>0.121943485048657</v>
+      </c>
+      <c r="ND3">
+        <v>0.1048503212332592</v>
+      </c>
+      <c r="NE3">
+        <v>-0.6274973281045035</v>
+      </c>
+      <c r="NF3">
+        <v>18</v>
+      </c>
+      <c r="NG3">
+        <v>3.979515170783908</v>
+      </c>
+      <c r="NH3">
+        <v>0</v>
+      </c>
+      <c r="NI3">
+        <v>-0.211580486281038</v>
+      </c>
+      <c r="NJ3">
+        <v>2.881399137649348</v>
+      </c>
+      <c r="NK3">
+        <v>0.3802735077415532</v>
+      </c>
+      <c r="NL3">
+        <v>1</v>
+      </c>
+      <c r="NM3">
+        <v>2.5</v>
+      </c>
+      <c r="NN3">
+        <v>1.547619047619047</v>
+      </c>
+      <c r="NO3">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="NP3">
+        <v>2</v>
+      </c>
+      <c r="NQ3">
+        <v>1.551530612244898</v>
+      </c>
+      <c r="NR3">
+        <v>1.066574036001902</v>
+      </c>
+      <c r="NS3">
+        <v>1.539823384363614</v>
+      </c>
+      <c r="NT3">
+        <v>1.296254851644574</v>
+      </c>
+      <c r="NU3">
+        <v>12</v>
+      </c>
+      <c r="NV3">
+        <v>54</v>
+      </c>
+      <c r="NW3">
+        <v>30.66666666666667</v>
+      </c>
+      <c r="NX3">
+        <v>17.46106780494506</v>
+      </c>
+      <c r="NY3">
+        <v>12.01606885157712</v>
+      </c>
+      <c r="NZ3">
+        <v>0.593028620630157</v>
+      </c>
+      <c r="OA3">
+        <v>12.55350613666823</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C1:AE1"/>
-    <mergeCell ref="AF1:BH1"/>
-    <mergeCell ref="BI1:CK1"/>
-    <mergeCell ref="CL1:DN1"/>
-    <mergeCell ref="DO1:EQ1"/>
-    <mergeCell ref="ER1:FT1"/>
-    <mergeCell ref="FU1:GW1"/>
-    <mergeCell ref="GX1:HZ1"/>
-    <mergeCell ref="IA1:JC1"/>
-    <mergeCell ref="JD1:KF1"/>
-    <mergeCell ref="KG1:MM1"/>
+    <mergeCell ref="C1:AI1"/>
+    <mergeCell ref="AJ1:BP1"/>
+    <mergeCell ref="BQ1:CW1"/>
+    <mergeCell ref="CX1:ED1"/>
+    <mergeCell ref="EE1:FK1"/>
+    <mergeCell ref="FL1:GR1"/>
+    <mergeCell ref="GS1:HY1"/>
+    <mergeCell ref="HZ1:JF1"/>
+    <mergeCell ref="JG1:KM1"/>
+    <mergeCell ref="KN1:LT1"/>
+    <mergeCell ref="LU1:OA1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>

--- a/out_test/tables/Fexp0.25/Fexp0.25_30.xlsx
+++ b/out_test/tables/Fexp0.25/Fexp0.25_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="108">
   <si>
     <t>RWS</t>
   </si>
@@ -119,6 +119,33 @@
   </si>
   <si>
     <t>Sigma_Num_loose</t>
+  </si>
+  <si>
+    <t>I_start</t>
+  </si>
+  <si>
+    <t>GR_start</t>
+  </si>
+  <si>
+    <t>Pr_start</t>
+  </si>
+  <si>
+    <t>Pr_min</t>
+  </si>
+  <si>
+    <t>NI_Pr_min</t>
+  </si>
+  <si>
+    <t>Pr_max</t>
+  </si>
+  <si>
+    <t>NI_Pr_max</t>
+  </si>
+  <si>
+    <t>Pr_avg</t>
+  </si>
+  <si>
+    <t>NI_Pr_avg</t>
   </si>
   <si>
     <t>Run 0</t>
@@ -674,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:OA3"/>
+  <dimension ref="A1:RV3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -685,15 +712,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:391">
+    <row r="1" spans="1:490">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -727,9 +754,7 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -738,7 +763,9 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
+      <c r="AS1" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -762,9 +789,7 @@
       <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
-      <c r="BQ1" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="BQ1" s="1"/>
       <c r="BR1" s="1"/>
       <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
@@ -782,7 +807,9 @@
       <c r="CF1" s="1"/>
       <c r="CG1" s="1"/>
       <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
+      <c r="CI1" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -797,9 +824,7 @@
       <c r="CU1" s="1"/>
       <c r="CV1" s="1"/>
       <c r="CW1" s="1"/>
-      <c r="CX1" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="CX1" s="1"/>
       <c r="CY1" s="1"/>
       <c r="CZ1" s="1"/>
       <c r="DA1" s="1"/>
@@ -826,15 +851,15 @@
       <c r="DV1" s="1"/>
       <c r="DW1" s="1"/>
       <c r="DX1" s="1"/>
-      <c r="DY1" s="1"/>
+      <c r="DY1" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="DZ1" s="1"/>
       <c r="EA1" s="1"/>
       <c r="EB1" s="1"/>
       <c r="EC1" s="1"/>
       <c r="ED1" s="1"/>
-      <c r="EE1" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="EE1" s="1"/>
       <c r="EF1" s="1"/>
       <c r="EG1" s="1"/>
       <c r="EH1" s="1"/>
@@ -867,12 +892,12 @@
       <c r="FI1" s="1"/>
       <c r="FJ1" s="1"/>
       <c r="FK1" s="1"/>
-      <c r="FL1" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="FL1" s="1"/>
       <c r="FM1" s="1"/>
       <c r="FN1" s="1"/>
-      <c r="FO1" s="1"/>
+      <c r="FO1" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="FP1" s="1"/>
       <c r="FQ1" s="1"/>
       <c r="FR1" s="1"/>
@@ -902,9 +927,7 @@
       <c r="GP1" s="1"/>
       <c r="GQ1" s="1"/>
       <c r="GR1" s="1"/>
-      <c r="GS1" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="GS1" s="1"/>
       <c r="GT1" s="1"/>
       <c r="GU1" s="1"/>
       <c r="GV1" s="1"/>
@@ -916,7 +939,9 @@
       <c r="HB1" s="1"/>
       <c r="HC1" s="1"/>
       <c r="HD1" s="1"/>
-      <c r="HE1" s="1"/>
+      <c r="HE1" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="HF1" s="1"/>
       <c r="HG1" s="1"/>
       <c r="HH1" s="1"/>
@@ -937,9 +962,7 @@
       <c r="HW1" s="1"/>
       <c r="HX1" s="1"/>
       <c r="HY1" s="1"/>
-      <c r="HZ1" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="HZ1" s="1"/>
       <c r="IA1" s="1"/>
       <c r="IB1" s="1"/>
       <c r="IC1" s="1"/>
@@ -960,7 +983,9 @@
       <c r="IR1" s="1"/>
       <c r="IS1" s="1"/>
       <c r="IT1" s="1"/>
-      <c r="IU1" s="1"/>
+      <c r="IU1" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="IV1" s="1"/>
       <c r="IW1" s="1"/>
       <c r="IX1" s="1"/>
@@ -972,9 +997,7 @@
       <c r="JD1" s="1"/>
       <c r="JE1" s="1"/>
       <c r="JF1" s="1"/>
-      <c r="JG1" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="JG1" s="1"/>
       <c r="JH1" s="1"/>
       <c r="JI1" s="1"/>
       <c r="JJ1" s="1"/>
@@ -1004,12 +1027,12 @@
       <c r="KH1" s="1"/>
       <c r="KI1" s="1"/>
       <c r="KJ1" s="1"/>
-      <c r="KK1" s="1"/>
+      <c r="KK1" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="KL1" s="1"/>
       <c r="KM1" s="1"/>
-      <c r="KN1" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="KN1" s="1"/>
       <c r="KO1" s="1"/>
       <c r="KP1" s="1"/>
       <c r="KQ1" s="1"/>
@@ -1042,15 +1065,15 @@
       <c r="LR1" s="1"/>
       <c r="LS1" s="1"/>
       <c r="LT1" s="1"/>
-      <c r="LU1" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="LU1" s="1"/>
       <c r="LV1" s="1"/>
       <c r="LW1" s="1"/>
       <c r="LX1" s="1"/>
       <c r="LY1" s="1"/>
       <c r="LZ1" s="1"/>
-      <c r="MA1" s="1"/>
+      <c r="MA1" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="MB1" s="1"/>
       <c r="MC1" s="1"/>
       <c r="MD1" s="1"/>
@@ -1092,7 +1115,9 @@
       <c r="NN1" s="1"/>
       <c r="NO1" s="1"/>
       <c r="NP1" s="1"/>
-      <c r="NQ1" s="1"/>
+      <c r="NQ1" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="NR1" s="1"/>
       <c r="NS1" s="1"/>
       <c r="NT1" s="1"/>
@@ -1103,8 +1128,109 @@
       <c r="NY1" s="1"/>
       <c r="NZ1" s="1"/>
       <c r="OA1" s="1"/>
+      <c r="OB1" s="1"/>
+      <c r="OC1" s="1"/>
+      <c r="OD1" s="1"/>
+      <c r="OE1" s="1"/>
+      <c r="OF1" s="1"/>
+      <c r="OG1" s="1"/>
+      <c r="OH1" s="1"/>
+      <c r="OI1" s="1"/>
+      <c r="OJ1" s="1"/>
+      <c r="OK1" s="1"/>
+      <c r="OL1" s="1"/>
+      <c r="OM1" s="1"/>
+      <c r="ON1" s="1"/>
+      <c r="OO1" s="1"/>
+      <c r="OP1" s="1"/>
+      <c r="OQ1" s="1"/>
+      <c r="OR1" s="1"/>
+      <c r="OS1" s="1"/>
+      <c r="OT1" s="1"/>
+      <c r="OU1" s="1"/>
+      <c r="OV1" s="1"/>
+      <c r="OW1" s="1"/>
+      <c r="OX1" s="1"/>
+      <c r="OY1" s="1"/>
+      <c r="OZ1" s="1"/>
+      <c r="PA1" s="1"/>
+      <c r="PB1" s="1"/>
+      <c r="PC1" s="1"/>
+      <c r="PD1" s="1"/>
+      <c r="PE1" s="1"/>
+      <c r="PF1" s="1"/>
+      <c r="PG1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="PH1" s="1"/>
+      <c r="PI1" s="1"/>
+      <c r="PJ1" s="1"/>
+      <c r="PK1" s="1"/>
+      <c r="PL1" s="1"/>
+      <c r="PM1" s="1"/>
+      <c r="PN1" s="1"/>
+      <c r="PO1" s="1"/>
+      <c r="PP1" s="1"/>
+      <c r="PQ1" s="1"/>
+      <c r="PR1" s="1"/>
+      <c r="PS1" s="1"/>
+      <c r="PT1" s="1"/>
+      <c r="PU1" s="1"/>
+      <c r="PV1" s="1"/>
+      <c r="PW1" s="1"/>
+      <c r="PX1" s="1"/>
+      <c r="PY1" s="1"/>
+      <c r="PZ1" s="1"/>
+      <c r="QA1" s="1"/>
+      <c r="QB1" s="1"/>
+      <c r="QC1" s="1"/>
+      <c r="QD1" s="1"/>
+      <c r="QE1" s="1"/>
+      <c r="QF1" s="1"/>
+      <c r="QG1" s="1"/>
+      <c r="QH1" s="1"/>
+      <c r="QI1" s="1"/>
+      <c r="QJ1" s="1"/>
+      <c r="QK1" s="1"/>
+      <c r="QL1" s="1"/>
+      <c r="QM1" s="1"/>
+      <c r="QN1" s="1"/>
+      <c r="QO1" s="1"/>
+      <c r="QP1" s="1"/>
+      <c r="QQ1" s="1"/>
+      <c r="QR1" s="1"/>
+      <c r="QS1" s="1"/>
+      <c r="QT1" s="1"/>
+      <c r="QU1" s="1"/>
+      <c r="QV1" s="1"/>
+      <c r="QW1" s="1"/>
+      <c r="QX1" s="1"/>
+      <c r="QY1" s="1"/>
+      <c r="QZ1" s="1"/>
+      <c r="RA1" s="1"/>
+      <c r="RB1" s="1"/>
+      <c r="RC1" s="1"/>
+      <c r="RD1" s="1"/>
+      <c r="RE1" s="1"/>
+      <c r="RF1" s="1"/>
+      <c r="RG1" s="1"/>
+      <c r="RH1" s="1"/>
+      <c r="RI1" s="1"/>
+      <c r="RJ1" s="1"/>
+      <c r="RK1" s="1"/>
+      <c r="RL1" s="1"/>
+      <c r="RM1" s="1"/>
+      <c r="RN1" s="1"/>
+      <c r="RO1" s="1"/>
+      <c r="RP1" s="1"/>
+      <c r="RQ1" s="1"/>
+      <c r="RR1" s="1"/>
+      <c r="RS1" s="1"/>
+      <c r="RT1" s="1"/>
+      <c r="RU1" s="1"/>
+      <c r="RV1" s="1"/>
     </row>
-    <row r="2" spans="1:391">
+    <row r="2" spans="1:490">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -1207,1075 +1333,1372 @@
         <v>34</v>
       </c>
       <c r="AJ2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS2" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AT2" t="s">
         <v>3</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AU2" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AV2" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AW2" t="s">
         <v>6</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AX2" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AY2" t="s">
         <v>8</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AZ2" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="BA2" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BB2" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BC2" t="s">
         <v>12</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BD2" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BE2" t="s">
         <v>14</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BF2" t="s">
         <v>15</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BG2" t="s">
         <v>16</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BH2" t="s">
         <v>17</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BI2" t="s">
         <v>18</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BJ2" t="s">
         <v>19</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BK2" t="s">
         <v>20</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BL2" t="s">
         <v>21</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BM2" t="s">
         <v>22</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BN2" t="s">
         <v>23</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BO2" t="s">
         <v>24</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BP2" t="s">
         <v>25</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BQ2" t="s">
         <v>26</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BR2" t="s">
         <v>27</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BS2" t="s">
         <v>28</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BT2" t="s">
         <v>29</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BU2" t="s">
         <v>30</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BV2" t="s">
         <v>31</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BW2" t="s">
         <v>32</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BX2" t="s">
         <v>33</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BY2" t="s">
         <v>34</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BZ2" t="s">
+        <v>35</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>37</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>38</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>40</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>41</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CI2" t="s">
         <v>2</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="CJ2" t="s">
         <v>3</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CK2" t="s">
         <v>4</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CL2" t="s">
         <v>5</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CM2" t="s">
         <v>6</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CN2" t="s">
         <v>7</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CO2" t="s">
         <v>8</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CP2" t="s">
         <v>9</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CQ2" t="s">
         <v>10</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CR2" t="s">
         <v>11</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CS2" t="s">
         <v>12</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CT2" t="s">
         <v>13</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CU2" t="s">
         <v>14</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CV2" t="s">
         <v>15</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CW2" t="s">
         <v>16</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CX2" t="s">
         <v>17</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CY2" t="s">
         <v>18</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CZ2" t="s">
         <v>19</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="DA2" t="s">
         <v>20</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="DB2" t="s">
         <v>21</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="DC2" t="s">
         <v>22</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="DD2" t="s">
         <v>23</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="DE2" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="DF2" t="s">
         <v>25</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="DG2" t="s">
         <v>26</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="DH2" t="s">
         <v>27</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="DI2" t="s">
         <v>28</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="DJ2" t="s">
         <v>29</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="DK2" t="s">
         <v>30</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="DL2" t="s">
         <v>31</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="DM2" t="s">
         <v>32</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="DN2" t="s">
         <v>33</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="DO2" t="s">
         <v>34</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DP2" t="s">
+        <v>35</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>37</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>38</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>39</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>40</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>41</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>42</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>43</v>
+      </c>
+      <c r="DY2" t="s">
         <v>2</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DZ2" t="s">
         <v>3</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="EA2" t="s">
         <v>4</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="EB2" t="s">
         <v>5</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="EC2" t="s">
         <v>6</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="ED2" t="s">
         <v>7</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="EE2" t="s">
         <v>8</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="EF2" t="s">
         <v>9</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="EG2" t="s">
         <v>10</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="EH2" t="s">
         <v>11</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="EI2" t="s">
         <v>12</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="EJ2" t="s">
         <v>13</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="EK2" t="s">
         <v>14</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="EL2" t="s">
         <v>15</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="EM2" t="s">
         <v>16</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="EN2" t="s">
         <v>17</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="EO2" t="s">
         <v>18</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="EP2" t="s">
         <v>19</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="EQ2" t="s">
         <v>20</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="ER2" t="s">
         <v>21</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="ES2" t="s">
         <v>22</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="ET2" t="s">
         <v>23</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="EU2" t="s">
         <v>24</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="EV2" t="s">
         <v>25</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="EW2" t="s">
         <v>26</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="EX2" t="s">
         <v>27</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EY2" t="s">
         <v>28</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EZ2" t="s">
         <v>29</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="FA2" t="s">
         <v>30</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="FB2" t="s">
         <v>31</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="FC2" t="s">
         <v>32</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="FD2" t="s">
         <v>33</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="FE2" t="s">
         <v>34</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="FF2" t="s">
+        <v>35</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>37</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>38</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>39</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>40</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>41</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>42</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>43</v>
+      </c>
+      <c r="FO2" t="s">
         <v>2</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="FP2" t="s">
         <v>3</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="FQ2" t="s">
         <v>4</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="FR2" t="s">
         <v>5</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="FS2" t="s">
         <v>6</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="FT2" t="s">
         <v>7</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="FU2" t="s">
         <v>8</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="FV2" t="s">
         <v>9</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="FW2" t="s">
         <v>10</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="FX2" t="s">
         <v>11</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="FY2" t="s">
         <v>12</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="FZ2" t="s">
         <v>13</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="GA2" t="s">
         <v>14</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="GB2" t="s">
         <v>15</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="GC2" t="s">
         <v>16</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="GD2" t="s">
         <v>17</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="GE2" t="s">
         <v>18</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="GF2" t="s">
         <v>19</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="GG2" t="s">
         <v>20</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="GH2" t="s">
         <v>21</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="GI2" t="s">
         <v>22</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="GJ2" t="s">
         <v>23</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="GK2" t="s">
         <v>24</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="GL2" t="s">
         <v>25</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="GM2" t="s">
         <v>26</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="GN2" t="s">
         <v>27</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="GO2" t="s">
         <v>28</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="GP2" t="s">
         <v>29</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="GQ2" t="s">
         <v>30</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="GR2" t="s">
         <v>31</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="GS2" t="s">
         <v>32</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="GT2" t="s">
         <v>33</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="GU2" t="s">
         <v>34</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="GV2" t="s">
+        <v>35</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>37</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>38</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>39</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>40</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>41</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>42</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>43</v>
+      </c>
+      <c r="HE2" t="s">
         <v>2</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="HF2" t="s">
         <v>3</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="HG2" t="s">
         <v>4</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="HH2" t="s">
         <v>5</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="HI2" t="s">
         <v>6</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="HJ2" t="s">
         <v>7</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="HK2" t="s">
         <v>8</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="HL2" t="s">
         <v>9</v>
       </c>
-      <c r="FT2" t="s">
+      <c r="HM2" t="s">
         <v>10</v>
       </c>
-      <c r="FU2" t="s">
+      <c r="HN2" t="s">
         <v>11</v>
       </c>
-      <c r="FV2" t="s">
+      <c r="HO2" t="s">
         <v>12</v>
       </c>
-      <c r="FW2" t="s">
+      <c r="HP2" t="s">
         <v>13</v>
       </c>
-      <c r="FX2" t="s">
+      <c r="HQ2" t="s">
         <v>14</v>
       </c>
-      <c r="FY2" t="s">
+      <c r="HR2" t="s">
         <v>15</v>
       </c>
-      <c r="FZ2" t="s">
+      <c r="HS2" t="s">
         <v>16</v>
       </c>
-      <c r="GA2" t="s">
+      <c r="HT2" t="s">
         <v>17</v>
       </c>
-      <c r="GB2" t="s">
+      <c r="HU2" t="s">
         <v>18</v>
       </c>
-      <c r="GC2" t="s">
+      <c r="HV2" t="s">
         <v>19</v>
       </c>
-      <c r="GD2" t="s">
+      <c r="HW2" t="s">
         <v>20</v>
       </c>
-      <c r="GE2" t="s">
+      <c r="HX2" t="s">
         <v>21</v>
       </c>
-      <c r="GF2" t="s">
+      <c r="HY2" t="s">
         <v>22</v>
       </c>
-      <c r="GG2" t="s">
+      <c r="HZ2" t="s">
         <v>23</v>
       </c>
-      <c r="GH2" t="s">
+      <c r="IA2" t="s">
         <v>24</v>
       </c>
-      <c r="GI2" t="s">
+      <c r="IB2" t="s">
         <v>25</v>
       </c>
-      <c r="GJ2" t="s">
+      <c r="IC2" t="s">
         <v>26</v>
       </c>
-      <c r="GK2" t="s">
+      <c r="ID2" t="s">
         <v>27</v>
       </c>
-      <c r="GL2" t="s">
+      <c r="IE2" t="s">
         <v>28</v>
       </c>
-      <c r="GM2" t="s">
+      <c r="IF2" t="s">
         <v>29</v>
       </c>
-      <c r="GN2" t="s">
+      <c r="IG2" t="s">
         <v>30</v>
       </c>
-      <c r="GO2" t="s">
+      <c r="IH2" t="s">
         <v>31</v>
       </c>
-      <c r="GP2" t="s">
+      <c r="II2" t="s">
         <v>32</v>
       </c>
-      <c r="GQ2" t="s">
+      <c r="IJ2" t="s">
         <v>33</v>
       </c>
-      <c r="GR2" t="s">
+      <c r="IK2" t="s">
         <v>34</v>
       </c>
-      <c r="GS2" t="s">
+      <c r="IL2" t="s">
+        <v>35</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>37</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>38</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>39</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>40</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>41</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>42</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>43</v>
+      </c>
+      <c r="IU2" t="s">
         <v>2</v>
       </c>
-      <c r="GT2" t="s">
+      <c r="IV2" t="s">
         <v>3</v>
       </c>
-      <c r="GU2" t="s">
+      <c r="IW2" t="s">
         <v>4</v>
       </c>
-      <c r="GV2" t="s">
+      <c r="IX2" t="s">
         <v>5</v>
       </c>
-      <c r="GW2" t="s">
+      <c r="IY2" t="s">
         <v>6</v>
       </c>
-      <c r="GX2" t="s">
+      <c r="IZ2" t="s">
         <v>7</v>
       </c>
-      <c r="GY2" t="s">
+      <c r="JA2" t="s">
         <v>8</v>
       </c>
-      <c r="GZ2" t="s">
+      <c r="JB2" t="s">
         <v>9</v>
       </c>
-      <c r="HA2" t="s">
+      <c r="JC2" t="s">
         <v>10</v>
       </c>
-      <c r="HB2" t="s">
+      <c r="JD2" t="s">
         <v>11</v>
       </c>
-      <c r="HC2" t="s">
+      <c r="JE2" t="s">
         <v>12</v>
       </c>
-      <c r="HD2" t="s">
+      <c r="JF2" t="s">
         <v>13</v>
       </c>
-      <c r="HE2" t="s">
+      <c r="JG2" t="s">
         <v>14</v>
       </c>
-      <c r="HF2" t="s">
+      <c r="JH2" t="s">
         <v>15</v>
       </c>
-      <c r="HG2" t="s">
+      <c r="JI2" t="s">
         <v>16</v>
       </c>
-      <c r="HH2" t="s">
+      <c r="JJ2" t="s">
         <v>17</v>
       </c>
-      <c r="HI2" t="s">
+      <c r="JK2" t="s">
         <v>18</v>
       </c>
-      <c r="HJ2" t="s">
+      <c r="JL2" t="s">
         <v>19</v>
       </c>
-      <c r="HK2" t="s">
+      <c r="JM2" t="s">
         <v>20</v>
       </c>
-      <c r="HL2" t="s">
+      <c r="JN2" t="s">
         <v>21</v>
       </c>
-      <c r="HM2" t="s">
+      <c r="JO2" t="s">
         <v>22</v>
       </c>
-      <c r="HN2" t="s">
+      <c r="JP2" t="s">
         <v>23</v>
       </c>
-      <c r="HO2" t="s">
+      <c r="JQ2" t="s">
         <v>24</v>
       </c>
-      <c r="HP2" t="s">
+      <c r="JR2" t="s">
         <v>25</v>
       </c>
-      <c r="HQ2" t="s">
+      <c r="JS2" t="s">
         <v>26</v>
       </c>
-      <c r="HR2" t="s">
+      <c r="JT2" t="s">
         <v>27</v>
       </c>
-      <c r="HS2" t="s">
+      <c r="JU2" t="s">
         <v>28</v>
       </c>
-      <c r="HT2" t="s">
+      <c r="JV2" t="s">
         <v>29</v>
       </c>
-      <c r="HU2" t="s">
+      <c r="JW2" t="s">
         <v>30</v>
       </c>
-      <c r="HV2" t="s">
+      <c r="JX2" t="s">
         <v>31</v>
       </c>
-      <c r="HW2" t="s">
+      <c r="JY2" t="s">
         <v>32</v>
       </c>
-      <c r="HX2" t="s">
+      <c r="JZ2" t="s">
         <v>33</v>
       </c>
-      <c r="HY2" t="s">
+      <c r="KA2" t="s">
         <v>34</v>
       </c>
-      <c r="HZ2" t="s">
+      <c r="KB2" t="s">
+        <v>35</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="KD2" t="s">
+        <v>37</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>38</v>
+      </c>
+      <c r="KF2" t="s">
+        <v>39</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>40</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>42</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="KK2" t="s">
         <v>2</v>
       </c>
-      <c r="IA2" t="s">
+      <c r="KL2" t="s">
         <v>3</v>
       </c>
-      <c r="IB2" t="s">
+      <c r="KM2" t="s">
         <v>4</v>
       </c>
-      <c r="IC2" t="s">
+      <c r="KN2" t="s">
         <v>5</v>
       </c>
-      <c r="ID2" t="s">
+      <c r="KO2" t="s">
         <v>6</v>
       </c>
-      <c r="IE2" t="s">
+      <c r="KP2" t="s">
         <v>7</v>
       </c>
-      <c r="IF2" t="s">
+      <c r="KQ2" t="s">
         <v>8</v>
       </c>
-      <c r="IG2" t="s">
+      <c r="KR2" t="s">
         <v>9</v>
       </c>
-      <c r="IH2" t="s">
+      <c r="KS2" t="s">
         <v>10</v>
       </c>
-      <c r="II2" t="s">
+      <c r="KT2" t="s">
         <v>11</v>
       </c>
-      <c r="IJ2" t="s">
+      <c r="KU2" t="s">
         <v>12</v>
       </c>
-      <c r="IK2" t="s">
+      <c r="KV2" t="s">
         <v>13</v>
       </c>
-      <c r="IL2" t="s">
+      <c r="KW2" t="s">
         <v>14</v>
       </c>
-      <c r="IM2" t="s">
+      <c r="KX2" t="s">
         <v>15</v>
       </c>
-      <c r="IN2" t="s">
+      <c r="KY2" t="s">
         <v>16</v>
       </c>
-      <c r="IO2" t="s">
+      <c r="KZ2" t="s">
         <v>17</v>
       </c>
-      <c r="IP2" t="s">
+      <c r="LA2" t="s">
         <v>18</v>
       </c>
-      <c r="IQ2" t="s">
+      <c r="LB2" t="s">
         <v>19</v>
       </c>
-      <c r="IR2" t="s">
+      <c r="LC2" t="s">
         <v>20</v>
       </c>
-      <c r="IS2" t="s">
+      <c r="LD2" t="s">
         <v>21</v>
       </c>
-      <c r="IT2" t="s">
+      <c r="LE2" t="s">
         <v>22</v>
       </c>
-      <c r="IU2" t="s">
+      <c r="LF2" t="s">
         <v>23</v>
       </c>
-      <c r="IV2" t="s">
+      <c r="LG2" t="s">
         <v>24</v>
       </c>
-      <c r="IW2" t="s">
+      <c r="LH2" t="s">
         <v>25</v>
       </c>
-      <c r="IX2" t="s">
+      <c r="LI2" t="s">
         <v>26</v>
       </c>
-      <c r="IY2" t="s">
+      <c r="LJ2" t="s">
         <v>27</v>
       </c>
-      <c r="IZ2" t="s">
+      <c r="LK2" t="s">
         <v>28</v>
       </c>
-      <c r="JA2" t="s">
+      <c r="LL2" t="s">
         <v>29</v>
       </c>
-      <c r="JB2" t="s">
+      <c r="LM2" t="s">
         <v>30</v>
       </c>
-      <c r="JC2" t="s">
+      <c r="LN2" t="s">
         <v>31</v>
       </c>
-      <c r="JD2" t="s">
+      <c r="LO2" t="s">
         <v>32</v>
       </c>
-      <c r="JE2" t="s">
+      <c r="LP2" t="s">
         <v>33</v>
       </c>
-      <c r="JF2" t="s">
+      <c r="LQ2" t="s">
         <v>34</v>
       </c>
-      <c r="JG2" t="s">
+      <c r="LR2" t="s">
+        <v>35</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>37</v>
+      </c>
+      <c r="LU2" t="s">
+        <v>38</v>
+      </c>
+      <c r="LV2" t="s">
+        <v>39</v>
+      </c>
+      <c r="LW2" t="s">
+        <v>40</v>
+      </c>
+      <c r="LX2" t="s">
+        <v>41</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>42</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="MA2" t="s">
         <v>2</v>
       </c>
-      <c r="JH2" t="s">
+      <c r="MB2" t="s">
         <v>3</v>
       </c>
-      <c r="JI2" t="s">
+      <c r="MC2" t="s">
         <v>4</v>
       </c>
-      <c r="JJ2" t="s">
+      <c r="MD2" t="s">
         <v>5</v>
       </c>
-      <c r="JK2" t="s">
+      <c r="ME2" t="s">
         <v>6</v>
       </c>
-      <c r="JL2" t="s">
+      <c r="MF2" t="s">
         <v>7</v>
       </c>
-      <c r="JM2" t="s">
+      <c r="MG2" t="s">
         <v>8</v>
       </c>
-      <c r="JN2" t="s">
+      <c r="MH2" t="s">
         <v>9</v>
       </c>
-      <c r="JO2" t="s">
+      <c r="MI2" t="s">
         <v>10</v>
       </c>
-      <c r="JP2" t="s">
+      <c r="MJ2" t="s">
         <v>11</v>
       </c>
-      <c r="JQ2" t="s">
+      <c r="MK2" t="s">
         <v>12</v>
       </c>
-      <c r="JR2" t="s">
+      <c r="ML2" t="s">
         <v>13</v>
       </c>
-      <c r="JS2" t="s">
+      <c r="MM2" t="s">
         <v>14</v>
       </c>
-      <c r="JT2" t="s">
+      <c r="MN2" t="s">
         <v>15</v>
       </c>
-      <c r="JU2" t="s">
+      <c r="MO2" t="s">
         <v>16</v>
       </c>
-      <c r="JV2" t="s">
+      <c r="MP2" t="s">
         <v>17</v>
       </c>
-      <c r="JW2" t="s">
+      <c r="MQ2" t="s">
         <v>18</v>
       </c>
-      <c r="JX2" t="s">
+      <c r="MR2" t="s">
         <v>19</v>
       </c>
-      <c r="JY2" t="s">
+      <c r="MS2" t="s">
         <v>20</v>
       </c>
-      <c r="JZ2" t="s">
+      <c r="MT2" t="s">
         <v>21</v>
       </c>
-      <c r="KA2" t="s">
+      <c r="MU2" t="s">
         <v>22</v>
       </c>
-      <c r="KB2" t="s">
+      <c r="MV2" t="s">
         <v>23</v>
       </c>
-      <c r="KC2" t="s">
+      <c r="MW2" t="s">
         <v>24</v>
       </c>
-      <c r="KD2" t="s">
+      <c r="MX2" t="s">
         <v>25</v>
       </c>
-      <c r="KE2" t="s">
+      <c r="MY2" t="s">
         <v>26</v>
       </c>
-      <c r="KF2" t="s">
+      <c r="MZ2" t="s">
         <v>27</v>
       </c>
-      <c r="KG2" t="s">
+      <c r="NA2" t="s">
         <v>28</v>
       </c>
-      <c r="KH2" t="s">
+      <c r="NB2" t="s">
         <v>29</v>
       </c>
-      <c r="KI2" t="s">
+      <c r="NC2" t="s">
         <v>30</v>
       </c>
-      <c r="KJ2" t="s">
+      <c r="ND2" t="s">
         <v>31</v>
       </c>
-      <c r="KK2" t="s">
+      <c r="NE2" t="s">
         <v>32</v>
       </c>
-      <c r="KL2" t="s">
+      <c r="NF2" t="s">
         <v>33</v>
       </c>
-      <c r="KM2" t="s">
+      <c r="NG2" t="s">
         <v>34</v>
       </c>
-      <c r="KN2" t="s">
+      <c r="NH2" t="s">
+        <v>35</v>
+      </c>
+      <c r="NI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="NJ2" t="s">
+        <v>37</v>
+      </c>
+      <c r="NK2" t="s">
+        <v>38</v>
+      </c>
+      <c r="NL2" t="s">
+        <v>39</v>
+      </c>
+      <c r="NM2" t="s">
+        <v>40</v>
+      </c>
+      <c r="NN2" t="s">
+        <v>41</v>
+      </c>
+      <c r="NO2" t="s">
+        <v>42</v>
+      </c>
+      <c r="NP2" t="s">
+        <v>43</v>
+      </c>
+      <c r="NQ2" t="s">
         <v>2</v>
       </c>
-      <c r="KO2" t="s">
+      <c r="NR2" t="s">
         <v>3</v>
       </c>
-      <c r="KP2" t="s">
+      <c r="NS2" t="s">
         <v>4</v>
       </c>
-      <c r="KQ2" t="s">
+      <c r="NT2" t="s">
         <v>5</v>
       </c>
-      <c r="KR2" t="s">
+      <c r="NU2" t="s">
         <v>6</v>
       </c>
-      <c r="KS2" t="s">
+      <c r="NV2" t="s">
         <v>7</v>
       </c>
-      <c r="KT2" t="s">
+      <c r="NW2" t="s">
         <v>8</v>
       </c>
-      <c r="KU2" t="s">
+      <c r="NX2" t="s">
         <v>9</v>
       </c>
-      <c r="KV2" t="s">
+      <c r="NY2" t="s">
         <v>10</v>
       </c>
-      <c r="KW2" t="s">
+      <c r="NZ2" t="s">
         <v>11</v>
       </c>
-      <c r="KX2" t="s">
+      <c r="OA2" t="s">
         <v>12</v>
       </c>
-      <c r="KY2" t="s">
+      <c r="OB2" t="s">
         <v>13</v>
       </c>
-      <c r="KZ2" t="s">
+      <c r="OC2" t="s">
         <v>14</v>
       </c>
-      <c r="LA2" t="s">
+      <c r="OD2" t="s">
         <v>15</v>
       </c>
-      <c r="LB2" t="s">
+      <c r="OE2" t="s">
         <v>16</v>
       </c>
-      <c r="LC2" t="s">
+      <c r="OF2" t="s">
         <v>17</v>
       </c>
-      <c r="LD2" t="s">
+      <c r="OG2" t="s">
         <v>18</v>
       </c>
-      <c r="LE2" t="s">
+      <c r="OH2" t="s">
         <v>19</v>
       </c>
-      <c r="LF2" t="s">
+      <c r="OI2" t="s">
         <v>20</v>
       </c>
-      <c r="LG2" t="s">
+      <c r="OJ2" t="s">
         <v>21</v>
       </c>
-      <c r="LH2" t="s">
+      <c r="OK2" t="s">
         <v>22</v>
       </c>
-      <c r="LI2" t="s">
+      <c r="OL2" t="s">
         <v>23</v>
       </c>
-      <c r="LJ2" t="s">
+      <c r="OM2" t="s">
         <v>24</v>
       </c>
-      <c r="LK2" t="s">
+      <c r="ON2" t="s">
         <v>25</v>
       </c>
-      <c r="LL2" t="s">
+      <c r="OO2" t="s">
         <v>26</v>
       </c>
-      <c r="LM2" t="s">
+      <c r="OP2" t="s">
         <v>27</v>
       </c>
-      <c r="LN2" t="s">
+      <c r="OQ2" t="s">
         <v>28</v>
       </c>
-      <c r="LO2" t="s">
+      <c r="OR2" t="s">
         <v>29</v>
       </c>
-      <c r="LP2" t="s">
+      <c r="OS2" t="s">
         <v>30</v>
       </c>
-      <c r="LQ2" t="s">
+      <c r="OT2" t="s">
         <v>31</v>
       </c>
-      <c r="LR2" t="s">
+      <c r="OU2" t="s">
         <v>32</v>
       </c>
-      <c r="LS2" t="s">
+      <c r="OV2" t="s">
         <v>33</v>
       </c>
-      <c r="LT2" t="s">
+      <c r="OW2" t="s">
         <v>34</v>
       </c>
-      <c r="LU2" t="s">
-        <v>45</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>46</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>47</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>48</v>
-      </c>
-      <c r="LY2" t="s">
-        <v>49</v>
-      </c>
-      <c r="LZ2" t="s">
-        <v>50</v>
-      </c>
-      <c r="MA2" t="s">
-        <v>51</v>
-      </c>
-      <c r="MB2" t="s">
+      <c r="OX2" t="s">
+        <v>35</v>
+      </c>
+      <c r="OY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="OZ2" t="s">
+        <v>37</v>
+      </c>
+      <c r="PA2" t="s">
+        <v>38</v>
+      </c>
+      <c r="PB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="PC2" t="s">
+        <v>40</v>
+      </c>
+      <c r="PD2" t="s">
+        <v>41</v>
+      </c>
+      <c r="PE2" t="s">
+        <v>42</v>
+      </c>
+      <c r="PF2" t="s">
+        <v>43</v>
+      </c>
+      <c r="PG2" t="s">
+        <v>54</v>
+      </c>
+      <c r="PH2" t="s">
+        <v>55</v>
+      </c>
+      <c r="PI2" t="s">
+        <v>56</v>
+      </c>
+      <c r="PJ2" t="s">
+        <v>57</v>
+      </c>
+      <c r="PK2" t="s">
+        <v>58</v>
+      </c>
+      <c r="PL2" t="s">
+        <v>59</v>
+      </c>
+      <c r="PM2" t="s">
+        <v>60</v>
+      </c>
+      <c r="PN2" t="s">
         <v>6</v>
       </c>
-      <c r="MC2" t="s">
-        <v>52</v>
-      </c>
-      <c r="MD2" t="s">
+      <c r="PO2" t="s">
+        <v>61</v>
+      </c>
+      <c r="PP2" t="s">
         <v>8</v>
       </c>
-      <c r="ME2" t="s">
-        <v>53</v>
-      </c>
-      <c r="MF2" t="s">
-        <v>54</v>
-      </c>
-      <c r="MG2" t="s">
-        <v>55</v>
-      </c>
-      <c r="MH2" t="s">
-        <v>56</v>
-      </c>
-      <c r="MI2" t="s">
-        <v>57</v>
-      </c>
-      <c r="MJ2" t="s">
-        <v>58</v>
-      </c>
-      <c r="MK2" t="s">
-        <v>59</v>
-      </c>
-      <c r="ML2" t="s">
+      <c r="PQ2" t="s">
+        <v>62</v>
+      </c>
+      <c r="PR2" t="s">
+        <v>63</v>
+      </c>
+      <c r="PS2" t="s">
+        <v>64</v>
+      </c>
+      <c r="PT2" t="s">
+        <v>65</v>
+      </c>
+      <c r="PU2" t="s">
+        <v>66</v>
+      </c>
+      <c r="PV2" t="s">
+        <v>67</v>
+      </c>
+      <c r="PW2" t="s">
+        <v>68</v>
+      </c>
+      <c r="PX2" t="s">
         <v>11</v>
       </c>
-      <c r="MM2" t="s">
-        <v>60</v>
-      </c>
-      <c r="MN2" t="s">
+      <c r="PY2" t="s">
+        <v>69</v>
+      </c>
+      <c r="PZ2" t="s">
         <v>13</v>
       </c>
-      <c r="MO2" t="s">
-        <v>61</v>
-      </c>
-      <c r="MP2" t="s">
-        <v>62</v>
-      </c>
-      <c r="MQ2" t="s">
-        <v>63</v>
-      </c>
-      <c r="MR2" t="s">
-        <v>64</v>
-      </c>
-      <c r="MS2" t="s">
-        <v>65</v>
-      </c>
-      <c r="MT2" t="s">
-        <v>66</v>
-      </c>
-      <c r="MU2" t="s">
-        <v>67</v>
-      </c>
-      <c r="MV2" t="s">
+      <c r="QA2" t="s">
+        <v>70</v>
+      </c>
+      <c r="QB2" t="s">
+        <v>71</v>
+      </c>
+      <c r="QC2" t="s">
+        <v>72</v>
+      </c>
+      <c r="QD2" t="s">
+        <v>73</v>
+      </c>
+      <c r="QE2" t="s">
+        <v>74</v>
+      </c>
+      <c r="QF2" t="s">
+        <v>75</v>
+      </c>
+      <c r="QG2" t="s">
+        <v>76</v>
+      </c>
+      <c r="QH2" t="s">
         <v>16</v>
       </c>
-      <c r="MW2" t="s">
-        <v>68</v>
-      </c>
-      <c r="MX2" t="s">
+      <c r="QI2" t="s">
+        <v>77</v>
+      </c>
+      <c r="QJ2" t="s">
         <v>18</v>
       </c>
-      <c r="MY2" t="s">
-        <v>69</v>
-      </c>
-      <c r="MZ2" t="s">
-        <v>70</v>
-      </c>
-      <c r="NA2" t="s">
-        <v>71</v>
-      </c>
-      <c r="NB2" t="s">
-        <v>72</v>
-      </c>
-      <c r="NC2" t="s">
-        <v>73</v>
-      </c>
-      <c r="ND2" t="s">
-        <v>74</v>
-      </c>
-      <c r="NE2" t="s">
-        <v>75</v>
-      </c>
-      <c r="NF2" t="s">
+      <c r="QK2" t="s">
+        <v>78</v>
+      </c>
+      <c r="QL2" t="s">
+        <v>79</v>
+      </c>
+      <c r="QM2" t="s">
+        <v>80</v>
+      </c>
+      <c r="QN2" t="s">
+        <v>81</v>
+      </c>
+      <c r="QO2" t="s">
+        <v>82</v>
+      </c>
+      <c r="QP2" t="s">
+        <v>83</v>
+      </c>
+      <c r="QQ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="QR2" t="s">
         <v>21</v>
       </c>
-      <c r="NG2" t="s">
-        <v>76</v>
-      </c>
-      <c r="NH2" t="s">
+      <c r="QS2" t="s">
+        <v>85</v>
+      </c>
+      <c r="QT2" t="s">
         <v>23</v>
       </c>
-      <c r="NI2" t="s">
-        <v>77</v>
-      </c>
-      <c r="NJ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="NK2" t="s">
-        <v>79</v>
-      </c>
-      <c r="NL2" t="s">
-        <v>80</v>
-      </c>
-      <c r="NM2" t="s">
-        <v>81</v>
-      </c>
-      <c r="NN2" t="s">
-        <v>82</v>
-      </c>
-      <c r="NO2" t="s">
-        <v>83</v>
-      </c>
-      <c r="NP2" t="s">
-        <v>84</v>
-      </c>
-      <c r="NQ2" t="s">
-        <v>85</v>
-      </c>
-      <c r="NR2" t="s">
+      <c r="QU2" t="s">
         <v>86</v>
       </c>
-      <c r="NS2" t="s">
+      <c r="QV2" t="s">
         <v>87</v>
       </c>
-      <c r="NT2" t="s">
+      <c r="QW2" t="s">
         <v>88</v>
       </c>
-      <c r="NU2" t="s">
+      <c r="QX2" t="s">
         <v>89</v>
       </c>
-      <c r="NV2" t="s">
+      <c r="QY2" t="s">
         <v>90</v>
       </c>
-      <c r="NW2" t="s">
+      <c r="QZ2" t="s">
         <v>91</v>
       </c>
-      <c r="NX2" t="s">
+      <c r="RA2" t="s">
         <v>92</v>
       </c>
-      <c r="NY2" t="s">
+      <c r="RB2" t="s">
         <v>93</v>
       </c>
-      <c r="NZ2" t="s">
+      <c r="RC2" t="s">
         <v>94</v>
       </c>
-      <c r="OA2" t="s">
+      <c r="RD2" t="s">
         <v>95</v>
       </c>
+      <c r="RE2" t="s">
+        <v>96</v>
+      </c>
+      <c r="RF2" t="s">
+        <v>97</v>
+      </c>
+      <c r="RG2" t="s">
+        <v>98</v>
+      </c>
+      <c r="RH2" t="s">
+        <v>99</v>
+      </c>
+      <c r="RI2" t="s">
+        <v>100</v>
+      </c>
+      <c r="RJ2" t="s">
+        <v>101</v>
+      </c>
+      <c r="RK2" t="s">
+        <v>102</v>
+      </c>
+      <c r="RL2" t="s">
+        <v>103</v>
+      </c>
+      <c r="RM2" t="s">
+        <v>104</v>
+      </c>
+      <c r="RN2" t="s">
+        <v>35</v>
+      </c>
+      <c r="RO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="RP2" t="s">
+        <v>37</v>
+      </c>
+      <c r="RQ2" t="s">
+        <v>38</v>
+      </c>
+      <c r="RR2" t="s">
+        <v>39</v>
+      </c>
+      <c r="RS2" t="s">
+        <v>40</v>
+      </c>
+      <c r="RT2" t="s">
+        <v>41</v>
+      </c>
+      <c r="RU2" t="s">
+        <v>42</v>
+      </c>
+      <c r="RV2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="1:391">
+    <row r="3" spans="1:490">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2283,1102 +2706,1372 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>12.90351816301735</v>
+        <v>12.36660877911219</v>
       </c>
       <c r="E3">
-        <v>12.90351816301735</v>
+        <v>12.36660877911219</v>
       </c>
       <c r="F3">
-        <v>0.4333333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0.7333333333333333</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>0.6434782608695648</v>
+        <v>0.6303030303030304</v>
       </c>
       <c r="K3">
         <v>0.2666666666666667</v>
       </c>
       <c r="L3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>0.5666666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.3565217391304348</v>
+        <v>0.3696969696969697</v>
       </c>
       <c r="P3">
-        <v>-0.4472135954999571</v>
+        <v>-0.3713906763541042</v>
       </c>
       <c r="Q3">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R3">
-        <v>0.9119538197830639</v>
+        <v>0.6690660544846525</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.09344791286761919</v>
+        <v>0.1576049680943686</v>
       </c>
       <c r="U3">
-        <v>-0.6274973281045035</v>
+        <v>-0.2961190440841808</v>
       </c>
       <c r="V3">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="W3">
-        <v>2.999996325183426</v>
+        <v>2.708374816117836</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0.2529333997745867</v>
+        <v>0.5526882912124301</v>
       </c>
       <c r="Z3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AA3">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>7</v>
       </c>
       <c r="AC3">
-        <v>1.227666942380817</v>
+        <v>1.053291674268686</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AF3">
+        <v>8.5</v>
+      </c>
+      <c r="AG3">
+        <v>1.513825177048746</v>
+      </c>
+      <c r="AH3">
+        <v>3.5</v>
+      </c>
+      <c r="AI3">
+        <v>1.513825177048746</v>
       </c>
       <c r="AJ3">
+        <v>0.6214168059074189</v>
+      </c>
+      <c r="AK3">
+        <v>3</v>
+      </c>
+      <c r="AL3">
+        <v>2.052400356685603</v>
+      </c>
+      <c r="AM3">
+        <v>1.01211760241965</v>
+      </c>
+      <c r="AN3">
+        <v>7</v>
+      </c>
+      <c r="AO3">
+        <v>3.157941449218308</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>1.204526747333635</v>
+      </c>
+      <c r="AR3">
+        <v>11</v>
+      </c>
+      <c r="AS3">
+        <v>28</v>
+      </c>
+      <c r="AT3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="AU3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="AV3">
+        <v>0.5</v>
+      </c>
+      <c r="AW3">
+        <v>4</v>
+      </c>
+      <c r="AX3">
+        <v>0.7</v>
+      </c>
+      <c r="AY3">
+        <v>10</v>
+      </c>
+      <c r="AZ3">
+        <v>0.6172839506172839</v>
+      </c>
+      <c r="BA3">
+        <v>0.3</v>
+      </c>
+      <c r="BB3">
+        <v>10</v>
+      </c>
+      <c r="BC3">
+        <v>0.5</v>
+      </c>
+      <c r="BD3">
+        <v>4</v>
+      </c>
+      <c r="BE3">
+        <v>0.3827160493827161</v>
+      </c>
+      <c r="BF3">
+        <v>-0.2941742027072742</v>
+      </c>
+      <c r="BG3">
+        <v>20</v>
+      </c>
+      <c r="BH3">
+        <v>0.4898558795425984</v>
+      </c>
+      <c r="BI3">
+        <v>2</v>
+      </c>
+      <c r="BJ3">
+        <v>0.128320021321605</v>
+      </c>
+      <c r="BK3">
+        <v>-0.1907303226963357</v>
+      </c>
+      <c r="BL3">
+        <v>11</v>
+      </c>
+      <c r="BM3">
+        <v>1.521155049304564</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0.2273022494338981</v>
+      </c>
+      <c r="BP3">
+        <v>1</v>
+      </c>
+      <c r="BQ3">
+        <v>1.153846153846154</v>
+      </c>
+      <c r="BR3">
+        <v>10</v>
+      </c>
+      <c r="BS3">
+        <v>1.166934231897867</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0.3939875787836551</v>
+      </c>
+      <c r="CA3">
+        <v>2</v>
+      </c>
+      <c r="CB3">
+        <v>1.907011017337768</v>
+      </c>
+      <c r="CC3">
+        <v>1.003709022285535</v>
+      </c>
+      <c r="CD3">
+        <v>27</v>
+      </c>
+      <c r="CE3">
+        <v>2.460061067364092</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>1.118160526838879</v>
+      </c>
+      <c r="CH3">
+        <v>27</v>
+      </c>
+      <c r="CI3">
+        <v>23</v>
+      </c>
+      <c r="CJ3">
+        <v>12.55350613666823</v>
+      </c>
+      <c r="CK3">
+        <v>12.55350613666822</v>
+      </c>
+      <c r="CL3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="CO3">
+        <v>7</v>
+      </c>
+      <c r="CP3">
+        <v>0.6348484848484848</v>
+      </c>
+      <c r="CQ3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="CR3">
+        <v>7</v>
+      </c>
+      <c r="CS3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0.3651515151515152</v>
+      </c>
+      <c r="CV3">
+        <v>-0.2182178902358995</v>
+      </c>
+      <c r="CW3">
+        <v>13</v>
+      </c>
+      <c r="CX3">
+        <v>0.7038503390452959</v>
+      </c>
+      <c r="CY3">
+        <v>1</v>
+      </c>
+      <c r="CZ3">
+        <v>0.1361474578413485</v>
+      </c>
+      <c r="DA3">
+        <v>-0.1305129038116615</v>
+      </c>
+      <c r="DB3">
+        <v>7</v>
+      </c>
+      <c r="DC3">
+        <v>2.212324434031121</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0.1778066181714181</v>
+      </c>
+      <c r="DF3">
+        <v>2.6</v>
+      </c>
+      <c r="DG3">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="DH3">
+        <v>5</v>
+      </c>
+      <c r="DI3">
+        <v>1.070477881015302</v>
+      </c>
+      <c r="DJ3">
+        <v>22</v>
+      </c>
+      <c r="DK3">
+        <v>23</v>
+      </c>
+      <c r="DL3">
+        <v>11</v>
+      </c>
+      <c r="DM3">
+        <v>6.422616289332564</v>
+      </c>
+      <c r="DN3">
+        <v>12</v>
+      </c>
+      <c r="DO3">
+        <v>6.422616289332564</v>
+      </c>
+      <c r="DP3">
+        <v>0.7038503390452959</v>
+      </c>
+      <c r="DQ3">
+        <v>0</v>
+      </c>
+      <c r="DR3">
+        <v>1.452656097454858</v>
+      </c>
+      <c r="DS3">
+        <v>1.0003326119811</v>
+      </c>
+      <c r="DT3">
         <v>21</v>
       </c>
-      <c r="AK3">
+      <c r="DU3">
+        <v>2.006943992687888</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>1.050361405992373</v>
+      </c>
+      <c r="DX3">
+        <v>22</v>
+      </c>
+      <c r="DY3">
+        <v>23</v>
+      </c>
+      <c r="DZ3">
         <v>12.90351816301735</v>
       </c>
-      <c r="AL3">
+      <c r="EA3">
         <v>12.90351816301735</v>
       </c>
-      <c r="AM3">
+      <c r="EB3">
         <v>0.5666666666666667</v>
       </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
+      <c r="EC3">
+        <v>7</v>
+      </c>
+      <c r="ED3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="EE3">
+        <v>17</v>
+      </c>
+      <c r="EF3">
+        <v>0.646969696969697</v>
+      </c>
+      <c r="EG3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="EH3">
+        <v>17</v>
+      </c>
+      <c r="EI3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="EJ3">
+        <v>7</v>
+      </c>
+      <c r="EK3">
+        <v>0.353030303030303</v>
+      </c>
+      <c r="EL3">
+        <v>-0.555555555555537</v>
+      </c>
+      <c r="EM3">
+        <v>18</v>
+      </c>
+      <c r="EN3">
+        <v>0.6546511733534444</v>
+      </c>
+      <c r="EO3">
+        <v>0</v>
+      </c>
+      <c r="EP3">
+        <v>0.1082829279957458</v>
+      </c>
+      <c r="EQ3">
+        <v>-0.1308425900577479</v>
+      </c>
+      <c r="ER3">
+        <v>11</v>
+      </c>
+      <c r="ES3">
+        <v>2.349891858552819</v>
+      </c>
+      <c r="ET3">
+        <v>0</v>
+      </c>
+      <c r="EU3">
+        <v>0.2330184516564834</v>
+      </c>
+      <c r="EV3">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="EW3">
+        <v>1.384615384615385</v>
+      </c>
+      <c r="EX3">
+        <v>8</v>
+      </c>
+      <c r="EY3">
+        <v>1.215792099913906</v>
+      </c>
+      <c r="EZ3">
+        <v>0</v>
+      </c>
+      <c r="FA3">
+        <v>0</v>
+      </c>
+      <c r="FF3">
+        <v>0.5339114282944769</v>
+      </c>
+      <c r="FG3">
+        <v>3</v>
+      </c>
+      <c r="FH3">
+        <v>1.659165740070653</v>
+      </c>
+      <c r="FI3">
+        <v>1.000823680824123</v>
+      </c>
+      <c r="FJ3">
+        <v>22</v>
+      </c>
+      <c r="FK3">
+        <v>2.377555597161133</v>
+      </c>
+      <c r="FL3">
+        <v>0</v>
+      </c>
+      <c r="FM3">
+        <v>1.066138735392796</v>
+      </c>
+      <c r="FN3">
+        <v>22</v>
+      </c>
+      <c r="FO3">
+        <v>20</v>
+      </c>
+      <c r="FP3">
+        <v>12.7751260120747</v>
+      </c>
+      <c r="FQ3">
+        <v>12.77512601207469</v>
+      </c>
+      <c r="FR3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="FS3">
+        <v>1</v>
+      </c>
+      <c r="FT3">
         <v>0.7333333333333333</v>
       </c>
-      <c r="AP3">
-        <v>8</v>
-      </c>
-      <c r="AQ3">
-        <v>0.6433333333333331</v>
-      </c>
-      <c r="AR3">
+      <c r="FU3">
+        <v>16</v>
+      </c>
+      <c r="FV3">
+        <v>0.6070175438596488</v>
+      </c>
+      <c r="FW3">
         <v>0.2666666666666667</v>
       </c>
-      <c r="AS3">
-        <v>8</v>
-      </c>
-      <c r="AT3">
+      <c r="FX3">
+        <v>16</v>
+      </c>
+      <c r="FY3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="FZ3">
+        <v>1</v>
+      </c>
+      <c r="GA3">
+        <v>0.3929824561403508</v>
+      </c>
+      <c r="GB3">
+        <v>-0.2075143391598271</v>
+      </c>
+      <c r="GC3">
+        <v>9</v>
+      </c>
+      <c r="GD3">
+        <v>0.9512857200540384</v>
+      </c>
+      <c r="GE3">
+        <v>0</v>
+      </c>
+      <c r="GF3">
+        <v>0.1198205421412821</v>
+      </c>
+      <c r="GG3">
+        <v>-0.04701959515642962</v>
+      </c>
+      <c r="GH3">
+        <v>9</v>
+      </c>
+      <c r="GI3">
+        <v>3.75449287157859</v>
+      </c>
+      <c r="GJ3">
+        <v>0</v>
+      </c>
+      <c r="GK3">
+        <v>0.2364002283158352</v>
+      </c>
+      <c r="GL3">
+        <v>0</v>
+      </c>
+      <c r="GM3">
+        <v>1.6</v>
+      </c>
+      <c r="GN3">
+        <v>3</v>
+      </c>
+      <c r="GO3">
+        <v>1.016368838634706</v>
+      </c>
+      <c r="GP3">
+        <v>19</v>
+      </c>
+      <c r="GQ3">
+        <v>19</v>
+      </c>
+      <c r="GR3">
+        <v>10</v>
+      </c>
+      <c r="GS3">
+        <v>5.267826876426369</v>
+      </c>
+      <c r="GT3">
+        <v>10</v>
+      </c>
+      <c r="GU3">
+        <v>5.267826876426369</v>
+      </c>
+      <c r="GV3">
+        <v>0.4630113562346209</v>
+      </c>
+      <c r="GW3">
+        <v>1</v>
+      </c>
+      <c r="GX3">
+        <v>1.557733373645103</v>
+      </c>
+      <c r="GY3">
+        <v>1.001228359759179</v>
+      </c>
+      <c r="GZ3">
+        <v>14</v>
+      </c>
+      <c r="HA3">
+        <v>2.849069574454518</v>
+      </c>
+      <c r="HB3">
+        <v>0</v>
+      </c>
+      <c r="HC3">
+        <v>1.070922311656715</v>
+      </c>
+      <c r="HD3">
+        <v>19</v>
+      </c>
+      <c r="HE3">
+        <v>13</v>
+      </c>
+      <c r="HF3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="HG3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="HH3">
+        <v>0.5</v>
+      </c>
+      <c r="HI3">
+        <v>0</v>
+      </c>
+      <c r="HJ3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="HK3">
+        <v>4</v>
+      </c>
+      <c r="HL3">
+        <v>0.6166666666666665</v>
+      </c>
+      <c r="HM3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="HN3">
+        <v>4</v>
+      </c>
+      <c r="HO3">
+        <v>0.5</v>
+      </c>
+      <c r="HP3">
+        <v>0</v>
+      </c>
+      <c r="HQ3">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="HR3">
+        <v>-0.01288951999367185</v>
+      </c>
+      <c r="HS3">
+        <v>9</v>
+      </c>
+      <c r="HT3">
+        <v>0.9432694529837607</v>
+      </c>
+      <c r="HU3">
+        <v>0</v>
+      </c>
+      <c r="HV3">
+        <v>0.2565742240386574</v>
+      </c>
+      <c r="HW3">
+        <v>-0.01200985272913613</v>
+      </c>
+      <c r="HX3">
+        <v>9</v>
+      </c>
+      <c r="HY3">
+        <v>3.046615286516645</v>
+      </c>
+      <c r="HZ3">
+        <v>0</v>
+      </c>
+      <c r="IA3">
+        <v>0.4797939870004231</v>
+      </c>
+      <c r="IB3">
+        <v>2</v>
+      </c>
+      <c r="IC3">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="ID3">
+        <v>9</v>
+      </c>
+      <c r="IE3">
+        <v>1.412061368583108</v>
+      </c>
+      <c r="IF3">
+        <v>0</v>
+      </c>
+      <c r="IG3">
+        <v>0</v>
+      </c>
+      <c r="IL3">
+        <v>0.737729412635037</v>
+      </c>
+      <c r="IM3">
+        <v>3</v>
+      </c>
+      <c r="IN3">
+        <v>1.805700481945362</v>
+      </c>
+      <c r="IO3">
+        <v>1.022373415084256</v>
+      </c>
+      <c r="IP3">
+        <v>12</v>
+      </c>
+      <c r="IQ3">
+        <v>3.147679356177842</v>
+      </c>
+      <c r="IR3">
+        <v>0</v>
+      </c>
+      <c r="IS3">
+        <v>1.19163737863666</v>
+      </c>
+      <c r="IT3">
+        <v>12</v>
+      </c>
+      <c r="IU3">
+        <v>51</v>
+      </c>
+      <c r="IV3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="IW3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="IX3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="IY3">
+        <v>22</v>
+      </c>
+      <c r="IZ3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="JA3">
+        <v>18</v>
+      </c>
+      <c r="JB3">
+        <v>0.6426666666666666</v>
+      </c>
+      <c r="JC3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="JD3">
+        <v>18</v>
+      </c>
+      <c r="JE3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="JF3">
+        <v>22</v>
+      </c>
+      <c r="JG3">
+        <v>0.3573333333333334</v>
+      </c>
+      <c r="JH3">
+        <v>-0.4574995717726709</v>
+      </c>
+      <c r="JI3">
+        <v>21</v>
+      </c>
+      <c r="JJ3">
+        <v>1.044730758145375</v>
+      </c>
+      <c r="JK3">
+        <v>0</v>
+      </c>
+      <c r="JL3">
+        <v>0.05086470828328427</v>
+      </c>
+      <c r="JM3">
+        <v>-0.2768708358379701</v>
+      </c>
+      <c r="JN3">
+        <v>21</v>
+      </c>
+      <c r="JO3">
+        <v>3.987087503295393</v>
+      </c>
+      <c r="JP3">
+        <v>0</v>
+      </c>
+      <c r="JQ3">
+        <v>0.07391663170714662</v>
+      </c>
+      <c r="JR3">
+        <v>1.75</v>
+      </c>
+      <c r="JS3">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="JT3">
+        <v>5</v>
+      </c>
+      <c r="JU3">
+        <v>1.122760574031826</v>
+      </c>
+      <c r="JV3">
+        <v>0</v>
+      </c>
+      <c r="JW3">
+        <v>0</v>
+      </c>
+      <c r="KB3">
+        <v>0.4478243866873858</v>
+      </c>
+      <c r="KC3">
+        <v>4</v>
+      </c>
+      <c r="KD3">
+        <v>1.40138546791159</v>
+      </c>
+      <c r="KE3">
+        <v>1.000578593387889</v>
+      </c>
+      <c r="KF3">
+        <v>49</v>
+      </c>
+      <c r="KG3">
+        <v>2.471654685451551</v>
+      </c>
+      <c r="KH3">
+        <v>0</v>
+      </c>
+      <c r="KI3">
+        <v>1.031036926237789</v>
+      </c>
+      <c r="KJ3">
+        <v>50</v>
+      </c>
+      <c r="KK3">
+        <v>30</v>
+      </c>
+      <c r="KL3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="KM3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="KN3">
+        <v>0.5</v>
+      </c>
+      <c r="KO3">
+        <v>11</v>
+      </c>
+      <c r="KP3">
+        <v>0.7</v>
+      </c>
+      <c r="KQ3">
+        <v>9</v>
+      </c>
+      <c r="KR3">
+        <v>0.6045977011494252</v>
+      </c>
+      <c r="KS3">
+        <v>0.3</v>
+      </c>
+      <c r="KT3">
+        <v>9</v>
+      </c>
+      <c r="KU3">
+        <v>0.5</v>
+      </c>
+      <c r="KV3">
+        <v>11</v>
+      </c>
+      <c r="KW3">
+        <v>0.3954022988505748</v>
+      </c>
+      <c r="KX3">
+        <v>-0.6260990336999432</v>
+      </c>
+      <c r="KY3">
+        <v>23</v>
+      </c>
+      <c r="KZ3">
+        <v>0.5901885125726152</v>
+      </c>
+      <c r="LA3">
+        <v>3</v>
+      </c>
+      <c r="LB3">
+        <v>0.09208252062254157</v>
+      </c>
+      <c r="LC3">
+        <v>-0.5702969119132426</v>
+      </c>
+      <c r="LD3">
+        <v>23</v>
+      </c>
+      <c r="LE3">
+        <v>2.156489570209679</v>
+      </c>
+      <c r="LF3">
+        <v>3</v>
+      </c>
+      <c r="LG3">
+        <v>0.2497049503901356</v>
+      </c>
+      <c r="LH3">
+        <v>3.5</v>
+      </c>
+      <c r="LI3">
+        <v>1.545454545454545</v>
+      </c>
+      <c r="LJ3">
+        <v>4</v>
+      </c>
+      <c r="LK3">
+        <v>1.177482175799135</v>
+      </c>
+      <c r="LL3">
+        <v>0</v>
+      </c>
+      <c r="LM3">
+        <v>0</v>
+      </c>
+      <c r="LR3">
+        <v>0.5594868109052358</v>
+      </c>
+      <c r="LS3">
+        <v>2</v>
+      </c>
+      <c r="LT3">
+        <v>2.278938210940452</v>
+      </c>
+      <c r="LU3">
+        <v>1.006353976576471</v>
+      </c>
+      <c r="LV3">
+        <v>29</v>
+      </c>
+      <c r="LW3">
+        <v>3.025572726566795</v>
+      </c>
+      <c r="LX3">
+        <v>0</v>
+      </c>
+      <c r="LY3">
+        <v>1.131109604002754</v>
+      </c>
+      <c r="LZ3">
+        <v>29</v>
+      </c>
+      <c r="MA3">
+        <v>18</v>
+      </c>
+      <c r="MB3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="MC3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="MD3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="ME3">
+        <v>9</v>
+      </c>
+      <c r="MF3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="MG3">
+        <v>16</v>
+      </c>
+      <c r="MH3">
+        <v>0.6411764705882351</v>
+      </c>
+      <c r="MI3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="MJ3">
+        <v>16</v>
+      </c>
+      <c r="MK3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="ML3">
+        <v>9</v>
+      </c>
+      <c r="MM3">
+        <v>0.3588235294117647</v>
+      </c>
+      <c r="MN3">
+        <v>-0.1233794585999857</v>
+      </c>
+      <c r="MO3">
+        <v>9</v>
+      </c>
+      <c r="MP3">
+        <v>0.5634514907749245</v>
+      </c>
+      <c r="MQ3">
+        <v>0</v>
+      </c>
+      <c r="MR3">
+        <v>0.1639166939061103</v>
+      </c>
+      <c r="MS3">
+        <v>-0.1001287417576293</v>
+      </c>
+      <c r="MT3">
+        <v>9</v>
+      </c>
+      <c r="MU3">
+        <v>2.037828441759107</v>
+      </c>
+      <c r="MV3">
+        <v>0</v>
+      </c>
+      <c r="MW3">
+        <v>0.2869327161443159</v>
+      </c>
+      <c r="MX3">
+        <v>1.75</v>
+      </c>
+      <c r="MY3">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="MZ3">
+        <v>5</v>
+      </c>
+      <c r="NA3">
+        <v>1.304014245282361</v>
+      </c>
+      <c r="NB3">
+        <v>0</v>
+      </c>
+      <c r="NC3">
+        <v>0</v>
+      </c>
+      <c r="NH3">
+        <v>0.5422905956344098</v>
+      </c>
+      <c r="NI3">
+        <v>4</v>
+      </c>
+      <c r="NJ3">
+        <v>1.607782408654138</v>
+      </c>
+      <c r="NK3">
+        <v>1.008681603000901</v>
+      </c>
+      <c r="NL3">
+        <v>16</v>
+      </c>
+      <c r="NM3">
+        <v>2.154956055834704</v>
+      </c>
+      <c r="NN3">
+        <v>0</v>
+      </c>
+      <c r="NO3">
+        <v>1.092885837702502</v>
+      </c>
+      <c r="NP3">
+        <v>17</v>
+      </c>
+      <c r="NQ3">
+        <v>20</v>
+      </c>
+      <c r="NR3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="NS3">
+        <v>12.90351816301735</v>
+      </c>
+      <c r="NT3">
         <v>0.4333333333333333</v>
       </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0.3566666666666667</v>
-      </c>
-      <c r="AW3">
-        <v>-0.1772976132102876</v>
-      </c>
-      <c r="AX3">
-        <v>8</v>
-      </c>
-      <c r="AY3">
-        <v>0.9813165097074927</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0.1106835493597631</v>
-      </c>
-      <c r="BB3">
-        <v>-0.1689026906450444</v>
-      </c>
-      <c r="BC3">
-        <v>8</v>
-      </c>
-      <c r="BD3">
-        <v>3.292113900019616</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0.2183100942000099</v>
-      </c>
-      <c r="BG3">
-        <v>1.833333333333333</v>
-      </c>
-      <c r="BH3">
-        <v>1.384615384615385</v>
-      </c>
-      <c r="BI3">
+      <c r="NU3">
+        <v>0</v>
+      </c>
+      <c r="NV3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="NW3">
+        <v>18</v>
+      </c>
+      <c r="NX3">
+        <v>0.6614035087719298</v>
+      </c>
+      <c r="NY3">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="NZ3">
+        <v>18</v>
+      </c>
+      <c r="OA3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="OB3">
+        <v>0</v>
+      </c>
+      <c r="OC3">
+        <v>0.3385964912280703</v>
+      </c>
+      <c r="OD3">
+        <v>-0.2169599150619237</v>
+      </c>
+      <c r="OE3">
         <v>4</v>
       </c>
-      <c r="BJ3">
-        <v>1.331841447765983</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>54</v>
-      </c>
-      <c r="BR3">
-        <v>12.55350613666823</v>
-      </c>
-      <c r="BS3">
-        <v>12.55350613666822</v>
-      </c>
-      <c r="BT3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="BW3">
-        <v>17</v>
-      </c>
-      <c r="BX3">
-        <v>0.6389937106918239</v>
-      </c>
-      <c r="BY3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="BZ3">
-        <v>17</v>
-      </c>
-      <c r="CA3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
-      <c r="CC3">
-        <v>0.3610062893081762</v>
-      </c>
-      <c r="CD3">
-        <v>-0.3152441624955731</v>
-      </c>
-      <c r="CE3">
-        <v>29</v>
-      </c>
-      <c r="CF3">
-        <v>0.6097256557722263</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
-      </c>
-      <c r="CH3">
-        <v>0.04875314183268099</v>
-      </c>
-      <c r="CI3">
-        <v>-0.008348116408187778</v>
-      </c>
-      <c r="CJ3">
-        <v>29</v>
-      </c>
-      <c r="CK3">
-        <v>2.281990095189496</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CM3">
-        <v>0.07249207431344946</v>
-      </c>
-      <c r="CN3">
+      <c r="OF3">
+        <v>1.039692623214912</v>
+      </c>
+      <c r="OG3">
+        <v>0</v>
+      </c>
+      <c r="OH3">
+        <v>0.106081374126761</v>
+      </c>
+      <c r="OI3">
+        <v>-0.5827034033488996</v>
+      </c>
+      <c r="OJ3">
+        <v>4</v>
+      </c>
+      <c r="OK3">
+        <v>3.141368136746582</v>
+      </c>
+      <c r="OL3">
+        <v>0</v>
+      </c>
+      <c r="OM3">
+        <v>0.2815567104863367</v>
+      </c>
+      <c r="ON3">
         <v>2</v>
       </c>
-      <c r="CO3">
-        <v>0</v>
-      </c>
-      <c r="CP3">
-        <v>10</v>
-      </c>
-      <c r="CQ3">
-        <v>1.002866112861353</v>
-      </c>
-      <c r="CR3">
-        <v>53</v>
-      </c>
-      <c r="CS3">
+      <c r="OO3">
+        <v>1.727272727272727</v>
+      </c>
+      <c r="OP3">
+        <v>6</v>
+      </c>
+      <c r="OQ3">
+        <v>1.317554460176511</v>
+      </c>
+      <c r="OR3">
+        <v>0</v>
+      </c>
+      <c r="OS3">
+        <v>0</v>
+      </c>
+      <c r="OX3">
+        <v>0.6183089868081619</v>
+      </c>
+      <c r="OY3">
+        <v>5</v>
+      </c>
+      <c r="OZ3">
+        <v>1.708183680193964</v>
+      </c>
+      <c r="PA3">
+        <v>1.010939499444034</v>
+      </c>
+      <c r="PB3">
+        <v>14</v>
+      </c>
+      <c r="PC3">
+        <v>2.924261999995121</v>
+      </c>
+      <c r="PD3">
+        <v>0</v>
+      </c>
+      <c r="PE3">
+        <v>1.127317978825843</v>
+      </c>
+      <c r="PF3">
+        <v>19</v>
+      </c>
+      <c r="PG3">
+        <v>0.7</v>
+      </c>
+      <c r="PH3">
+        <v>7</v>
+      </c>
+      <c r="PI3">
+        <v>13</v>
+      </c>
+      <c r="PJ3">
         <v>51</v>
       </c>
-      <c r="CT3">
-        <v>28</v>
-      </c>
-      <c r="CU3">
-        <v>14.50574598794101</v>
-      </c>
-      <c r="CV3">
-        <v>26</v>
-      </c>
-      <c r="CW3">
-        <v>14.50574598794101</v>
-      </c>
-      <c r="CX3">
+      <c r="PK3">
+        <v>26.14285714285714</v>
+      </c>
+      <c r="PL3">
+        <v>11.48201788423435</v>
+      </c>
+      <c r="PM3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="PN3">
+        <v>0</v>
+      </c>
+      <c r="PO3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="PP3">
+        <v>18</v>
+      </c>
+      <c r="PQ3">
+        <v>0.5</v>
+      </c>
+      <c r="PR3">
+        <v>0.7476190476190476</v>
+      </c>
+      <c r="PS3">
+        <v>0.6329663802042721</v>
+      </c>
+      <c r="PT3">
+        <v>0.03984095364447978</v>
+      </c>
+      <c r="PU3">
+        <v>0.04312088161017821</v>
+      </c>
+      <c r="PV3">
+        <v>0.01883259148257703</v>
+      </c>
+      <c r="PW3">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="PX3">
+        <v>18</v>
+      </c>
+      <c r="PY3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="PZ3">
+        <v>0</v>
+      </c>
+      <c r="QA3">
+        <v>0.2523809523809524</v>
+      </c>
+      <c r="QB3">
+        <v>0.5</v>
+      </c>
+      <c r="QC3">
+        <v>0.3670336197957279</v>
+      </c>
+      <c r="QD3">
+        <v>0.04312088161017817</v>
+      </c>
+      <c r="QE3">
+        <v>0.03984095364447978</v>
+      </c>
+      <c r="QF3">
+        <v>0.01883259148257703</v>
+      </c>
+      <c r="QG3">
+        <v>-0.6260990336999432</v>
+      </c>
+      <c r="QH3">
+        <v>23</v>
+      </c>
+      <c r="QI3">
+        <v>1.044730758145375</v>
+      </c>
+      <c r="QJ3">
+        <v>0</v>
+      </c>
+      <c r="QK3">
+        <v>-0.3266510367701438</v>
+      </c>
+      <c r="QL3">
+        <v>0.7608342700839471</v>
+      </c>
+      <c r="QM3">
+        <v>0.1294460671849579</v>
+      </c>
+      <c r="QN3">
+        <v>0.2111330763597631</v>
+      </c>
+      <c r="QO3">
+        <v>0.2218190598857689</v>
+      </c>
+      <c r="QP3">
+        <v>0.06084630787185441</v>
+      </c>
+      <c r="QQ3">
+        <v>-0.5827034033488996</v>
+      </c>
+      <c r="QR3">
+        <v>4</v>
+      </c>
+      <c r="QS3">
+        <v>3.987087503295393</v>
+      </c>
+      <c r="QT3">
+        <v>0</v>
+      </c>
+      <c r="QU3">
+        <v>-0.2662260940487088</v>
+      </c>
+      <c r="QV3">
+        <v>2.605776549483541</v>
+      </c>
+      <c r="QW3">
+        <v>0.2617465281169628</v>
+      </c>
+      <c r="QX3">
+        <v>1</v>
+      </c>
+      <c r="QY3">
+        <v>3.5</v>
+      </c>
+      <c r="QZ3">
+        <v>1.952380952380953</v>
+      </c>
+      <c r="RA3">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="RB3">
+        <v>1.727272727272727</v>
+      </c>
+      <c r="RC3">
+        <v>1.309761666904524</v>
+      </c>
+      <c r="RD3">
+        <v>1.122760574031826</v>
+      </c>
+      <c r="RE3">
+        <v>1.412061368583108</v>
+      </c>
+      <c r="RF3">
+        <v>1.245228450812102</v>
+      </c>
+      <c r="RG3">
         <v>12</v>
       </c>
-      <c r="CY3">
-        <v>12.30493006051041</v>
-      </c>
-      <c r="CZ3">
-        <v>12.30493006051041</v>
-      </c>
-      <c r="DA3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DC3">
-        <v>0.7</v>
-      </c>
-      <c r="DD3">
-        <v>2</v>
-      </c>
-      <c r="DE3">
-        <v>0.6363636363636365</v>
-      </c>
-      <c r="DF3">
-        <v>0.3</v>
-      </c>
-      <c r="DG3">
-        <v>2</v>
-      </c>
-      <c r="DH3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="DI3">
-        <v>0</v>
-      </c>
-      <c r="DJ3">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="DK3">
-        <v>-0.01640264391758783</v>
-      </c>
-      <c r="DL3">
-        <v>5</v>
-      </c>
-      <c r="DM3">
-        <v>0.7732200231862918</v>
-      </c>
-      <c r="DN3">
-        <v>0</v>
-      </c>
-      <c r="DO3">
-        <v>0.1715042803309234</v>
-      </c>
-      <c r="DP3">
-        <v>-0.03372079926833038</v>
-      </c>
-      <c r="DQ3">
-        <v>5</v>
-      </c>
-      <c r="DR3">
-        <v>2.775498633948838</v>
-      </c>
-      <c r="DS3">
-        <v>0</v>
-      </c>
-      <c r="DT3">
-        <v>0.3729282780490617</v>
-      </c>
-      <c r="DU3">
-        <v>0</v>
-      </c>
-      <c r="DV3">
-        <v>0</v>
-      </c>
-      <c r="DW3">
-        <v>2</v>
-      </c>
-      <c r="DX3">
-        <v>1.151015797068428</v>
-      </c>
-      <c r="DY3">
-        <v>11</v>
-      </c>
-      <c r="DZ3">
-        <v>11</v>
-      </c>
-      <c r="EA3">
-        <v>6</v>
-      </c>
-      <c r="EB3">
-        <v>2.958039891549808</v>
-      </c>
-      <c r="EC3">
-        <v>6</v>
-      </c>
-      <c r="ED3">
-        <v>2.958039891549808</v>
-      </c>
-      <c r="EE3">
-        <v>92</v>
-      </c>
-      <c r="EF3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="EG3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="EH3">
-        <v>0.5</v>
-      </c>
-      <c r="EI3">
-        <v>0</v>
-      </c>
-      <c r="EJ3">
-        <v>0.8</v>
-      </c>
-      <c r="EK3">
-        <v>78</v>
-      </c>
-      <c r="EL3">
-        <v>0.643589743589744</v>
-      </c>
-      <c r="EM3">
-        <v>0.2</v>
-      </c>
-      <c r="EN3">
-        <v>78</v>
-      </c>
-      <c r="EO3">
-        <v>0.5</v>
-      </c>
-      <c r="EP3">
-        <v>0</v>
-      </c>
-      <c r="EQ3">
-        <v>0.3564102564102563</v>
-      </c>
-      <c r="ER3">
-        <v>-0.4150286783196447</v>
-      </c>
-      <c r="ES3">
-        <v>21</v>
-      </c>
-      <c r="ET3">
-        <v>1.008300211025157</v>
-      </c>
-      <c r="EU3">
-        <v>0</v>
-      </c>
-      <c r="EV3">
-        <v>0.02810574873980337</v>
-      </c>
-      <c r="EW3">
-        <v>-0.04143980941220882</v>
-      </c>
-      <c r="EX3">
-        <v>6</v>
-      </c>
-      <c r="EY3">
-        <v>3.979515170783908</v>
-      </c>
-      <c r="EZ3">
-        <v>0</v>
-      </c>
-      <c r="FA3">
-        <v>0.04829641966745282</v>
-      </c>
-      <c r="FB3">
-        <v>1</v>
-      </c>
-      <c r="FC3">
-        <v>1.875</v>
-      </c>
-      <c r="FD3">
-        <v>6</v>
-      </c>
-      <c r="FE3">
-        <v>1.066574036001902</v>
-      </c>
-      <c r="FF3">
-        <v>0</v>
-      </c>
-      <c r="FG3">
-        <v>0</v>
-      </c>
-      <c r="FL3">
-        <v>13</v>
-      </c>
-      <c r="FM3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="FN3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="FO3">
-        <v>0.5</v>
-      </c>
-      <c r="FP3">
-        <v>1</v>
-      </c>
-      <c r="FQ3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="FR3">
-        <v>6</v>
-      </c>
-      <c r="FS3">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="FT3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="FU3">
-        <v>6</v>
-      </c>
-      <c r="FV3">
-        <v>0.5</v>
-      </c>
-      <c r="FW3">
-        <v>1</v>
-      </c>
-      <c r="FX3">
-        <v>0.3777777777777778</v>
-      </c>
-      <c r="FY3">
-        <v>0.05543731048490746</v>
-      </c>
-      <c r="FZ3">
-        <v>8</v>
-      </c>
-      <c r="GA3">
-        <v>0.7203778241254766</v>
-      </c>
-      <c r="GB3">
-        <v>0</v>
-      </c>
-      <c r="GC3">
-        <v>0.2354155774777736</v>
-      </c>
-      <c r="GD3">
-        <v>0.07264496469899484</v>
-      </c>
-      <c r="GE3">
-        <v>12</v>
-      </c>
-      <c r="GF3">
-        <v>2.326709599368379</v>
-      </c>
-      <c r="GG3">
-        <v>0</v>
-      </c>
-      <c r="GH3">
-        <v>0.539786127596112</v>
-      </c>
-      <c r="GI3">
-        <v>1.5</v>
-      </c>
-      <c r="GJ3">
-        <v>1.307692307692308</v>
-      </c>
-      <c r="GK3">
-        <v>7</v>
-      </c>
-      <c r="GL3">
-        <v>1.332299703613481</v>
-      </c>
-      <c r="GM3">
-        <v>0</v>
-      </c>
-      <c r="GN3">
-        <v>0</v>
-      </c>
-      <c r="GS3">
-        <v>39</v>
-      </c>
-      <c r="GT3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="GU3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="GV3">
-        <v>0.5</v>
-      </c>
-      <c r="GW3">
-        <v>0</v>
-      </c>
-      <c r="GX3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="GY3">
-        <v>34</v>
-      </c>
-      <c r="GZ3">
-        <v>0.6245614035087719</v>
-      </c>
-      <c r="HA3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="HB3">
-        <v>34</v>
-      </c>
-      <c r="HC3">
-        <v>0.5</v>
-      </c>
-      <c r="HD3">
-        <v>0</v>
-      </c>
-      <c r="HE3">
-        <v>0.3754385964912283</v>
-      </c>
-      <c r="HF3">
-        <v>-0.3402069087199021</v>
-      </c>
-      <c r="HG3">
-        <v>21</v>
-      </c>
-      <c r="HH3">
-        <v>0.7914499339288266</v>
-      </c>
-      <c r="HI3">
-        <v>0</v>
-      </c>
-      <c r="HJ3">
-        <v>0.07456214437563777</v>
-      </c>
-      <c r="HK3">
-        <v>-0.3625421076453765</v>
-      </c>
-      <c r="HL3">
-        <v>6</v>
-      </c>
-      <c r="HM3">
-        <v>3.020472132603267</v>
-      </c>
-      <c r="HN3">
-        <v>0</v>
-      </c>
-      <c r="HO3">
-        <v>0.1226959725276173</v>
-      </c>
-      <c r="HP3">
-        <v>1</v>
-      </c>
-      <c r="HQ3">
-        <v>1.307692307692308</v>
-      </c>
-      <c r="HR3">
-        <v>9</v>
-      </c>
-      <c r="HS3">
-        <v>1.12644424825202</v>
-      </c>
-      <c r="HT3">
-        <v>0</v>
-      </c>
-      <c r="HU3">
-        <v>0</v>
-      </c>
-      <c r="HZ3">
-        <v>11</v>
-      </c>
-      <c r="IA3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="IB3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="IC3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="ID3">
-        <v>2</v>
-      </c>
-      <c r="IE3">
-        <v>0.7</v>
-      </c>
-      <c r="IF3">
-        <v>5</v>
-      </c>
-      <c r="IG3">
-        <v>0.5899999999999999</v>
-      </c>
-      <c r="IH3">
-        <v>0.3</v>
-      </c>
-      <c r="II3">
-        <v>5</v>
-      </c>
-      <c r="IJ3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="IK3">
-        <v>2</v>
-      </c>
-      <c r="IL3">
-        <v>0.41</v>
-      </c>
-      <c r="IM3">
-        <v>-0.08346119586852981</v>
-      </c>
-      <c r="IN3">
-        <v>5</v>
-      </c>
-      <c r="IO3">
-        <v>0.6565778190591458</v>
-      </c>
-      <c r="IP3">
-        <v>1</v>
-      </c>
-      <c r="IQ3">
-        <v>0.3062948704131493</v>
-      </c>
-      <c r="IR3">
-        <v>-0.2136958913202562</v>
-      </c>
-      <c r="IS3">
-        <v>5</v>
-      </c>
-      <c r="IT3">
-        <v>2.067749340319258</v>
-      </c>
-      <c r="IU3">
-        <v>1</v>
-      </c>
-      <c r="IV3">
-        <v>0.7289290228351689</v>
-      </c>
-      <c r="IW3">
-        <v>1.5</v>
-      </c>
-      <c r="IX3">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="IY3">
-        <v>8</v>
-      </c>
-      <c r="IZ3">
-        <v>1.449134199134199</v>
-      </c>
-      <c r="JA3">
-        <v>0</v>
-      </c>
-      <c r="JB3">
-        <v>0</v>
-      </c>
-      <c r="JG3">
-        <v>26</v>
-      </c>
-      <c r="JH3">
-        <v>11.1897703575527</v>
-      </c>
-      <c r="JI3">
-        <v>11.18977035755271</v>
-      </c>
-      <c r="JJ3">
-        <v>0.5</v>
-      </c>
-      <c r="JK3">
-        <v>4</v>
-      </c>
-      <c r="JL3">
-        <v>0.7</v>
-      </c>
-      <c r="JM3">
-        <v>8</v>
-      </c>
-      <c r="JN3">
-        <v>0.6306666666666664</v>
-      </c>
-      <c r="JO3">
-        <v>0.3</v>
-      </c>
-      <c r="JP3">
-        <v>8</v>
-      </c>
-      <c r="JQ3">
-        <v>0.5</v>
-      </c>
-      <c r="JR3">
-        <v>4</v>
-      </c>
-      <c r="JS3">
-        <v>0.3693333333333335</v>
-      </c>
-      <c r="JT3">
-        <v>-0.1965035542759111</v>
-      </c>
-      <c r="JU3">
-        <v>13</v>
-      </c>
-      <c r="JV3">
-        <v>0.4851796380279316</v>
-      </c>
-      <c r="JW3">
-        <v>12</v>
-      </c>
-      <c r="JX3">
-        <v>0.1244371083032463</v>
-      </c>
-      <c r="JY3">
-        <v>-0.2063204975833681</v>
-      </c>
-      <c r="JZ3">
-        <v>5</v>
-      </c>
-      <c r="KA3">
-        <v>1.43563568044139</v>
-      </c>
-      <c r="KB3">
-        <v>0</v>
-      </c>
-      <c r="KC3">
-        <v>0.150652045212258</v>
-      </c>
-      <c r="KD3">
-        <v>1</v>
-      </c>
-      <c r="KE3">
-        <v>1.25</v>
-      </c>
-      <c r="KF3">
-        <v>9</v>
-      </c>
-      <c r="KG3">
-        <v>1.068792784365375</v>
-      </c>
-      <c r="KH3">
-        <v>25</v>
-      </c>
-      <c r="KI3">
-        <v>26</v>
-      </c>
-      <c r="KJ3">
-        <v>12.5</v>
-      </c>
-      <c r="KK3">
-        <v>7.288689868556625</v>
-      </c>
-      <c r="KL3">
-        <v>13.5</v>
-      </c>
-      <c r="KM3">
-        <v>7.288689868556625</v>
-      </c>
-      <c r="KN3">
-        <v>9</v>
-      </c>
-      <c r="KO3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="KP3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="KQ3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="KR3">
-        <v>0</v>
-      </c>
-      <c r="KS3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="KT3">
-        <v>1</v>
-      </c>
-      <c r="KU3">
-        <v>0.6166666666666667</v>
-      </c>
-      <c r="KV3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="KW3">
-        <v>1</v>
-      </c>
-      <c r="KX3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="KY3">
-        <v>0</v>
-      </c>
-      <c r="KZ3">
-        <v>0.3833333333333334</v>
-      </c>
-      <c r="LA3">
-        <v>-0.1856953381770529</v>
-      </c>
-      <c r="LB3">
-        <v>7</v>
-      </c>
-      <c r="LC3">
-        <v>0.8218723795276894</v>
-      </c>
-      <c r="LD3">
-        <v>0</v>
-      </c>
-      <c r="LE3">
-        <v>0.2956155024518182</v>
-      </c>
-      <c r="LF3">
-        <v>-0.139630541538871</v>
-      </c>
-      <c r="LG3">
-        <v>7</v>
-      </c>
-      <c r="LH3">
-        <v>2.483237495267581</v>
-      </c>
-      <c r="LI3">
-        <v>0</v>
-      </c>
-      <c r="LJ3">
-        <v>0.7509635175899247</v>
-      </c>
-      <c r="LK3">
-        <v>2.5</v>
-      </c>
-      <c r="LL3">
-        <v>2</v>
-      </c>
-      <c r="LM3">
-        <v>4</v>
-      </c>
-      <c r="LN3">
-        <v>1.539823384363614</v>
-      </c>
-      <c r="LO3">
-        <v>0</v>
-      </c>
-      <c r="LP3">
-        <v>0</v>
-      </c>
-      <c r="LU3">
-        <v>0.7</v>
-      </c>
-      <c r="LV3">
-        <v>7</v>
-      </c>
-      <c r="LW3">
-        <v>9</v>
-      </c>
-      <c r="LX3">
-        <v>92</v>
-      </c>
-      <c r="LY3">
-        <v>29.85714285714286</v>
-      </c>
-      <c r="LZ3">
-        <v>27.07887195070077</v>
-      </c>
-      <c r="MA3">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="MB3">
-        <v>0</v>
-      </c>
-      <c r="MC3">
-        <v>0.8</v>
-      </c>
-      <c r="MD3">
-        <v>78</v>
-      </c>
-      <c r="ME3">
-        <v>0.5</v>
-      </c>
-      <c r="MF3">
-        <v>0.7333333333333334</v>
-      </c>
-      <c r="MG3">
-        <v>0.6262645185986148</v>
-      </c>
-      <c r="MH3">
-        <v>0.03984095364447978</v>
-      </c>
-      <c r="MI3">
-        <v>0.03984095364447982</v>
-      </c>
-      <c r="MJ3">
-        <v>0.01818278468502089</v>
-      </c>
-      <c r="MK3">
-        <v>0.2</v>
-      </c>
-      <c r="ML3">
-        <v>78</v>
-      </c>
-      <c r="MM3">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="MN3">
-        <v>0</v>
-      </c>
-      <c r="MO3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="MP3">
-        <v>0.5</v>
-      </c>
-      <c r="MQ3">
-        <v>0.3737354814013853</v>
-      </c>
-      <c r="MR3">
-        <v>0.03984095364447978</v>
-      </c>
-      <c r="MS3">
-        <v>0.03984095364447978</v>
-      </c>
-      <c r="MT3">
-        <v>0.01818278468502091</v>
-      </c>
-      <c r="MU3">
-        <v>-0.4472135954999571</v>
-      </c>
-      <c r="MV3">
-        <v>18</v>
-      </c>
-      <c r="MW3">
-        <v>1.008300211025157</v>
-      </c>
-      <c r="MX3">
-        <v>0</v>
-      </c>
-      <c r="MY3">
-        <v>-0.2276380027586381</v>
-      </c>
-      <c r="MZ3">
-        <v>0.8416926424509787</v>
-      </c>
-      <c r="NA3">
-        <v>0.1634464722407949</v>
-      </c>
-      <c r="NB3">
-        <v>0.169542405714942</v>
-      </c>
-      <c r="NC3">
-        <v>0.121943485048657</v>
-      </c>
-      <c r="ND3">
-        <v>0.1048503212332592</v>
-      </c>
-      <c r="NE3">
-        <v>-0.6274973281045035</v>
-      </c>
-      <c r="NF3">
-        <v>18</v>
-      </c>
-      <c r="NG3">
-        <v>3.979515170783908</v>
-      </c>
-      <c r="NH3">
-        <v>0</v>
-      </c>
-      <c r="NI3">
-        <v>-0.211580486281038</v>
-      </c>
-      <c r="NJ3">
-        <v>2.881399137649348</v>
-      </c>
-      <c r="NK3">
-        <v>0.3802735077415532</v>
-      </c>
-      <c r="NL3">
-        <v>1</v>
-      </c>
-      <c r="NM3">
-        <v>2.5</v>
-      </c>
-      <c r="NN3">
-        <v>1.547619047619047</v>
-      </c>
-      <c r="NO3">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="NP3">
-        <v>2</v>
-      </c>
-      <c r="NQ3">
-        <v>1.551530612244898</v>
-      </c>
-      <c r="NR3">
-        <v>1.066574036001902</v>
-      </c>
-      <c r="NS3">
-        <v>1.539823384363614</v>
-      </c>
-      <c r="NT3">
-        <v>1.296254851644574</v>
-      </c>
-      <c r="NU3">
-        <v>12</v>
-      </c>
-      <c r="NV3">
-        <v>54</v>
-      </c>
-      <c r="NW3">
-        <v>30.66666666666667</v>
-      </c>
-      <c r="NX3">
-        <v>17.46106780494506</v>
-      </c>
-      <c r="NY3">
-        <v>12.01606885157712</v>
-      </c>
-      <c r="NZ3">
-        <v>0.593028620630157</v>
-      </c>
-      <c r="OA3">
-        <v>12.55350613666823</v>
+      <c r="RH3">
+        <v>23</v>
+      </c>
+      <c r="RI3">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="RJ3">
+        <v>4.642796092394707</v>
+      </c>
+      <c r="RK3">
+        <v>12.56508030928504</v>
+      </c>
+      <c r="RL3">
+        <v>0.1669771511528002</v>
+      </c>
+      <c r="RM3">
+        <v>12.7751260120747</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C1:AI1"/>
-    <mergeCell ref="AJ1:BP1"/>
-    <mergeCell ref="BQ1:CW1"/>
-    <mergeCell ref="CX1:ED1"/>
-    <mergeCell ref="EE1:FK1"/>
-    <mergeCell ref="FL1:GR1"/>
-    <mergeCell ref="GS1:HY1"/>
-    <mergeCell ref="HZ1:JF1"/>
-    <mergeCell ref="JG1:KM1"/>
-    <mergeCell ref="KN1:LT1"/>
-    <mergeCell ref="LU1:OA1"/>
+    <mergeCell ref="C1:AR1"/>
+    <mergeCell ref="AS1:CH1"/>
+    <mergeCell ref="CI1:DX1"/>
+    <mergeCell ref="DY1:FN1"/>
+    <mergeCell ref="FO1:HD1"/>
+    <mergeCell ref="HE1:IT1"/>
+    <mergeCell ref="IU1:KJ1"/>
+    <mergeCell ref="KK1:LZ1"/>
+    <mergeCell ref="MA1:NP1"/>
+    <mergeCell ref="NQ1:PF1"/>
+    <mergeCell ref="PG1:RV1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>

--- a/out_test/tables/Fexp0.25/Fexp0.25_30.xlsx
+++ b/out_test/tables/Fexp0.25/Fexp0.25_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="128">
   <si>
     <t>RWS</t>
   </si>
@@ -329,6 +329,66 @@
   </si>
   <si>
     <t>nonMax_F_found</t>
+  </si>
+  <si>
+    <t>Min_I_start</t>
+  </si>
+  <si>
+    <t>Max_I_start</t>
+  </si>
+  <si>
+    <t>Avg_I_start</t>
+  </si>
+  <si>
+    <t>Sigma_I_start</t>
+  </si>
+  <si>
+    <t>Min_GR_start</t>
+  </si>
+  <si>
+    <t>Max_GR_start</t>
+  </si>
+  <si>
+    <t>Avg_GR_start</t>
+  </si>
+  <si>
+    <t>Sigma_GR_start</t>
+  </si>
+  <si>
+    <t>Min_Pr_min</t>
+  </si>
+  <si>
+    <t>Max_Pr_max</t>
+  </si>
+  <si>
+    <t>Avg_Pr_min</t>
+  </si>
+  <si>
+    <t>Avg_Pr_max</t>
+  </si>
+  <si>
+    <t>Avg_Pr_avg</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_min</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_max</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_avg</t>
+  </si>
+  <si>
+    <t>Min_Pr_start</t>
+  </si>
+  <si>
+    <t>Max_Pr_start</t>
+  </si>
+  <si>
+    <t>Avg_Pr_start</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_start</t>
   </si>
   <si>
     <t>Aggregated</t>
@@ -701,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:RV3"/>
+  <dimension ref="A1:SR3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -712,12 +772,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:490">
+    <row r="1" spans="1:512">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
@@ -1160,7 +1220,7 @@
       <c r="PE1" s="1"/>
       <c r="PF1" s="1"/>
       <c r="PG1" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="PH1" s="1"/>
       <c r="PI1" s="1"/>
@@ -1229,8 +1289,30 @@
       <c r="RT1" s="1"/>
       <c r="RU1" s="1"/>
       <c r="RV1" s="1"/>
+      <c r="RW1" s="1"/>
+      <c r="RX1" s="1"/>
+      <c r="RY1" s="1"/>
+      <c r="RZ1" s="1"/>
+      <c r="SA1" s="1"/>
+      <c r="SB1" s="1"/>
+      <c r="SC1" s="1"/>
+      <c r="SD1" s="1"/>
+      <c r="SE1" s="1"/>
+      <c r="SF1" s="1"/>
+      <c r="SG1" s="1"/>
+      <c r="SH1" s="1"/>
+      <c r="SI1" s="1"/>
+      <c r="SJ1" s="1"/>
+      <c r="SK1" s="1"/>
+      <c r="SL1" s="1"/>
+      <c r="SM1" s="1"/>
+      <c r="SN1" s="1"/>
+      <c r="SO1" s="1"/>
+      <c r="SP1" s="1"/>
+      <c r="SQ1" s="1"/>
+      <c r="SR1" s="1"/>
     </row>
-    <row r="2" spans="1:490">
+    <row r="2" spans="1:512">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -2697,8 +2779,74 @@
       <c r="RV2" t="s">
         <v>43</v>
       </c>
+      <c r="RW2" t="s">
+        <v>105</v>
+      </c>
+      <c r="RX2" t="s">
+        <v>106</v>
+      </c>
+      <c r="RY2" t="s">
+        <v>107</v>
+      </c>
+      <c r="RZ2" t="s">
+        <v>108</v>
+      </c>
+      <c r="SA2" t="s">
+        <v>109</v>
+      </c>
+      <c r="SB2" t="s">
+        <v>110</v>
+      </c>
+      <c r="SC2" t="s">
+        <v>111</v>
+      </c>
+      <c r="SD2" t="s">
+        <v>112</v>
+      </c>
+      <c r="SE2" t="s">
+        <v>113</v>
+      </c>
+      <c r="SF2" t="s">
+        <v>39</v>
+      </c>
+      <c r="SG2" t="s">
+        <v>114</v>
+      </c>
+      <c r="SH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="SI2" t="s">
+        <v>115</v>
+      </c>
+      <c r="SJ2" t="s">
+        <v>116</v>
+      </c>
+      <c r="SK2" t="s">
+        <v>117</v>
+      </c>
+      <c r="SL2" t="s">
+        <v>118</v>
+      </c>
+      <c r="SM2" t="s">
+        <v>119</v>
+      </c>
+      <c r="SN2" t="s">
+        <v>120</v>
+      </c>
+      <c r="SO2" t="s">
+        <v>121</v>
+      </c>
+      <c r="SP2" t="s">
+        <v>122</v>
+      </c>
+      <c r="SQ2" t="s">
+        <v>123</v>
+      </c>
+      <c r="SR2" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="3" spans="1:490">
+    <row r="3" spans="1:512">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2706,133 +2854,121 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>12.36660877911219</v>
+        <v>12.90351816301735</v>
       </c>
       <c r="E3">
-        <v>12.36660877911219</v>
+        <v>12.90351816301735</v>
       </c>
       <c r="F3">
         <v>0.5333333333333333</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>0.7333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>0.6303030303030304</v>
+        <v>0.6305555555555554</v>
       </c>
       <c r="K3">
-        <v>0.2666666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M3">
         <v>0.4666666666666667</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>0.3696969696969697</v>
+        <v>0.3694444444444447</v>
       </c>
       <c r="P3">
-        <v>-0.3713906763541042</v>
+        <v>-0.267261241912421</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="R3">
-        <v>0.6690660544846525</v>
+        <v>0.7170422111804655</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.1576049680943686</v>
+        <v>0.06758335262348716</v>
       </c>
       <c r="U3">
-        <v>-0.2961190440841808</v>
+        <v>-0.2546775447511482</v>
       </c>
       <c r="V3">
         <v>9</v>
       </c>
       <c r="W3">
-        <v>2.708374816117836</v>
+        <v>2.358808035975446</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.5526882912124301</v>
+        <v>0.1794071245562076</v>
       </c>
       <c r="Z3">
+        <v>3</v>
+      </c>
+      <c r="AA3">
+        <v>1.25</v>
+      </c>
+      <c r="AB3">
+        <v>5</v>
+      </c>
+      <c r="AC3">
+        <v>1.138998429050926</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0.5481490035009846</v>
+      </c>
+      <c r="AK3">
         <v>2</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>7</v>
-      </c>
-      <c r="AC3">
-        <v>1.053291674268686</v>
-      </c>
-      <c r="AD3">
-        <v>11</v>
-      </c>
-      <c r="AE3">
-        <v>6</v>
-      </c>
-      <c r="AF3">
-        <v>8.5</v>
-      </c>
-      <c r="AG3">
-        <v>1.513825177048746</v>
-      </c>
-      <c r="AH3">
-        <v>3.5</v>
-      </c>
-      <c r="AI3">
-        <v>1.513825177048746</v>
-      </c>
-      <c r="AJ3">
-        <v>0.6214168059074189</v>
-      </c>
-      <c r="AK3">
-        <v>3</v>
-      </c>
       <c r="AL3">
-        <v>2.052400356685603</v>
+        <v>2.002140434615466</v>
       </c>
       <c r="AM3">
-        <v>1.01211760241965</v>
+        <v>1.011529472392093</v>
       </c>
       <c r="AN3">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="AO3">
-        <v>3.157941449218308</v>
+        <v>3.157941449218307</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.204526747333635</v>
+        <v>1.09053314615846</v>
       </c>
       <c r="AR3">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="AS3">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AT3">
         <v>12.90351816301735</v>
@@ -2844,73 +2980,73 @@
         <v>0.5</v>
       </c>
       <c r="AW3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AX3">
         <v>0.7</v>
       </c>
       <c r="AY3">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AZ3">
-        <v>0.6172839506172839</v>
+        <v>0.6227272727272726</v>
       </c>
       <c r="BA3">
         <v>0.3</v>
       </c>
       <c r="BB3">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BC3">
         <v>0.5</v>
       </c>
       <c r="BD3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BE3">
-        <v>0.3827160493827161</v>
+        <v>0.3772727272727272</v>
       </c>
       <c r="BF3">
-        <v>-0.2941742027072742</v>
+        <v>-0.1414909112541375</v>
       </c>
       <c r="BG3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BH3">
-        <v>0.4898558795425984</v>
+        <v>0.5048242715248165</v>
       </c>
       <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0.1437295825462408</v>
+      </c>
+      <c r="BK3">
+        <v>-0.1295267821924018</v>
+      </c>
+      <c r="BL3">
+        <v>9</v>
+      </c>
+      <c r="BM3">
+        <v>1.700655346769291</v>
+      </c>
+      <c r="BN3">
+        <v>1</v>
+      </c>
+      <c r="BO3">
+        <v>0.2711243081085173</v>
+      </c>
+      <c r="BP3">
         <v>2</v>
       </c>
-      <c r="BJ3">
-        <v>0.128320021321605</v>
-      </c>
-      <c r="BK3">
-        <v>-0.1907303226963357</v>
-      </c>
-      <c r="BL3">
-        <v>11</v>
-      </c>
-      <c r="BM3">
-        <v>1.521155049304564</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0.2273022494338981</v>
-      </c>
-      <c r="BP3">
-        <v>1</v>
-      </c>
       <c r="BQ3">
-        <v>1.153846153846154</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="BR3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BS3">
-        <v>1.166934231897867</v>
+        <v>1.191432533042649</v>
       </c>
       <c r="BT3">
         <v>0</v>
@@ -2919,259 +3055,271 @@
         <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.3939875787836551</v>
+        <v>0.4859499420463346</v>
       </c>
       <c r="CA3">
         <v>2</v>
       </c>
       <c r="CB3">
-        <v>1.907011017337768</v>
+        <v>1.859622566053843</v>
       </c>
       <c r="CC3">
         <v>1.003709022285535</v>
       </c>
       <c r="CD3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="CE3">
-        <v>2.460061067364092</v>
+        <v>2.460061067364093</v>
       </c>
       <c r="CF3">
         <v>0</v>
       </c>
       <c r="CG3">
-        <v>1.118160526838879</v>
+        <v>1.135888301832436</v>
       </c>
       <c r="CH3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="CI3">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="CJ3">
-        <v>12.55350613666823</v>
+        <v>12.49089526360681</v>
       </c>
       <c r="CK3">
-        <v>12.55350613666822</v>
+        <v>12.49089526360681</v>
       </c>
       <c r="CL3">
-        <v>0.4333333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="CM3">
         <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.7666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="CO3">
+        <v>10</v>
+      </c>
+      <c r="CP3">
+        <v>0.6138888888888888</v>
+      </c>
+      <c r="CQ3">
+        <v>0.3</v>
+      </c>
+      <c r="CR3">
+        <v>10</v>
+      </c>
+      <c r="CS3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0.3861111111111111</v>
+      </c>
+      <c r="CV3">
+        <v>-0.09405959950223748</v>
+      </c>
+      <c r="CW3">
+        <v>4</v>
+      </c>
+      <c r="CX3">
+        <v>0.6511841064773247</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0.1313022641322661</v>
+      </c>
+      <c r="DA3">
+        <v>-0.1059767397682894</v>
+      </c>
+      <c r="DB3">
+        <v>4</v>
+      </c>
+      <c r="DC3">
+        <v>2.437154590852901</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0.3020253808240003</v>
+      </c>
+      <c r="DF3">
+        <v>1</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>8</v>
+      </c>
+      <c r="DI3">
+        <v>0.8576594345825115</v>
+      </c>
+      <c r="DJ3">
+        <v>12</v>
+      </c>
+      <c r="DK3">
+        <v>9</v>
+      </c>
+      <c r="DL3">
+        <v>8</v>
+      </c>
+      <c r="DM3">
+        <v>2.380476142847617</v>
+      </c>
+      <c r="DN3">
+        <v>5</v>
+      </c>
+      <c r="DO3">
+        <v>2.380476142847617</v>
+      </c>
+      <c r="DP3">
+        <v>0.3349786194284026</v>
+      </c>
+      <c r="DQ3">
+        <v>2</v>
+      </c>
+      <c r="DR3">
+        <v>1.455296472877489</v>
+      </c>
+      <c r="DS3">
+        <v>1.036563248246489</v>
+      </c>
+      <c r="DT3">
+        <v>12</v>
+      </c>
+      <c r="DU3">
+        <v>2.006943992687887</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>1.113583122605458</v>
+      </c>
+      <c r="DX3">
+        <v>12</v>
+      </c>
+      <c r="DY3">
+        <v>22</v>
+      </c>
+      <c r="DZ3">
+        <v>12.58492916442845</v>
+      </c>
+      <c r="EA3">
+        <v>12.58492916442845</v>
+      </c>
+      <c r="EB3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="EC3">
+        <v>21</v>
+      </c>
+      <c r="ED3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="EE3">
+        <v>2</v>
+      </c>
+      <c r="EF3">
+        <v>0.6317460317460315</v>
+      </c>
+      <c r="EG3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="EH3">
+        <v>2</v>
+      </c>
+      <c r="EI3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="EJ3">
+        <v>21</v>
+      </c>
+      <c r="EK3">
+        <v>0.3682539682539683</v>
+      </c>
+      <c r="EL3">
+        <v>-0.2499587996279201</v>
+      </c>
+      <c r="EM3">
+        <v>12</v>
+      </c>
+      <c r="EN3">
+        <v>0.8662608080155233</v>
+      </c>
+      <c r="EO3">
+        <v>0</v>
+      </c>
+      <c r="EP3">
+        <v>0.08712076844680479</v>
+      </c>
+      <c r="EQ3">
+        <v>-0.2168177320741709</v>
+      </c>
+      <c r="ER3">
+        <v>4</v>
+      </c>
+      <c r="ES3">
+        <v>3.109471582723399</v>
+      </c>
+      <c r="ET3">
+        <v>0</v>
+      </c>
+      <c r="EU3">
+        <v>0.1927732006515789</v>
+      </c>
+      <c r="EV3">
+        <v>1</v>
+      </c>
+      <c r="EW3">
+        <v>1.307692307692308</v>
+      </c>
+      <c r="EX3">
         <v>7</v>
       </c>
-      <c r="CP3">
-        <v>0.6348484848484848</v>
-      </c>
-      <c r="CQ3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="CR3">
-        <v>7</v>
-      </c>
-      <c r="CS3">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="CT3">
-        <v>0</v>
-      </c>
-      <c r="CU3">
-        <v>0.3651515151515152</v>
-      </c>
-      <c r="CV3">
-        <v>-0.2182178902358995</v>
-      </c>
-      <c r="CW3">
-        <v>13</v>
-      </c>
-      <c r="CX3">
-        <v>0.7038503390452959</v>
-      </c>
-      <c r="CY3">
-        <v>1</v>
-      </c>
-      <c r="CZ3">
-        <v>0.1361474578413485</v>
-      </c>
-      <c r="DA3">
-        <v>-0.1305129038116615</v>
-      </c>
-      <c r="DB3">
-        <v>7</v>
-      </c>
-      <c r="DC3">
-        <v>2.212324434031121</v>
-      </c>
-      <c r="DD3">
-        <v>0</v>
-      </c>
-      <c r="DE3">
-        <v>0.1778066181714181</v>
-      </c>
-      <c r="DF3">
-        <v>2.6</v>
-      </c>
-      <c r="DG3">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="DH3">
-        <v>5</v>
-      </c>
-      <c r="DI3">
-        <v>1.070477881015302</v>
-      </c>
-      <c r="DJ3">
+      <c r="EY3">
+        <v>1.092999670638592</v>
+      </c>
+      <c r="EZ3">
+        <v>21</v>
+      </c>
+      <c r="FA3">
         <v>22</v>
       </c>
-      <c r="DK3">
-        <v>23</v>
-      </c>
-      <c r="DL3">
-        <v>11</v>
-      </c>
-      <c r="DM3">
-        <v>6.422616289332564</v>
-      </c>
-      <c r="DN3">
-        <v>12</v>
-      </c>
-      <c r="DO3">
-        <v>6.422616289332564</v>
-      </c>
-      <c r="DP3">
-        <v>0.7038503390452959</v>
-      </c>
-      <c r="DQ3">
-        <v>0</v>
-      </c>
-      <c r="DR3">
-        <v>1.452656097454858</v>
-      </c>
-      <c r="DS3">
-        <v>1.0003326119811</v>
-      </c>
-      <c r="DT3">
+      <c r="FB3">
+        <v>10.5</v>
+      </c>
+      <c r="FC3">
+        <v>6.133922073192648</v>
+      </c>
+      <c r="FD3">
+        <v>11.5</v>
+      </c>
+      <c r="FE3">
+        <v>6.133922073192648</v>
+      </c>
+      <c r="FF3">
+        <v>0.6696638060401389</v>
+      </c>
+      <c r="FG3">
+        <v>0</v>
+      </c>
+      <c r="FH3">
+        <v>1.474216152701835</v>
+      </c>
+      <c r="FI3">
+        <v>1.005771034723143</v>
+      </c>
+      <c r="FJ3">
         <v>21</v>
-      </c>
-      <c r="DU3">
-        <v>2.006943992687888</v>
-      </c>
-      <c r="DV3">
-        <v>0</v>
-      </c>
-      <c r="DW3">
-        <v>1.050361405992373</v>
-      </c>
-      <c r="DX3">
-        <v>22</v>
-      </c>
-      <c r="DY3">
-        <v>23</v>
-      </c>
-      <c r="DZ3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="EA3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="EB3">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="EC3">
-        <v>7</v>
-      </c>
-      <c r="ED3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="EE3">
-        <v>17</v>
-      </c>
-      <c r="EF3">
-        <v>0.646969696969697</v>
-      </c>
-      <c r="EG3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="EH3">
-        <v>17</v>
-      </c>
-      <c r="EI3">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="EJ3">
-        <v>7</v>
-      </c>
-      <c r="EK3">
-        <v>0.353030303030303</v>
-      </c>
-      <c r="EL3">
-        <v>-0.555555555555537</v>
-      </c>
-      <c r="EM3">
-        <v>18</v>
-      </c>
-      <c r="EN3">
-        <v>0.6546511733534444</v>
-      </c>
-      <c r="EO3">
-        <v>0</v>
-      </c>
-      <c r="EP3">
-        <v>0.1082829279957458</v>
-      </c>
-      <c r="EQ3">
-        <v>-0.1308425900577479</v>
-      </c>
-      <c r="ER3">
-        <v>11</v>
-      </c>
-      <c r="ES3">
-        <v>2.349891858552819</v>
-      </c>
-      <c r="ET3">
-        <v>0</v>
-      </c>
-      <c r="EU3">
-        <v>0.2330184516564834</v>
-      </c>
-      <c r="EV3">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="EW3">
-        <v>1.384615384615385</v>
-      </c>
-      <c r="EX3">
-        <v>8</v>
-      </c>
-      <c r="EY3">
-        <v>1.215792099913906</v>
-      </c>
-      <c r="EZ3">
-        <v>0</v>
-      </c>
-      <c r="FA3">
-        <v>0</v>
-      </c>
-      <c r="FF3">
-        <v>0.5339114282944769</v>
-      </c>
-      <c r="FG3">
-        <v>3</v>
-      </c>
-      <c r="FH3">
-        <v>1.659165740070653</v>
-      </c>
-      <c r="FI3">
-        <v>1.000823680824123</v>
-      </c>
-      <c r="FJ3">
-        <v>22</v>
       </c>
       <c r="FK3">
         <v>2.377555597161133</v>
@@ -3180,139 +3328,127 @@
         <v>0</v>
       </c>
       <c r="FM3">
-        <v>1.066138735392796</v>
+        <v>1.073653796352936</v>
       </c>
       <c r="FN3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="FO3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="FP3">
-        <v>12.7751260120747</v>
+        <v>12.90351816301735</v>
       </c>
       <c r="FQ3">
-        <v>12.77512601207469</v>
+        <v>12.90351816301735</v>
       </c>
       <c r="FR3">
-        <v>0.4333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="FS3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.7333333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="FU3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="FV3">
-        <v>0.6070175438596488</v>
+        <v>0.648148148148148</v>
       </c>
       <c r="FW3">
-        <v>0.2666666666666667</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="FX3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="FY3">
-        <v>0.5666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="FZ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.3929824561403508</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="GB3">
-        <v>-0.2075143391598271</v>
+        <v>-0.1856953381770527</v>
       </c>
       <c r="GC3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="GD3">
-        <v>0.9512857200540384</v>
+        <v>0.8128779436299408</v>
       </c>
       <c r="GE3">
         <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.1198205421412821</v>
+        <v>0.1144380910593315</v>
       </c>
       <c r="GG3">
-        <v>-0.04701959515642962</v>
+        <v>-0.09261984147580193</v>
       </c>
       <c r="GH3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="GI3">
-        <v>3.75449287157859</v>
+        <v>3.208231113412181</v>
       </c>
       <c r="GJ3">
         <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.2364002283158352</v>
+        <v>0.2870143470616631</v>
       </c>
       <c r="GL3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GM3">
-        <v>1.6</v>
+        <v>1.153846153846154</v>
       </c>
       <c r="GN3">
+        <v>5</v>
+      </c>
+      <c r="GO3">
+        <v>1.283526681810434</v>
+      </c>
+      <c r="GP3">
+        <v>0</v>
+      </c>
+      <c r="GQ3">
+        <v>0</v>
+      </c>
+      <c r="GV3">
+        <v>0.4332028623569917</v>
+      </c>
+      <c r="GW3">
         <v>3</v>
       </c>
-      <c r="GO3">
-        <v>1.016368838634706</v>
-      </c>
-      <c r="GP3">
-        <v>19</v>
-      </c>
-      <c r="GQ3">
-        <v>19</v>
-      </c>
-      <c r="GR3">
-        <v>10</v>
-      </c>
-      <c r="GS3">
-        <v>5.267826876426369</v>
-      </c>
-      <c r="GT3">
-        <v>10</v>
-      </c>
-      <c r="GU3">
-        <v>5.267826876426369</v>
-      </c>
-      <c r="GV3">
-        <v>0.4630113562346209</v>
-      </c>
-      <c r="GW3">
-        <v>1</v>
-      </c>
       <c r="GX3">
-        <v>1.557733373645103</v>
+        <v>1.667711606338618</v>
       </c>
       <c r="GY3">
-        <v>1.001228359759179</v>
+        <v>1.007229769462776</v>
       </c>
       <c r="GZ3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="HA3">
-        <v>2.849069574454518</v>
+        <v>2.849069574454519</v>
       </c>
       <c r="HB3">
         <v>0</v>
       </c>
       <c r="HC3">
-        <v>1.070922311656715</v>
+        <v>1.109078967993407</v>
       </c>
       <c r="HD3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="HE3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="HF3">
         <v>12.90351816301735</v>
@@ -3321,76 +3457,76 @@
         <v>12.90351816301735</v>
       </c>
       <c r="HH3">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="HI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.7333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="HK3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="HL3">
-        <v>0.6166666666666665</v>
+        <v>0.6039215686274509</v>
       </c>
       <c r="HM3">
-        <v>0.2666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="HN3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="HO3">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="HP3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.3833333333333333</v>
+        <v>0.3960784313725491</v>
       </c>
       <c r="HR3">
-        <v>-0.01288951999367185</v>
+        <v>-0.2121320343559605</v>
       </c>
       <c r="HS3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="HT3">
-        <v>0.9432694529837607</v>
+        <v>0.890174443055205</v>
       </c>
       <c r="HU3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.2565742240386574</v>
+        <v>0.1897318478595769</v>
       </c>
       <c r="HW3">
-        <v>-0.01200985272913613</v>
+        <v>-0.2179348940969881</v>
       </c>
       <c r="HX3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="HY3">
-        <v>3.046615286516645</v>
+        <v>2.992964968295211</v>
       </c>
       <c r="HZ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.4797939870004231</v>
+        <v>0.4062227846420048</v>
       </c>
       <c r="IB3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="IC3">
-        <v>1.071428571428571</v>
+        <v>1.461538461538461</v>
       </c>
       <c r="ID3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="IE3">
-        <v>1.412061368583108</v>
+        <v>1.385570700114236</v>
       </c>
       <c r="IF3">
         <v>0</v>
@@ -3399,19 +3535,19 @@
         <v>0</v>
       </c>
       <c r="IL3">
-        <v>0.737729412635037</v>
+        <v>0.890174443055205</v>
       </c>
       <c r="IM3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>1.805700481945362</v>
+        <v>2.151400011344555</v>
       </c>
       <c r="IO3">
-        <v>1.022373415084256</v>
+        <v>1.005661731947325</v>
       </c>
       <c r="IP3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="IQ3">
         <v>3.147679356177842</v>
@@ -3420,112 +3556,124 @@
         <v>0</v>
       </c>
       <c r="IS3">
-        <v>1.19163737863666</v>
+        <v>1.16393685841446</v>
       </c>
       <c r="IT3">
+        <v>17</v>
+      </c>
+      <c r="IU3">
+        <v>13</v>
+      </c>
+      <c r="IV3">
+        <v>11.73411017686721</v>
+      </c>
+      <c r="IW3">
+        <v>11.73411017686721</v>
+      </c>
+      <c r="IX3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="IY3">
+        <v>3</v>
+      </c>
+      <c r="IZ3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="JA3">
+        <v>7</v>
+      </c>
+      <c r="JB3">
+        <v>0.6166666666666665</v>
+      </c>
+      <c r="JC3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="JD3">
+        <v>7</v>
+      </c>
+      <c r="JE3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="JF3">
+        <v>3</v>
+      </c>
+      <c r="JG3">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="JH3">
+        <v>-0.2672612419124219</v>
+      </c>
+      <c r="JI3">
         <v>12</v>
       </c>
-      <c r="IU3">
-        <v>51</v>
-      </c>
-      <c r="IV3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="IW3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="IX3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="IY3">
-        <v>22</v>
-      </c>
-      <c r="IZ3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="JA3">
-        <v>18</v>
-      </c>
-      <c r="JB3">
-        <v>0.6426666666666666</v>
-      </c>
-      <c r="JC3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="JD3">
-        <v>18</v>
-      </c>
-      <c r="JE3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="JF3">
-        <v>22</v>
-      </c>
-      <c r="JG3">
-        <v>0.3573333333333334</v>
-      </c>
-      <c r="JH3">
-        <v>-0.4574995717726709</v>
-      </c>
-      <c r="JI3">
-        <v>21</v>
-      </c>
       <c r="JJ3">
-        <v>1.044730758145375</v>
+        <v>0.4048351579590722</v>
       </c>
       <c r="JK3">
         <v>0</v>
       </c>
       <c r="JL3">
-        <v>0.05086470828328427</v>
+        <v>0.1118098496123583</v>
       </c>
       <c r="JM3">
-        <v>-0.2768708358379701</v>
+        <v>-0.06303738626444577</v>
       </c>
       <c r="JN3">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="JO3">
-        <v>3.987087503295393</v>
+        <v>1.626381989858775</v>
       </c>
       <c r="JP3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JQ3">
-        <v>0.07391663170714662</v>
+        <v>0.4140422586267847</v>
       </c>
       <c r="JR3">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="JS3">
-        <v>1.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="JT3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="JU3">
-        <v>1.122760574031826</v>
+        <v>0.8282051282051281</v>
       </c>
       <c r="JV3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="JW3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="JX3">
+        <v>6.5</v>
+      </c>
+      <c r="JY3">
+        <v>3.246793289796359</v>
+      </c>
+      <c r="JZ3">
+        <v>6.5</v>
+      </c>
+      <c r="KA3">
+        <v>3.246793289796359</v>
       </c>
       <c r="KB3">
-        <v>0.4478243866873858</v>
+        <v>0.3445062418192422</v>
       </c>
       <c r="KC3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="KD3">
-        <v>1.40138546791159</v>
+        <v>1.907223646307731</v>
       </c>
       <c r="KE3">
-        <v>1.000578593387889</v>
+        <v>1.06344330533122</v>
       </c>
       <c r="KF3">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="KG3">
         <v>2.471654685451551</v>
@@ -3534,112 +3682,124 @@
         <v>0</v>
       </c>
       <c r="KI3">
-        <v>1.031036926237789</v>
+        <v>1.204163756256502</v>
       </c>
       <c r="KJ3">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="KK3">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="KL3">
-        <v>12.90351816301735</v>
+        <v>10.45938854053203</v>
       </c>
       <c r="KM3">
-        <v>12.90351816301735</v>
+        <v>10.45938854053203</v>
       </c>
       <c r="KN3">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="KO3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="KP3">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="KQ3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="KR3">
-        <v>0.6045977011494252</v>
+        <v>0.6208333333333332</v>
       </c>
       <c r="KS3">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="KT3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="KU3">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="KV3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="KW3">
-        <v>0.3954022988505748</v>
+        <v>0.3791666666666667</v>
       </c>
       <c r="KX3">
-        <v>-0.6260990336999432</v>
+        <v>-0.1699591703519468</v>
       </c>
       <c r="KY3">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="KZ3">
-        <v>0.5901885125726152</v>
+        <v>0.6793690105316781</v>
       </c>
       <c r="LA3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="LB3">
-        <v>0.09208252062254157</v>
+        <v>0.2980911687221271</v>
       </c>
       <c r="LC3">
-        <v>-0.5702969119132426</v>
+        <v>-0.2345341812889998</v>
       </c>
       <c r="LD3">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="LE3">
-        <v>2.156489570209679</v>
+        <v>2.062506407324312</v>
       </c>
       <c r="LF3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="LG3">
-        <v>0.2497049503901356</v>
+        <v>0.6983228186055842</v>
       </c>
       <c r="LH3">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="LI3">
-        <v>1.545454545454545</v>
+        <v>1.461538461538461</v>
       </c>
       <c r="LJ3">
         <v>4</v>
       </c>
       <c r="LK3">
-        <v>1.177482175799135</v>
+        <v>1.21352425889631</v>
       </c>
       <c r="LL3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="LM3">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="LN3">
+        <v>4</v>
+      </c>
+      <c r="LO3">
+        <v>2.380476142847617</v>
+      </c>
+      <c r="LP3">
+        <v>5</v>
+      </c>
+      <c r="LQ3">
+        <v>2.380476142847617</v>
       </c>
       <c r="LR3">
-        <v>0.5594868109052358</v>
+        <v>0.6793690105316781</v>
       </c>
       <c r="LS3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LT3">
-        <v>2.278938210940452</v>
+        <v>2.14648162852676</v>
       </c>
       <c r="LU3">
-        <v>1.006353976576471</v>
+        <v>1.011338784911076</v>
       </c>
       <c r="LV3">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="LW3">
         <v>3.025572726566795</v>
@@ -3648,127 +3808,139 @@
         <v>0</v>
       </c>
       <c r="LY3">
-        <v>1.131109604002754</v>
+        <v>1.28898449921354</v>
       </c>
       <c r="LZ3">
+        <v>8</v>
+      </c>
+      <c r="MA3">
+        <v>59</v>
+      </c>
+      <c r="MB3">
+        <v>11.1897703575527</v>
+      </c>
+      <c r="MC3">
+        <v>11.18977035755271</v>
+      </c>
+      <c r="MD3">
+        <v>0.5</v>
+      </c>
+      <c r="ME3">
+        <v>22</v>
+      </c>
+      <c r="MF3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="MG3">
+        <v>27</v>
+      </c>
+      <c r="MH3">
+        <v>0.6327586206896553</v>
+      </c>
+      <c r="MI3">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="MJ3">
+        <v>27</v>
+      </c>
+      <c r="MK3">
+        <v>0.5</v>
+      </c>
+      <c r="ML3">
+        <v>22</v>
+      </c>
+      <c r="MM3">
+        <v>0.3672413793103449</v>
+      </c>
+      <c r="MN3">
+        <v>-0.3713906763540938</v>
+      </c>
+      <c r="MO3">
+        <v>13</v>
+      </c>
+      <c r="MP3">
+        <v>0.6933271741869995</v>
+      </c>
+      <c r="MQ3">
+        <v>0</v>
+      </c>
+      <c r="MR3">
+        <v>-0.007052362938270231</v>
+      </c>
+      <c r="MS3">
+        <v>-0.1005262152237609</v>
+      </c>
+      <c r="MT3">
         <v>29</v>
       </c>
-      <c r="MA3">
-        <v>18</v>
-      </c>
-      <c r="MB3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="MC3">
-        <v>12.90351816301735</v>
-      </c>
-      <c r="MD3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="ME3">
-        <v>9</v>
-      </c>
-      <c r="MF3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="MG3">
-        <v>16</v>
-      </c>
-      <c r="MH3">
-        <v>0.6411764705882351</v>
-      </c>
-      <c r="MI3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="MJ3">
-        <v>16</v>
-      </c>
-      <c r="MK3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="ML3">
-        <v>9</v>
-      </c>
-      <c r="MM3">
-        <v>0.3588235294117647</v>
-      </c>
-      <c r="MN3">
-        <v>-0.1233794585999857</v>
-      </c>
-      <c r="MO3">
-        <v>9</v>
-      </c>
-      <c r="MP3">
-        <v>0.5634514907749245</v>
-      </c>
-      <c r="MQ3">
-        <v>0</v>
-      </c>
-      <c r="MR3">
-        <v>0.1639166939061103</v>
-      </c>
-      <c r="MS3">
-        <v>-0.1001287417576293</v>
-      </c>
-      <c r="MT3">
-        <v>9</v>
-      </c>
       <c r="MU3">
-        <v>2.037828441759107</v>
+        <v>2.507548312738648</v>
       </c>
       <c r="MV3">
         <v>0</v>
       </c>
       <c r="MW3">
-        <v>0.2869327161443159</v>
+        <v>0.04645497410360678</v>
       </c>
       <c r="MX3">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="MY3">
-        <v>1.142857142857143</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="MZ3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="NA3">
-        <v>1.304014245282361</v>
+        <v>0.9726944051599747</v>
       </c>
       <c r="NB3">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="NC3">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="ND3">
+        <v>29.5</v>
+      </c>
+      <c r="NE3">
+        <v>16.52649388103842</v>
+      </c>
+      <c r="NF3">
+        <v>29.5</v>
+      </c>
+      <c r="NG3">
+        <v>16.52649388103842</v>
       </c>
       <c r="NH3">
-        <v>0.5422905956344098</v>
+        <v>0.3149013743596432</v>
       </c>
       <c r="NI3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="NJ3">
-        <v>1.607782408654138</v>
+        <v>1.518886187384483</v>
       </c>
       <c r="NK3">
-        <v>1.008681603000901</v>
+        <v>1.001707767462351</v>
       </c>
       <c r="NL3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="NM3">
-        <v>2.154956055834704</v>
+        <v>2.154956055834705</v>
       </c>
       <c r="NN3">
         <v>0</v>
       </c>
       <c r="NO3">
-        <v>1.092885837702502</v>
+        <v>1.050067189181182</v>
       </c>
       <c r="NP3">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="NQ3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="NR3">
         <v>12.90351816301735</v>
@@ -3777,97 +3949,97 @@
         <v>12.90351816301735</v>
       </c>
       <c r="NT3">
-        <v>0.4333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="NU3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="NV3">
-        <v>0.8333333333333334</v>
+        <v>0.7</v>
       </c>
       <c r="NW3">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="NX3">
-        <v>0.6614035087719298</v>
+        <v>0.6119047619047617</v>
       </c>
       <c r="NY3">
-        <v>0.1666666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="NZ3">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="OA3">
-        <v>0.5666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="OB3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="OC3">
-        <v>0.3385964912280703</v>
+        <v>0.3880952380952381</v>
       </c>
       <c r="OD3">
-        <v>-0.2169599150619237</v>
+        <v>-0.1856953381770505</v>
       </c>
       <c r="OE3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="OF3">
-        <v>1.039692623214912</v>
+        <v>0.8757708423393614</v>
       </c>
       <c r="OG3">
         <v>0</v>
       </c>
       <c r="OH3">
-        <v>0.106081374126761</v>
+        <v>0.1898076244604817</v>
       </c>
       <c r="OI3">
-        <v>-0.5827034033488996</v>
+        <v>-0.139630541538871</v>
       </c>
       <c r="OJ3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="OK3">
-        <v>3.141368136746582</v>
+        <v>2.646088428241074</v>
       </c>
       <c r="OL3">
         <v>0</v>
       </c>
       <c r="OM3">
-        <v>0.2815567104863367</v>
+        <v>0.4174898005532789</v>
       </c>
       <c r="ON3">
+        <v>1.5</v>
+      </c>
+      <c r="OO3">
+        <v>1.384615384615385</v>
+      </c>
+      <c r="OP3">
+        <v>7</v>
+      </c>
+      <c r="OQ3">
+        <v>1.284876243732342</v>
+      </c>
+      <c r="OR3">
+        <v>0</v>
+      </c>
+      <c r="OS3">
+        <v>0</v>
+      </c>
+      <c r="OX3">
+        <v>0.3619091171975141</v>
+      </c>
+      <c r="OY3">
         <v>2</v>
       </c>
-      <c r="OO3">
-        <v>1.727272727272727</v>
-      </c>
-      <c r="OP3">
-        <v>6</v>
-      </c>
-      <c r="OQ3">
-        <v>1.317554460176511</v>
-      </c>
-      <c r="OR3">
-        <v>0</v>
-      </c>
-      <c r="OS3">
-        <v>0</v>
-      </c>
-      <c r="OX3">
-        <v>0.6183089868081619</v>
-      </c>
-      <c r="OY3">
-        <v>5</v>
-      </c>
       <c r="OZ3">
-        <v>1.708183680193964</v>
+        <v>1.828040508643632</v>
       </c>
       <c r="PA3">
         <v>1.010939499444034</v>
       </c>
       <c r="PB3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="PC3">
         <v>2.924261999995121</v>
@@ -3876,187 +4048,259 @@
         <v>0</v>
       </c>
       <c r="PE3">
-        <v>1.127317978825843</v>
+        <v>1.232013722947406</v>
       </c>
       <c r="PF3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="PG3">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="PH3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="PI3">
+        <v>15</v>
+      </c>
+      <c r="PJ3">
+        <v>37</v>
+      </c>
+      <c r="PK3">
+        <v>22.4</v>
+      </c>
+      <c r="PL3">
+        <v>7.735631842325487</v>
+      </c>
+      <c r="PM3">
+        <v>0.5</v>
+      </c>
+      <c r="PN3">
+        <v>12</v>
+      </c>
+      <c r="PO3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="PP3">
         <v>13</v>
       </c>
-      <c r="PJ3">
-        <v>51</v>
-      </c>
-      <c r="PK3">
-        <v>26.14285714285714</v>
-      </c>
-      <c r="PL3">
-        <v>11.48201788423435</v>
-      </c>
-      <c r="PM3">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="PN3">
-        <v>0</v>
-      </c>
-      <c r="PO3">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="PP3">
-        <v>18</v>
-      </c>
       <c r="PQ3">
+        <v>0.5133333333333333</v>
+      </c>
+      <c r="PR3">
+        <v>0.7066666666666667</v>
+      </c>
+      <c r="PS3">
+        <v>0.6234514613926377</v>
+      </c>
+      <c r="PT3">
+        <v>0.01632993161855452</v>
+      </c>
+      <c r="PU3">
+        <v>0.03265986323710907</v>
+      </c>
+      <c r="PV3">
+        <v>0.01533402700063785</v>
+      </c>
+      <c r="PW3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="PX3">
+        <v>13</v>
+      </c>
+      <c r="PY3">
         <v>0.5</v>
       </c>
-      <c r="PR3">
-        <v>0.7476190476190476</v>
-      </c>
-      <c r="PS3">
-        <v>0.6329663802042721</v>
-      </c>
-      <c r="PT3">
-        <v>0.03984095364447978</v>
-      </c>
-      <c r="PU3">
-        <v>0.04312088161017821</v>
-      </c>
-      <c r="PV3">
-        <v>0.01883259148257703</v>
-      </c>
-      <c r="PW3">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="PX3">
-        <v>18</v>
-      </c>
-      <c r="PY3">
-        <v>0.5666666666666667</v>
-      </c>
       <c r="PZ3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="QA3">
-        <v>0.2523809523809524</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="QB3">
-        <v>0.5</v>
+        <v>0.4866666666666667</v>
       </c>
       <c r="QC3">
-        <v>0.3670336197957279</v>
+        <v>0.3765485386073622</v>
       </c>
       <c r="QD3">
-        <v>0.04312088161017817</v>
+        <v>0.03265986323710903</v>
       </c>
       <c r="QE3">
-        <v>0.03984095364447978</v>
+        <v>0.01632993161855452</v>
       </c>
       <c r="QF3">
-        <v>0.01883259148257703</v>
+        <v>0.01533402700063786</v>
       </c>
       <c r="QG3">
-        <v>-0.6260990336999432</v>
+        <v>-0.267261241912421</v>
       </c>
       <c r="QH3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QI3">
-        <v>1.044730758145375</v>
+        <v>0.890174443055205</v>
       </c>
       <c r="QJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QK3">
-        <v>-0.3266510367701438</v>
+        <v>-0.1984549727753245</v>
       </c>
       <c r="QL3">
-        <v>0.7608342700839471</v>
+        <v>0.7601379423459578</v>
       </c>
       <c r="QM3">
-        <v>0.1294460671849579</v>
+        <v>0.1410580997098236</v>
       </c>
       <c r="QN3">
-        <v>0.2111330763597631</v>
+        <v>0.04121137110361538</v>
       </c>
       <c r="QO3">
-        <v>0.2218190598857689</v>
+        <v>0.1414950736710502</v>
       </c>
       <c r="QP3">
-        <v>0.06084630787185441</v>
+        <v>0.04660461364040965</v>
       </c>
       <c r="QQ3">
-        <v>-0.5827034033488996</v>
+        <v>-0.2546775447511482</v>
       </c>
       <c r="QR3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="QS3">
-        <v>3.987087503295393</v>
+        <v>3.208231113412181</v>
       </c>
       <c r="QT3">
         <v>0</v>
       </c>
       <c r="QU3">
-        <v>-0.2662260940487088</v>
+        <v>-0.1668779208110422</v>
       </c>
       <c r="QV3">
-        <v>2.605776549483541</v>
+        <v>2.581349578538641</v>
       </c>
       <c r="QW3">
-        <v>0.2617465281169628</v>
+        <v>0.3122516729843343</v>
       </c>
       <c r="QX3">
+        <v>1.5</v>
+      </c>
+      <c r="QY3">
+        <v>6</v>
+      </c>
+      <c r="QZ3">
+        <v>3.1</v>
+      </c>
+      <c r="RA3">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="RB3">
+        <v>1.461538461538461</v>
+      </c>
+      <c r="RC3">
+        <v>1.278571428571428</v>
+      </c>
+      <c r="RD3">
+        <v>1.138998429050926</v>
+      </c>
+      <c r="RE3">
+        <v>1.385570700114236</v>
+      </c>
+      <c r="RF3">
+        <v>1.256880917550117</v>
+      </c>
+      <c r="RG3">
+        <v>9</v>
+      </c>
+      <c r="RH3">
+        <v>59</v>
+      </c>
+      <c r="RI3">
+        <v>23.2</v>
+      </c>
+      <c r="RJ3">
+        <v>18.4</v>
+      </c>
+      <c r="RK3">
+        <v>11.69181870059744</v>
+      </c>
+      <c r="RL3">
+        <v>0.8011110860939552</v>
+      </c>
+      <c r="RM3">
+        <v>12.58492916442845</v>
+      </c>
+      <c r="RR3">
+        <v>22</v>
+      </c>
+      <c r="RT3">
+        <v>0</v>
+      </c>
+      <c r="RW3">
+        <v>0.3619091171975141</v>
+      </c>
+      <c r="RX3">
+        <v>0.890174443055205</v>
+      </c>
+      <c r="RY3">
+        <v>0.543877073631406</v>
+      </c>
+      <c r="RZ3">
+        <v>0.1836609856438043</v>
+      </c>
+      <c r="SA3">
         <v>1</v>
       </c>
-      <c r="QY3">
-        <v>3.5</v>
-      </c>
-      <c r="QZ3">
-        <v>1.952380952380953</v>
-      </c>
-      <c r="RA3">
-        <v>1.071428571428571</v>
-      </c>
-      <c r="RB3">
-        <v>1.727272727272727</v>
-      </c>
-      <c r="RC3">
-        <v>1.309761666904524</v>
-      </c>
-      <c r="RD3">
-        <v>1.122760574031826</v>
-      </c>
-      <c r="RE3">
-        <v>1.412061368583108</v>
-      </c>
-      <c r="RF3">
-        <v>1.245228450812102</v>
-      </c>
-      <c r="RG3">
-        <v>12</v>
-      </c>
-      <c r="RH3">
-        <v>23</v>
-      </c>
-      <c r="RI3">
-        <v>18.33333333333333</v>
-      </c>
-      <c r="RJ3">
-        <v>4.642796092394707</v>
-      </c>
-      <c r="RK3">
-        <v>12.56508030928504</v>
-      </c>
-      <c r="RL3">
-        <v>0.1669771511528002</v>
-      </c>
-      <c r="RM3">
-        <v>12.7751260120747</v>
+      <c r="SB3">
+        <v>3</v>
+      </c>
+      <c r="SC3">
+        <v>2</v>
+      </c>
+      <c r="SD3">
+        <v>0.6324555320336759</v>
+      </c>
+      <c r="SE3">
+        <v>1.003709022285535</v>
+      </c>
+      <c r="SF3">
+        <v>22</v>
+      </c>
+      <c r="SG3">
+        <v>3.157941449218307</v>
+      </c>
+      <c r="SH3">
+        <v>0</v>
+      </c>
+      <c r="SI3">
+        <v>1.007813899106353</v>
+      </c>
+      <c r="SJ3">
+        <v>2.907802689441977</v>
+      </c>
+      <c r="SK3">
+        <v>1.146290199469234</v>
+      </c>
+      <c r="SL3">
+        <v>0.003013234373479913</v>
+      </c>
+      <c r="SM3">
+        <v>0.2546775460175867</v>
+      </c>
+      <c r="SN3">
+        <v>0.04952100820002821</v>
+      </c>
+      <c r="SO3">
+        <v>1.667711606338618</v>
+      </c>
+      <c r="SP3">
+        <v>2.151400011344555</v>
+      </c>
+      <c r="SQ3">
+        <v>1.901783025399223</v>
+      </c>
+      <c r="SR3">
+        <v>0.1639421493013532</v>
       </c>
     </row>
   </sheetData>
@@ -4071,7 +4315,7 @@
     <mergeCell ref="KK1:LZ1"/>
     <mergeCell ref="MA1:NP1"/>
     <mergeCell ref="NQ1:PF1"/>
-    <mergeCell ref="PG1:RV1"/>
+    <mergeCell ref="PG1:SR1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
